--- a/Logs/adsai_y2b_25_26_worklog.xlsx
+++ b/Logs/adsai_y2b_25_26_worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\2025-26b-fai2-adsai-MaciejCzerniak243552\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC78F87-78C8-4FEE-A354-B8F0CE3FDA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4534FF8A-4457-46A9-A336-D4560123E71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -379,6 +379,18 @@
   <si>
     <t>The time spent on reading is underestimated since it is hard to track for me. I don't pay attention when I started reading.</t>
   </si>
+  <si>
+    <t>1. Basics</t>
+  </si>
+  <si>
+    <t>Tangible Landscape</t>
+  </si>
+  <si>
+    <t>Image Annotation</t>
+  </si>
+  <si>
+    <t>Task_1</t>
+  </si>
 </sst>
 </file>
 
@@ -389,7 +401,7 @@
     <numFmt numFmtId="165" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -469,6 +481,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -702,10 +728,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -853,26 +880,6 @@
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -889,6 +896,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -907,6 +916,24 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -914,8 +941,12 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
@@ -1388,8 +1419,8 @@
   <dimension ref="A1:K185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1442,53 +1473,53 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="44">
@@ -1619,7 +1650,7 @@
         <v>71</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>66</v>
@@ -1637,7 +1668,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="51"/>
+      <c r="J9" s="78" t="s">
+        <v>95</v>
+      </c>
       <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" s="50" customFormat="1" ht="48" x14ac:dyDescent="0.25">
@@ -1667,7 +1700,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J10" s="51"/>
+      <c r="J10" s="78" t="s">
+        <v>93</v>
+      </c>
       <c r="K10" s="37" t="s">
         <v>82</v>
       </c>
@@ -1797,18 +1832,15 @@
       <c r="J14" s="49"/>
       <c r="K14" s="37"/>
     </row>
-    <row r="15" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
-        <v>45975</v>
-      </c>
+    <row r="15" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="45" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>66</v>
@@ -1817,29 +1849,32 @@
         <v>79</v>
       </c>
       <c r="G15" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="37" t="s">
-        <v>91</v>
-      </c>
+      <c r="J15" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A16" s="44">
+        <v>45975</v>
+      </c>
       <c r="B16" s="45" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>66</v>
@@ -1848,91 +1883,107 @@
         <v>79</v>
       </c>
       <c r="G16" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="49"/>
       <c r="K16" s="37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
-        <v>45976</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G17" s="48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H17" s="48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="37"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="44">
+        <v>45976</v>
+      </c>
       <c r="B18" s="45" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G18" s="48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18" s="51"/>
       <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
+      <c r="B19" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="C19" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
+        <v>71</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="48">
+        <v>1</v>
+      </c>
+      <c r="H19" s="48">
+        <v>1</v>
+      </c>
       <c r="I19" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2173,11 +2224,11 @@
       <c r="F33" s="15"/>
       <c r="G33" s="18">
         <f>SUM(G5:G32)</f>
-        <v>29.75</v>
+        <v>32.75</v>
       </c>
       <c r="H33" s="18">
         <f>SUM(H5:H32)</f>
-        <v>40.75</v>
+        <v>43.75</v>
       </c>
       <c r="I33" s="18">
         <f t="shared" si="0"/>
@@ -2187,53 +2238,53 @@
       <c r="K33" s="38"/>
     </row>
     <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="67"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="55"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
     </row>
     <row r="36" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="55"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="62"/>
     </row>
     <row r="37" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
@@ -2566,53 +2617,53 @@
       <c r="K54" s="38"/>
     </row>
     <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="71" t="s">
+      <c r="A55" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="55"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="62"/>
     </row>
     <row r="56" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="55"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="62"/>
     </row>
     <row r="57" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="55"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="62"/>
     </row>
     <row r="58" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
@@ -2981,53 +3032,53 @@
       <c r="K77" s="38"/>
     </row>
     <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="73" t="s">
+      <c r="A78" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="55"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="62"/>
     </row>
     <row r="79" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="55"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="62"/>
     </row>
     <row r="80" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="57" t="s">
+      <c r="B80" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="55"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="62"/>
     </row>
     <row r="81" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="44"/>
@@ -3360,53 +3411,53 @@
       <c r="K98" s="38"/>
     </row>
     <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="58" t="s">
+      <c r="A99" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B99" s="54"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="55"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="61"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="61"/>
+      <c r="K99" s="62"/>
     </row>
     <row r="100" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="59" t="s">
+      <c r="B100" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="54"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="55"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="61"/>
+      <c r="K100" s="62"/>
     </row>
     <row r="101" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B101" s="59" t="s">
+      <c r="B101" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="55"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="62"/>
     </row>
     <row r="102" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="44"/>
@@ -3757,53 +3808,53 @@
       <c r="K120" s="38"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="60" t="s">
+      <c r="A121" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B121" s="54"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="55"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="61"/>
+      <c r="D121" s="61"/>
+      <c r="E121" s="61"/>
+      <c r="F121" s="61"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="62"/>
     </row>
     <row r="122" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B122" s="53" t="s">
+      <c r="B122" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C122" s="54"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="55"/>
+      <c r="C122" s="61"/>
+      <c r="D122" s="61"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="61"/>
+      <c r="G122" s="61"/>
+      <c r="H122" s="61"/>
+      <c r="I122" s="61"/>
+      <c r="J122" s="61"/>
+      <c r="K122" s="62"/>
     </row>
     <row r="123" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B123" s="53" t="s">
+      <c r="B123" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="54"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54"/>
-      <c r="F123" s="54"/>
-      <c r="G123" s="54"/>
-      <c r="H123" s="54"/>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="55"/>
+      <c r="C123" s="61"/>
+      <c r="D123" s="61"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="62"/>
     </row>
     <row r="124" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="44"/>
@@ -4154,53 +4205,53 @@
       <c r="K142" s="38"/>
     </row>
     <row r="143" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="56" t="s">
+      <c r="A143" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B143" s="54"/>
-      <c r="C143" s="54"/>
-      <c r="D143" s="54"/>
-      <c r="E143" s="54"/>
-      <c r="F143" s="54"/>
-      <c r="G143" s="54"/>
-      <c r="H143" s="54"/>
-      <c r="I143" s="54"/>
-      <c r="J143" s="54"/>
-      <c r="K143" s="55"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="61"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="61"/>
+      <c r="I143" s="61"/>
+      <c r="J143" s="61"/>
+      <c r="K143" s="62"/>
     </row>
     <row r="144" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B144" s="74" t="s">
+      <c r="B144" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C144" s="54"/>
-      <c r="D144" s="54"/>
-      <c r="E144" s="54"/>
-      <c r="F144" s="54"/>
-      <c r="G144" s="54"/>
-      <c r="H144" s="54"/>
-      <c r="I144" s="54"/>
-      <c r="J144" s="54"/>
-      <c r="K144" s="55"/>
+      <c r="C144" s="61"/>
+      <c r="D144" s="61"/>
+      <c r="E144" s="61"/>
+      <c r="F144" s="61"/>
+      <c r="G144" s="61"/>
+      <c r="H144" s="61"/>
+      <c r="I144" s="61"/>
+      <c r="J144" s="61"/>
+      <c r="K144" s="62"/>
     </row>
     <row r="145" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B145" s="74" t="s">
+      <c r="B145" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C145" s="54"/>
-      <c r="D145" s="54"/>
-      <c r="E145" s="54"/>
-      <c r="F145" s="54"/>
-      <c r="G145" s="54"/>
-      <c r="H145" s="54"/>
-      <c r="I145" s="54"/>
-      <c r="J145" s="54"/>
-      <c r="K145" s="55"/>
+      <c r="C145" s="61"/>
+      <c r="D145" s="61"/>
+      <c r="E145" s="61"/>
+      <c r="F145" s="61"/>
+      <c r="G145" s="61"/>
+      <c r="H145" s="61"/>
+      <c r="I145" s="61"/>
+      <c r="J145" s="61"/>
+      <c r="K145" s="62"/>
     </row>
     <row r="146" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="44"/>
@@ -4533,53 +4584,53 @@
       <c r="K163" s="38"/>
     </row>
     <row r="164" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="61" t="s">
+      <c r="A164" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B164" s="62"/>
-      <c r="C164" s="62"/>
-      <c r="D164" s="62"/>
-      <c r="E164" s="62"/>
-      <c r="F164" s="62"/>
-      <c r="G164" s="62"/>
-      <c r="H164" s="62"/>
-      <c r="I164" s="62"/>
-      <c r="J164" s="62"/>
-      <c r="K164" s="63"/>
+      <c r="B164" s="54"/>
+      <c r="C164" s="54"/>
+      <c r="D164" s="54"/>
+      <c r="E164" s="54"/>
+      <c r="F164" s="54"/>
+      <c r="G164" s="54"/>
+      <c r="H164" s="54"/>
+      <c r="I164" s="54"/>
+      <c r="J164" s="54"/>
+      <c r="K164" s="55"/>
     </row>
     <row r="165" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B165" s="64" t="s">
+      <c r="B165" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C165" s="62"/>
-      <c r="D165" s="62"/>
-      <c r="E165" s="62"/>
-      <c r="F165" s="62"/>
-      <c r="G165" s="62"/>
-      <c r="H165" s="62"/>
-      <c r="I165" s="62"/>
-      <c r="J165" s="62"/>
-      <c r="K165" s="63"/>
+      <c r="C165" s="54"/>
+      <c r="D165" s="54"/>
+      <c r="E165" s="54"/>
+      <c r="F165" s="54"/>
+      <c r="G165" s="54"/>
+      <c r="H165" s="54"/>
+      <c r="I165" s="54"/>
+      <c r="J165" s="54"/>
+      <c r="K165" s="55"/>
     </row>
     <row r="166" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B166" s="64" t="s">
+      <c r="B166" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C166" s="62"/>
-      <c r="D166" s="62"/>
-      <c r="E166" s="62"/>
-      <c r="F166" s="62"/>
-      <c r="G166" s="62"/>
-      <c r="H166" s="62"/>
-      <c r="I166" s="62"/>
-      <c r="J166" s="62"/>
-      <c r="K166" s="63"/>
+      <c r="C166" s="54"/>
+      <c r="D166" s="54"/>
+      <c r="E166" s="54"/>
+      <c r="F166" s="54"/>
+      <c r="G166" s="54"/>
+      <c r="H166" s="54"/>
+      <c r="I166" s="54"/>
+      <c r="J166" s="54"/>
+      <c r="K166" s="55"/>
     </row>
     <row r="167" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="44"/>
@@ -4934,7 +4985,7 @@
   <customSheetViews>
     <customSheetView guid="{8BAC9A6B-5D32-4E8D-967D-E17D357516F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:K15" xr:uid="{78D07490-1D8D-4A0F-9441-6EDB66E55329}">
+      <autoFilter ref="A1:K15" xr:uid="{64B15C42-DE0A-4FCB-B053-B9F85EFCCA94}">
         <filterColumn colId="1">
           <filters blank="1">
             <filter val="- Weekplan item 1_x000a_- Weekplan item 2_x000a_- Weekplan item 3_x000a_- etc"/>
@@ -4945,6 +4996,14 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
+    <mergeCell ref="B122:K122"/>
+    <mergeCell ref="B123:K123"/>
+    <mergeCell ref="A143:K143"/>
+    <mergeCell ref="B80:K80"/>
+    <mergeCell ref="A99:K99"/>
+    <mergeCell ref="B100:K100"/>
+    <mergeCell ref="B101:K101"/>
+    <mergeCell ref="A121:K121"/>
     <mergeCell ref="A164:K164"/>
     <mergeCell ref="B165:K165"/>
     <mergeCell ref="B166:K166"/>
@@ -4961,14 +5020,6 @@
     <mergeCell ref="B144:K144"/>
     <mergeCell ref="B145:K145"/>
     <mergeCell ref="B79:K79"/>
-    <mergeCell ref="B122:K122"/>
-    <mergeCell ref="B123:K123"/>
-    <mergeCell ref="A143:K143"/>
-    <mergeCell ref="B80:K80"/>
-    <mergeCell ref="A99:K99"/>
-    <mergeCell ref="B100:K100"/>
-    <mergeCell ref="B101:K101"/>
-    <mergeCell ref="A121:K121"/>
   </mergeCells>
   <conditionalFormatting sqref="B35:B53 B58:B76 B81:B97 B102:B119 B124:B141 B146:B162 B5:B32">
     <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Unplanned">
@@ -5027,7 +5078,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I33 I37:I54 I58:I77 I81:I98 I102:I120 I124:I142 I146:I163 I167:I185">
+  <conditionalFormatting sqref="I37:I54 I58:I77 I81:I98 I102:I120 I124:I142 I146:I163 I167:I185 I5:I33">
     <cfRule type="expression" dxfId="1" priority="15">
       <formula>H5/G5&gt;=1.5</formula>
     </cfRule>
@@ -5040,8 +5091,14 @@
       <formula1>"ILO 1.6, ILO 2.6, ILO 5.1, ILO 6.4, ILO 8.5, ILO 8.6"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J10" r:id="rId1" xr:uid="{338167E6-7B0F-4DEB-BE9A-83BBFDE4AA41}"/>
+    <hyperlink ref="J9" r:id="rId2" xr:uid="{0D930CB9-7189-4EC5-83D8-1C1C65571550}"/>
+    <hyperlink ref="J17" r:id="rId3" display="Tangible Landscape" xr:uid="{4DC2825B-87CF-459D-B3D8-25ECA4518806}"/>
+    <hyperlink ref="J15" r:id="rId4" xr:uid="{ACEDFC9A-0FF0-4EB7-B8A2-A808AF51EC76}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -6706,14 +6763,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6952,21 +7007,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
-    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6991,9 +7045,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
+    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Logs/adsai_y2b_25_26_worklog.xlsx
+++ b/Logs/adsai_y2b_25_26_worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\2025-26b-fai2-adsai-MaciejCzerniak243552\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4534FF8A-4457-46A9-A336-D4560123E71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE478848-C597-47A7-B186-C3750EDD37BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -880,6 +880,29 @@
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -896,8 +919,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -916,33 +937,12 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1419,8 +1419,8 @@
   <dimension ref="A1:K185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1473,53 +1473,53 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="44">
@@ -1668,7 +1668,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="78" t="s">
+      <c r="J9" s="53" t="s">
         <v>95</v>
       </c>
       <c r="K9" s="37"/>
@@ -1700,7 +1700,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="53" t="s">
         <v>93</v>
       </c>
       <c r="K10" s="37" t="s">
@@ -1763,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="48">
-        <f t="shared" ref="I12:I18" si="2">H12-G12</f>
+        <f t="shared" ref="I12:I15" si="2">H12-G12</f>
         <v>0</v>
       </c>
       <c r="J12" s="49"/>
@@ -1858,7 +1858,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="78" t="s">
+      <c r="J15" s="53" t="s">
         <v>95</v>
       </c>
       <c r="K15" s="37"/>
@@ -1923,7 +1923,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="78" t="s">
+      <c r="J17" s="53" t="s">
         <v>92</v>
       </c>
       <c r="K17" s="37" t="s">
@@ -2238,53 +2238,53 @@
       <c r="K33" s="38"/>
     </row>
     <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="59"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="68"/>
     </row>
     <row r="35" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="56"/>
     </row>
     <row r="36" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="62"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="56"/>
     </row>
     <row r="37" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
@@ -2617,53 +2617,53 @@
       <c r="K54" s="38"/>
     </row>
     <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="62"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="56"/>
     </row>
     <row r="56" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="62"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="56"/>
     </row>
     <row r="57" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="62"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="56"/>
     </row>
     <row r="58" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
@@ -3032,53 +3032,53 @@
       <c r="K77" s="38"/>
     </row>
     <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="67" t="s">
+      <c r="A78" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="61"/>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="62"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="56"/>
     </row>
     <row r="79" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="69" t="s">
+      <c r="B79" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="62"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="56"/>
     </row>
     <row r="80" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="69" t="s">
+      <c r="B80" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="62"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="56"/>
     </row>
     <row r="81" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="44"/>
@@ -3411,53 +3411,53 @@
       <c r="K98" s="38"/>
     </row>
     <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="72" t="s">
+      <c r="A99" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B99" s="61"/>
-      <c r="C99" s="61"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="61"/>
-      <c r="F99" s="61"/>
-      <c r="G99" s="61"/>
-      <c r="H99" s="61"/>
-      <c r="I99" s="61"/>
-      <c r="J99" s="61"/>
-      <c r="K99" s="62"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="56"/>
     </row>
     <row r="100" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="73" t="s">
+      <c r="B100" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="61"/>
-      <c r="D100" s="61"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="61"/>
-      <c r="J100" s="61"/>
-      <c r="K100" s="62"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="56"/>
     </row>
     <row r="101" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B101" s="73" t="s">
+      <c r="B101" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="61"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="61"/>
-      <c r="I101" s="61"/>
-      <c r="J101" s="61"/>
-      <c r="K101" s="62"/>
+      <c r="C101" s="55"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="55"/>
+      <c r="K101" s="56"/>
     </row>
     <row r="102" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="44"/>
@@ -3808,53 +3808,53 @@
       <c r="K120" s="38"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="74" t="s">
+      <c r="A121" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B121" s="61"/>
-      <c r="C121" s="61"/>
-      <c r="D121" s="61"/>
-      <c r="E121" s="61"/>
-      <c r="F121" s="61"/>
-      <c r="G121" s="61"/>
-      <c r="H121" s="61"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="62"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="55"/>
+      <c r="J121" s="55"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B122" s="70" t="s">
+      <c r="B122" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C122" s="61"/>
-      <c r="D122" s="61"/>
-      <c r="E122" s="61"/>
-      <c r="F122" s="61"/>
-      <c r="G122" s="61"/>
-      <c r="H122" s="61"/>
-      <c r="I122" s="61"/>
-      <c r="J122" s="61"/>
-      <c r="K122" s="62"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="56"/>
     </row>
     <row r="123" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B123" s="70" t="s">
+      <c r="B123" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="61"/>
-      <c r="D123" s="61"/>
-      <c r="E123" s="61"/>
-      <c r="F123" s="61"/>
-      <c r="G123" s="61"/>
-      <c r="H123" s="61"/>
-      <c r="I123" s="61"/>
-      <c r="J123" s="61"/>
-      <c r="K123" s="62"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="55"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="55"/>
+      <c r="I123" s="55"/>
+      <c r="J123" s="55"/>
+      <c r="K123" s="56"/>
     </row>
     <row r="124" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="44"/>
@@ -4205,53 +4205,53 @@
       <c r="K142" s="38"/>
     </row>
     <row r="143" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="71" t="s">
+      <c r="A143" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B143" s="61"/>
-      <c r="C143" s="61"/>
-      <c r="D143" s="61"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="61"/>
-      <c r="G143" s="61"/>
-      <c r="H143" s="61"/>
-      <c r="I143" s="61"/>
-      <c r="J143" s="61"/>
-      <c r="K143" s="62"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="55"/>
+      <c r="D143" s="55"/>
+      <c r="E143" s="55"/>
+      <c r="F143" s="55"/>
+      <c r="G143" s="55"/>
+      <c r="H143" s="55"/>
+      <c r="I143" s="55"/>
+      <c r="J143" s="55"/>
+      <c r="K143" s="56"/>
     </row>
     <row r="144" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B144" s="68" t="s">
+      <c r="B144" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C144" s="61"/>
-      <c r="D144" s="61"/>
-      <c r="E144" s="61"/>
-      <c r="F144" s="61"/>
-      <c r="G144" s="61"/>
-      <c r="H144" s="61"/>
-      <c r="I144" s="61"/>
-      <c r="J144" s="61"/>
-      <c r="K144" s="62"/>
+      <c r="C144" s="55"/>
+      <c r="D144" s="55"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="55"/>
+      <c r="G144" s="55"/>
+      <c r="H144" s="55"/>
+      <c r="I144" s="55"/>
+      <c r="J144" s="55"/>
+      <c r="K144" s="56"/>
     </row>
     <row r="145" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B145" s="68" t="s">
+      <c r="B145" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C145" s="61"/>
-      <c r="D145" s="61"/>
-      <c r="E145" s="61"/>
-      <c r="F145" s="61"/>
-      <c r="G145" s="61"/>
-      <c r="H145" s="61"/>
-      <c r="I145" s="61"/>
-      <c r="J145" s="61"/>
-      <c r="K145" s="62"/>
+      <c r="C145" s="55"/>
+      <c r="D145" s="55"/>
+      <c r="E145" s="55"/>
+      <c r="F145" s="55"/>
+      <c r="G145" s="55"/>
+      <c r="H145" s="55"/>
+      <c r="I145" s="55"/>
+      <c r="J145" s="55"/>
+      <c r="K145" s="56"/>
     </row>
     <row r="146" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="44"/>
@@ -4584,53 +4584,53 @@
       <c r="K163" s="38"/>
     </row>
     <row r="164" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="53" t="s">
+      <c r="A164" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B164" s="54"/>
-      <c r="C164" s="54"/>
-      <c r="D164" s="54"/>
-      <c r="E164" s="54"/>
-      <c r="F164" s="54"/>
-      <c r="G164" s="54"/>
-      <c r="H164" s="54"/>
-      <c r="I164" s="54"/>
-      <c r="J164" s="54"/>
-      <c r="K164" s="55"/>
+      <c r="B164" s="63"/>
+      <c r="C164" s="63"/>
+      <c r="D164" s="63"/>
+      <c r="E164" s="63"/>
+      <c r="F164" s="63"/>
+      <c r="G164" s="63"/>
+      <c r="H164" s="63"/>
+      <c r="I164" s="63"/>
+      <c r="J164" s="63"/>
+      <c r="K164" s="64"/>
     </row>
     <row r="165" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B165" s="56" t="s">
+      <c r="B165" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C165" s="54"/>
-      <c r="D165" s="54"/>
-      <c r="E165" s="54"/>
-      <c r="F165" s="54"/>
-      <c r="G165" s="54"/>
-      <c r="H165" s="54"/>
-      <c r="I165" s="54"/>
-      <c r="J165" s="54"/>
-      <c r="K165" s="55"/>
+      <c r="C165" s="63"/>
+      <c r="D165" s="63"/>
+      <c r="E165" s="63"/>
+      <c r="F165" s="63"/>
+      <c r="G165" s="63"/>
+      <c r="H165" s="63"/>
+      <c r="I165" s="63"/>
+      <c r="J165" s="63"/>
+      <c r="K165" s="64"/>
     </row>
     <row r="166" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B166" s="56" t="s">
+      <c r="B166" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C166" s="54"/>
-      <c r="D166" s="54"/>
-      <c r="E166" s="54"/>
-      <c r="F166" s="54"/>
-      <c r="G166" s="54"/>
-      <c r="H166" s="54"/>
-      <c r="I166" s="54"/>
-      <c r="J166" s="54"/>
-      <c r="K166" s="55"/>
+      <c r="C166" s="63"/>
+      <c r="D166" s="63"/>
+      <c r="E166" s="63"/>
+      <c r="F166" s="63"/>
+      <c r="G166" s="63"/>
+      <c r="H166" s="63"/>
+      <c r="I166" s="63"/>
+      <c r="J166" s="63"/>
+      <c r="K166" s="64"/>
     </row>
     <row r="167" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="44"/>
@@ -4985,7 +4985,7 @@
   <customSheetViews>
     <customSheetView guid="{8BAC9A6B-5D32-4E8D-967D-E17D357516F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:K15" xr:uid="{64B15C42-DE0A-4FCB-B053-B9F85EFCCA94}">
+      <autoFilter ref="A1:K15" xr:uid="{D8329386-EEA9-4142-8D37-12956A9D6B41}">
         <filterColumn colId="1">
           <filters blank="1">
             <filter val="- Weekplan item 1_x000a_- Weekplan item 2_x000a_- Weekplan item 3_x000a_- etc"/>
@@ -4996,14 +4996,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
-    <mergeCell ref="B122:K122"/>
-    <mergeCell ref="B123:K123"/>
-    <mergeCell ref="A143:K143"/>
-    <mergeCell ref="B80:K80"/>
-    <mergeCell ref="A99:K99"/>
-    <mergeCell ref="B100:K100"/>
-    <mergeCell ref="B101:K101"/>
-    <mergeCell ref="A121:K121"/>
     <mergeCell ref="A164:K164"/>
     <mergeCell ref="B165:K165"/>
     <mergeCell ref="B166:K166"/>
@@ -5020,8 +5012,16 @@
     <mergeCell ref="B144:K144"/>
     <mergeCell ref="B145:K145"/>
     <mergeCell ref="B79:K79"/>
+    <mergeCell ref="B122:K122"/>
+    <mergeCell ref="B123:K123"/>
+    <mergeCell ref="A143:K143"/>
+    <mergeCell ref="B80:K80"/>
+    <mergeCell ref="A99:K99"/>
+    <mergeCell ref="B100:K100"/>
+    <mergeCell ref="B101:K101"/>
+    <mergeCell ref="A121:K121"/>
   </mergeCells>
-  <conditionalFormatting sqref="B35:B53 B58:B76 B81:B97 B102:B119 B124:B141 B146:B162 B5:B32">
+  <conditionalFormatting sqref="B5:B32 B35:B53 B58:B76 B81:B97 B102:B119 B124:B141 B146:B162">
     <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
@@ -5038,7 +5038,7 @@
       <formula>NOT(ISERROR(SEARCH(("Done"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B54 B56:B77 B79:B98 B100:B120 B122:B142 B144:B163 B165:B185 B5:B33">
+  <conditionalFormatting sqref="B5:B33 B35:B54 B56:B77 B79:B98 B100:B120 B122:B142 B144:B163 B165:B185">
     <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
@@ -5063,7 +5063,7 @@
       <formula>NOT(ISERROR(SEARCH(("Done"),(B167))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 G37:G54 G58:G77 G81:G98 G102:G120 G124:G142 G146:G163 G167:G185 G3:G33">
+  <conditionalFormatting sqref="G1 G3:G33 G37:G54 G58:G77 G81:G98 G102:G120 G124:G142 G146:G163 G167:G185">
     <cfRule type="cellIs" dxfId="4" priority="17" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
@@ -5078,7 +5078,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:I54 I58:I77 I81:I98 I102:I120 I124:I142 I146:I163 I167:I185 I5:I33">
+  <conditionalFormatting sqref="I5:I33 I37:I54 I58:I77 I81:I98 I102:I120 I124:I142 I146:I163 I167:I185">
     <cfRule type="expression" dxfId="1" priority="15">
       <formula>H5/G5&gt;=1.5</formula>
     </cfRule>
@@ -5094,7 +5094,7 @@
   <hyperlinks>
     <hyperlink ref="J10" r:id="rId1" xr:uid="{338167E6-7B0F-4DEB-BE9A-83BBFDE4AA41}"/>
     <hyperlink ref="J9" r:id="rId2" xr:uid="{0D930CB9-7189-4EC5-83D8-1C1C65571550}"/>
-    <hyperlink ref="J17" r:id="rId3" display="Tangible Landscape" xr:uid="{4DC2825B-87CF-459D-B3D8-25ECA4518806}"/>
+    <hyperlink ref="J17" r:id="rId3" xr:uid="{4DC2825B-87CF-459D-B3D8-25ECA4518806}"/>
     <hyperlink ref="J15" r:id="rId4" xr:uid="{ACEDFC9A-0FF0-4EB7-B8A2-A808AF51EC76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5550,58 +5550,58 @@
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6763,12 +6763,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7007,20 +7009,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
+    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7045,12 +7048,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
-    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Logs/adsai_y2b_25_26_worklog.xlsx
+++ b/Logs/adsai_y2b_25_26_worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\2025-26b-fai2-adsai-MaciejCzerniak243552\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE478848-C597-47A7-B186-C3750EDD37BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B9DA04-7506-4C6A-B022-3A4EADBA7BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="Drop-downs" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Worklog_Tasks&amp;Times'!$A$1:$K$162</definedName>
-    <definedName name="Z_8BAC9A6B_5D32_4E8D_967D_E17D357516F8_.wvu.FilterData" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Worklog_Tasks&amp;Times'!$A$1:$K$151</definedName>
+    <definedName name="Z_8BAC9A6B_5D32_4E8D_967D_E17D357516F8_.wvu.FilterData" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$22</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -338,9 +338,6 @@
     <t>Stand-up</t>
   </si>
   <si>
-    <t>Today I started first task which is image annotation. The task is more complex that it seems to be at the very beginning. The edges of each part are tricky but I understand how important it is for the model. More good work now, less stress later. I need to be cautious and if I am not sure whether a given mask is correct, I should consult it with a mentor.  This block promises to be challenging .</t>
-  </si>
-  <si>
     <t>ILO 6.4</t>
   </si>
   <si>
@@ -390,6 +387,21 @@
   </si>
   <si>
     <t>Task_1</t>
+  </si>
+  <si>
+    <t>Self-study</t>
+  </si>
+  <si>
+    <t>3. Morphological Operations</t>
+  </si>
+  <si>
+    <t>2. Thresholding and Filtering</t>
+  </si>
+  <si>
+    <t>Today I started first task which is image annotation. and the main challenge was correctly distinguishing the four classes: root, seed, shoot, and background. At first, I assumed it would be easy to label them based on color and shape differences, but in practice the boundaries were not as clear as expected. The root and shoot often blend into each other, and the seed sometimes has similar tones to the background depending on the lighting. I need to be cautious and if I am not sure whether a given mask is correct, I should consult it with a mentor.  This block promises to be challenging .</t>
+  </si>
+  <si>
+    <t>This week, I focused primarily on reading the assigned chapter, materials dedicated to that week, and starting the Week 1 notebooks. I realised early on that reading takes me longer than average due to dyslexia, so I made the strategic decision to begin the chapter before the block officially started. This helped me reduce pressure during the week and gave me more time to absorb the material. Reflecting on this decision, I can see that early preparation is an effective approach for tasks that require sustained concentration.</t>
   </si>
 </sst>
 </file>
@@ -883,26 +895,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -919,6 +911,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -936,6 +930,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1416,11 +1428,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K185"/>
+  <dimension ref="A1:K174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1473,53 +1485,53 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="44">
@@ -1545,7 +1557,7 @@
         <v>1.25</v>
       </c>
       <c r="I5" s="48">
-        <f t="shared" ref="I5:I33" si="0">H5-G5</f>
+        <f t="shared" ref="I5:I22" si="0">H5-G5</f>
         <v>0</v>
       </c>
       <c r="J5" s="49"/>
@@ -1596,7 +1608,7 @@
         <v>66</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="48">
         <v>3</v>
@@ -1611,7 +1623,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="37"/>
     </row>
-    <row r="8" spans="1:11" s="50" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="50" customFormat="1" ht="96" x14ac:dyDescent="0.25">
       <c r="B8" s="45" t="s">
         <v>54</v>
       </c>
@@ -1639,7 +1651,7 @@
       </c>
       <c r="J8" s="49"/>
       <c r="K8" s="37" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -1650,13 +1662,13 @@
         <v>71</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="48">
         <v>1</v>
@@ -1669,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K9" s="37"/>
     </row>
@@ -1681,10 +1693,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="47" t="s">
         <v>41</v>
@@ -1701,10 +1713,10 @@
         <v>3</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="48" x14ac:dyDescent="0.25">
@@ -1713,10 +1725,10 @@
         <v>54</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>41</v>
@@ -1734,7 +1746,7 @@
       </c>
       <c r="J11" s="51"/>
       <c r="K11" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="50" customFormat="1" ht="48" x14ac:dyDescent="0.25">
@@ -1745,16 +1757,16 @@
         <v>54</v>
       </c>
       <c r="C12" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>85</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>86</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="48">
         <v>3</v>
@@ -1768,7 +1780,7 @@
       </c>
       <c r="J12" s="49"/>
       <c r="K12" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -1776,16 +1788,16 @@
         <v>54</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="47" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="48">
         <v>4</v>
@@ -1808,16 +1820,16 @@
         <v>54</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="47" t="s">
         <v>66</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="48">
         <v>4</v>
@@ -1840,13 +1852,13 @@
         <v>71</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>66</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="48">
         <v>3</v>
@@ -1859,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K15" s="37"/>
     </row>
@@ -1871,16 +1883,16 @@
         <v>54</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>66</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="48">
         <v>2</v>
@@ -1894,7 +1906,7 @@
       </c>
       <c r="J16" s="49"/>
       <c r="K16" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -1902,32 +1914,32 @@
         <v>54</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -1959,24 +1971,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="51"/>
       <c r="K18" s="37"/>
     </row>
-    <row r="19" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B19" s="45" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="47" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="48">
         <v>1</v>
@@ -1988,112 +1999,151 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="51"/>
+      <c r="J19" s="53" t="s">
+        <v>97</v>
+      </c>
       <c r="K19" s="37"/>
     </row>
-    <row r="20" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
+    <row r="20" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="44">
+        <v>45977</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="C20" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
+        <v>95</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="48">
+        <v>0.5</v>
+      </c>
       <c r="I20" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="49"/>
+      <c r="J20" s="53" t="s">
+        <v>96</v>
+      </c>
       <c r="K20" s="37"/>
     </row>
-    <row r="21" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
+    <row r="21" spans="1:11" s="50" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="B21" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="C21" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
+        <v>63</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="48">
+        <v>0.5</v>
+      </c>
       <c r="I21" s="48">
+        <f t="shared" ref="I21" si="3">H21-G21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="51"/>
+      <c r="K21" s="37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="18">
+        <f>SUM(G5:G21)</f>
+        <v>34.75</v>
+      </c>
+      <c r="H22" s="18">
+        <f>SUM(H5:H21)</f>
+        <v>45.75</v>
+      </c>
+      <c r="I22" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="22" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="37"/>
-    </row>
-    <row r="23" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-      <c r="C23" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48">
-        <f t="shared" ref="I23:I30" si="3">H23-G23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="51"/>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="37"/>
-    </row>
-    <row r="25" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="51"/>
-      <c r="K25" s="37"/>
+        <v>11</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+    </row>
+    <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
+    </row>
+    <row r="25" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="26" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
       <c r="B26" s="45"/>
       <c r="C26" s="46" t="s">
         <v>16</v>
@@ -2104,13 +2154,14 @@
       <c r="G26" s="48"/>
       <c r="H26" s="48"/>
       <c r="I26" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I26:I43" si="4">H26-G26</f>
         <v>0</v>
       </c>
       <c r="J26" s="51"/>
       <c r="K26" s="37"/>
     </row>
     <row r="27" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="52"/>
       <c r="B27" s="45"/>
       <c r="C27" s="46" t="s">
         <v>16</v>
@@ -2121,13 +2172,14 @@
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
       <c r="I27" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J27" s="51"/>
       <c r="K27" s="37"/>
     </row>
     <row r="28" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
       <c r="B28" s="45"/>
       <c r="C28" s="46" t="s">
         <v>16</v>
@@ -2138,13 +2190,14 @@
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
       <c r="I28" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="49"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="51"/>
       <c r="K28" s="37"/>
     </row>
     <row r="29" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
       <c r="B29" s="45"/>
       <c r="C29" s="46" t="s">
         <v>16</v>
@@ -2155,13 +2208,14 @@
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
       <c r="I29" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J29" s="51"/>
       <c r="K29" s="37"/>
     </row>
     <row r="30" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
       <c r="B30" s="45"/>
       <c r="C30" s="46" t="s">
         <v>16</v>
@@ -2172,13 +2226,14 @@
       <c r="G30" s="48"/>
       <c r="H30" s="48"/>
       <c r="I30" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J30" s="51"/>
       <c r="K30" s="37"/>
     </row>
     <row r="31" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="52"/>
       <c r="B31" s="45"/>
       <c r="C31" s="46" t="s">
         <v>16</v>
@@ -2189,14 +2244,14 @@
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="48">
-        <f t="shared" ref="I31" si="4">H31-G31</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J31" s="51"/>
       <c r="K31" s="37"/>
     </row>
     <row r="32" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="45"/>
       <c r="C32" s="46" t="s">
         <v>16</v>
@@ -2207,84 +2262,83 @@
       <c r="G32" s="48"/>
       <c r="H32" s="48"/>
       <c r="I32" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J32" s="51"/>
       <c r="K32" s="37"/>
     </row>
-    <row r="33" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="18">
-        <f>SUM(G5:G32)</f>
-        <v>32.75</v>
-      </c>
-      <c r="H33" s="18">
-        <f>SUM(H5:H32)</f>
-        <v>43.75</v>
-      </c>
-      <c r="I33" s="18">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="38"/>
-    </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="68"/>
-    </row>
-    <row r="35" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="56"/>
-    </row>
-    <row r="36" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="56"/>
+    <row r="33" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="51"/>
+      <c r="K33" s="37"/>
+    </row>
+    <row r="34" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48">
+        <f t="shared" ref="I34:I40" si="5">H34-G34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="51"/>
+      <c r="K34" s="37"/>
+    </row>
+    <row r="35" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="52"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="51"/>
+      <c r="K35" s="37"/>
+    </row>
+    <row r="36" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="52"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="51"/>
+      <c r="K36" s="37"/>
     </row>
     <row r="37" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
@@ -2298,7 +2352,7 @@
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
       <c r="I37" s="48">
-        <f t="shared" ref="I37:I54" si="5">H37-G37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J37" s="51"/>
@@ -2370,7 +2424,7 @@
       <c r="G41" s="48"/>
       <c r="H41" s="48"/>
       <c r="I41" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J41" s="51"/>
@@ -2388,86 +2442,87 @@
       <c r="G42" s="48"/>
       <c r="H42" s="48"/>
       <c r="I42" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J42" s="51"/>
       <c r="K42" s="37"/>
     </row>
-    <row r="43" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="51"/>
-      <c r="K43" s="37"/>
-    </row>
-    <row r="44" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="45"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="51"/>
-      <c r="K44" s="37"/>
-    </row>
-    <row r="45" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48">
-        <f t="shared" ref="I45:I51" si="6">H45-G45</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="51"/>
-      <c r="K45" s="37"/>
-    </row>
-    <row r="46" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="45"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48">
+    <row r="43" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="18">
+        <f t="shared" ref="G43:H43" si="6">SUM(G24:G42)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J46" s="51"/>
-      <c r="K46" s="37"/>
+      <c r="I43" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="19"/>
+      <c r="K43" s="38"/>
+    </row>
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="63"/>
+    </row>
+    <row r="45" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="63"/>
+    </row>
+    <row r="46" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="63"/>
     </row>
     <row r="47" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="45"/>
       <c r="C47" s="46" t="s">
         <v>16</v>
@@ -2478,14 +2533,14 @@
       <c r="G47" s="48"/>
       <c r="H47" s="48"/>
       <c r="I47" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I47:I66" si="7">H47-G47</f>
         <v>0</v>
       </c>
       <c r="J47" s="51"/>
       <c r="K47" s="37"/>
     </row>
     <row r="48" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="45"/>
       <c r="C48" s="46" t="s">
         <v>16</v>
@@ -2496,14 +2551,14 @@
       <c r="G48" s="48"/>
       <c r="H48" s="48"/>
       <c r="I48" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J48" s="51"/>
       <c r="K48" s="37"/>
     </row>
     <row r="49" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="45"/>
       <c r="C49" s="46" t="s">
         <v>16</v>
@@ -2514,14 +2569,14 @@
       <c r="G49" s="48"/>
       <c r="H49" s="48"/>
       <c r="I49" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J49" s="51"/>
       <c r="K49" s="37"/>
     </row>
     <row r="50" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="45"/>
       <c r="C50" s="46" t="s">
         <v>16</v>
@@ -2532,14 +2587,14 @@
       <c r="G50" s="48"/>
       <c r="H50" s="48"/>
       <c r="I50" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J50" s="51"/>
       <c r="K50" s="37"/>
     </row>
     <row r="51" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="45"/>
       <c r="C51" s="46" t="s">
         <v>16</v>
@@ -2550,14 +2605,14 @@
       <c r="G51" s="48"/>
       <c r="H51" s="48"/>
       <c r="I51" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J51" s="51"/>
       <c r="K51" s="37"/>
     </row>
     <row r="52" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="45"/>
       <c r="C52" s="46" t="s">
         <v>16</v>
@@ -2568,14 +2623,14 @@
       <c r="G52" s="48"/>
       <c r="H52" s="48"/>
       <c r="I52" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J52" s="51"/>
       <c r="K52" s="37"/>
     </row>
     <row r="53" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="45"/>
       <c r="C53" s="46" t="s">
         <v>16</v>
@@ -2586,84 +2641,83 @@
       <c r="G53" s="48"/>
       <c r="H53" s="48"/>
       <c r="I53" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J53" s="51"/>
       <c r="K53" s="37"/>
     </row>
-    <row r="54" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="18">
-        <f t="shared" ref="G54:H54" si="7">SUM(G35:G53)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="18">
+    <row r="54" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I54" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="19"/>
-      <c r="K54" s="38"/>
-    </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="56"/>
-    </row>
-    <row r="56" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="56"/>
-    </row>
-    <row r="57" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="56"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="37"/>
+    </row>
+    <row r="55" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="45"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="51"/>
+      <c r="K55" s="37"/>
+    </row>
+    <row r="56" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="45"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48">
+        <f t="shared" ref="I56:I64" si="8">H56-G56</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="51"/>
+      <c r="K56" s="37"/>
+    </row>
+    <row r="57" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="45"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="51"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
@@ -2677,7 +2731,7 @@
       <c r="G58" s="48"/>
       <c r="H58" s="48"/>
       <c r="I58" s="48">
-        <f t="shared" ref="I58:I77" si="8">H58-G58</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J58" s="51"/>
@@ -2803,83 +2857,84 @@
       <c r="G65" s="48"/>
       <c r="H65" s="48"/>
       <c r="I65" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J65" s="51"/>
       <c r="K65" s="37"/>
     </row>
-    <row r="66" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="45"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="51"/>
-      <c r="K66" s="37"/>
-    </row>
-    <row r="67" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="45"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48">
-        <f t="shared" ref="I67:I75" si="9">H67-G67</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="51"/>
-      <c r="K67" s="37"/>
-    </row>
-    <row r="68" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="45"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48">
+    <row r="66" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="18">
+        <f t="shared" ref="G66:H66" si="9">SUM(G47:G65)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J68" s="51"/>
-      <c r="K68" s="37"/>
-    </row>
-    <row r="69" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="45"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="51"/>
-      <c r="K69" s="37"/>
+      <c r="I66" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="19"/>
+      <c r="K66" s="38"/>
+    </row>
+    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="63"/>
+    </row>
+    <row r="68" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="63"/>
+    </row>
+    <row r="69" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="63"/>
     </row>
     <row r="70" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
@@ -2893,7 +2948,7 @@
       <c r="G70" s="48"/>
       <c r="H70" s="48"/>
       <c r="I70" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I70:I87" si="10">H70-G70</f>
         <v>0</v>
       </c>
       <c r="J70" s="51"/>
@@ -2911,7 +2966,7 @@
       <c r="G71" s="48"/>
       <c r="H71" s="48"/>
       <c r="I71" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J71" s="51"/>
@@ -2929,7 +2984,7 @@
       <c r="G72" s="48"/>
       <c r="H72" s="48"/>
       <c r="I72" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J72" s="51"/>
@@ -2947,7 +3002,7 @@
       <c r="G73" s="48"/>
       <c r="H73" s="48"/>
       <c r="I73" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J73" s="51"/>
@@ -2965,7 +3020,7 @@
       <c r="G74" s="48"/>
       <c r="H74" s="48"/>
       <c r="I74" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J74" s="51"/>
@@ -2983,7 +3038,7 @@
       <c r="G75" s="48"/>
       <c r="H75" s="48"/>
       <c r="I75" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J75" s="51"/>
@@ -3001,84 +3056,83 @@
       <c r="G76" s="48"/>
       <c r="H76" s="48"/>
       <c r="I76" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J76" s="51"/>
       <c r="K76" s="37"/>
     </row>
-    <row r="77" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="18">
-        <f t="shared" ref="G77:H77" si="10">SUM(G58:G76)</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="18">
+    <row r="77" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="44"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="45"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I77" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="19"/>
-      <c r="K77" s="38"/>
-    </row>
-    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" s="55"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="55"/>
-      <c r="K78" s="56"/>
-    </row>
-    <row r="79" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="56"/>
-    </row>
-    <row r="80" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
-      <c r="K80" s="56"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="37"/>
+    </row>
+    <row r="78" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="44"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="45"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48">
+        <f t="shared" ref="I78:I84" si="11">H78-G78</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="51"/>
+      <c r="K78" s="37"/>
+    </row>
+    <row r="79" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="44"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="45"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="51"/>
+      <c r="K79" s="37"/>
+    </row>
+    <row r="80" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A80" s="44"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="45"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="51"/>
+      <c r="K80" s="37"/>
     </row>
     <row r="81" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="44"/>
@@ -3092,7 +3146,7 @@
       <c r="G81" s="48"/>
       <c r="H81" s="48"/>
       <c r="I81" s="48">
-        <f t="shared" ref="I81:I98" si="11">H81-G81</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J81" s="51"/>
@@ -3164,7 +3218,7 @@
       <c r="G85" s="48"/>
       <c r="H85" s="48"/>
       <c r="I85" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J85" s="51"/>
@@ -3182,83 +3236,84 @@
       <c r="G86" s="48"/>
       <c r="H86" s="48"/>
       <c r="I86" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J86" s="51"/>
       <c r="K86" s="37"/>
     </row>
-    <row r="87" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="44"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="45"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="51"/>
-      <c r="K87" s="37"/>
-    </row>
-    <row r="88" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="45"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="51"/>
-      <c r="K88" s="37"/>
-    </row>
-    <row r="89" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="44"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="45"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48">
-        <f t="shared" ref="I89:I95" si="12">H89-G89</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="51"/>
-      <c r="K89" s="37"/>
-    </row>
-    <row r="90" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="44"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="45"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48">
+    <row r="87" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="15"/>
+      <c r="G87" s="18">
+        <f t="shared" ref="G87:H87" si="12">SUM(G70:G86)</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J90" s="51"/>
-      <c r="K90" s="37"/>
+      <c r="I87" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="19"/>
+      <c r="K87" s="38"/>
+    </row>
+    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="62"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="62"/>
+      <c r="J88" s="62"/>
+      <c r="K88" s="63"/>
+    </row>
+    <row r="89" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A89" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="62"/>
+      <c r="H89" s="62"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="62"/>
+      <c r="K89" s="63"/>
+    </row>
+    <row r="90" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="62"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="62"/>
+      <c r="J90" s="62"/>
+      <c r="K90" s="63"/>
     </row>
     <row r="91" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="44"/>
@@ -3272,7 +3327,7 @@
       <c r="G91" s="48"/>
       <c r="H91" s="48"/>
       <c r="I91" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I91:I109" si="13">H91-G91</f>
         <v>0</v>
       </c>
       <c r="J91" s="51"/>
@@ -3290,7 +3345,7 @@
       <c r="G92" s="48"/>
       <c r="H92" s="48"/>
       <c r="I92" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J92" s="51"/>
@@ -3308,7 +3363,7 @@
       <c r="G93" s="48"/>
       <c r="H93" s="48"/>
       <c r="I93" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J93" s="51"/>
@@ -3326,7 +3381,7 @@
       <c r="G94" s="48"/>
       <c r="H94" s="48"/>
       <c r="I94" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J94" s="51"/>
@@ -3344,7 +3399,7 @@
       <c r="G95" s="48"/>
       <c r="H95" s="48"/>
       <c r="I95" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J95" s="51"/>
@@ -3362,7 +3417,7 @@
       <c r="G96" s="48"/>
       <c r="H96" s="48"/>
       <c r="I96" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J96" s="51"/>
@@ -3380,84 +3435,83 @@
       <c r="G97" s="48"/>
       <c r="H97" s="48"/>
       <c r="I97" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J97" s="51"/>
       <c r="K97" s="37"/>
     </row>
-    <row r="98" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="15"/>
-      <c r="G98" s="18">
-        <f t="shared" ref="G98:H98" si="13">SUM(G81:G97)</f>
-        <v>0</v>
-      </c>
-      <c r="H98" s="18">
+    <row r="98" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A98" s="44"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="45"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="48">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I98" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="19"/>
-      <c r="K98" s="38"/>
-    </row>
-    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="55"/>
-      <c r="J99" s="55"/>
-      <c r="K99" s="56"/>
-    </row>
-    <row r="100" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B100" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="55"/>
-      <c r="J100" s="55"/>
-      <c r="K100" s="56"/>
-    </row>
-    <row r="101" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="55"/>
-      <c r="J101" s="55"/>
-      <c r="K101" s="56"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="37"/>
+    </row>
+    <row r="99" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A99" s="44"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="45"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48">
+        <f t="shared" ref="I99:I106" si="14">H99-G99</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="51"/>
+      <c r="K99" s="37"/>
+    </row>
+    <row r="100" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A100" s="44"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="45"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="48">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="51"/>
+      <c r="K100" s="37"/>
+    </row>
+    <row r="101" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A101" s="44"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="45"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="48">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="51"/>
+      <c r="K101" s="37"/>
     </row>
     <row r="102" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="44"/>
@@ -3471,7 +3525,7 @@
       <c r="G102" s="48"/>
       <c r="H102" s="48"/>
       <c r="I102" s="48">
-        <f t="shared" ref="I102:I120" si="14">H102-G102</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J102" s="51"/>
@@ -3561,7 +3615,7 @@
       <c r="G107" s="48"/>
       <c r="H107" s="48"/>
       <c r="I107" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J107" s="51"/>
@@ -3579,83 +3633,84 @@
       <c r="G108" s="48"/>
       <c r="H108" s="48"/>
       <c r="I108" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J108" s="51"/>
       <c r="K108" s="37"/>
     </row>
-    <row r="109" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="44"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="45"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="51"/>
-      <c r="K109" s="37"/>
-    </row>
-    <row r="110" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
-      <c r="B110" s="45"/>
-      <c r="C110" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="45"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="48">
-        <f t="shared" ref="I110:I117" si="15">H110-G110</f>
-        <v>0</v>
-      </c>
-      <c r="J110" s="51"/>
-      <c r="K110" s="37"/>
-    </row>
-    <row r="111" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="44"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" s="45"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="48">
+    <row r="109" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="15"/>
+      <c r="G109" s="18">
+        <f t="shared" ref="G109:H109" si="15">SUM(G91:G108)</f>
+        <v>0</v>
+      </c>
+      <c r="H109" s="18">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J111" s="51"/>
-      <c r="K111" s="37"/>
-    </row>
-    <row r="112" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="44"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" s="45"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="48">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="51"/>
-      <c r="K112" s="37"/>
+      <c r="I109" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="19"/>
+      <c r="K109" s="38"/>
+    </row>
+    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="62"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="62"/>
+      <c r="G110" s="62"/>
+      <c r="H110" s="62"/>
+      <c r="I110" s="62"/>
+      <c r="J110" s="62"/>
+      <c r="K110" s="63"/>
+    </row>
+    <row r="111" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A111" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="62"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="62"/>
+      <c r="F111" s="62"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="62"/>
+      <c r="I111" s="62"/>
+      <c r="J111" s="62"/>
+      <c r="K111" s="63"/>
+    </row>
+    <row r="112" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="62"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="62"/>
+      <c r="F112" s="62"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="62"/>
+      <c r="I112" s="62"/>
+      <c r="J112" s="62"/>
+      <c r="K112" s="63"/>
     </row>
     <row r="113" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="44"/>
@@ -3669,7 +3724,7 @@
       <c r="G113" s="48"/>
       <c r="H113" s="48"/>
       <c r="I113" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="I113:I131" si="16">H113-G113</f>
         <v>0</v>
       </c>
       <c r="J113" s="51"/>
@@ -3687,7 +3742,7 @@
       <c r="G114" s="48"/>
       <c r="H114" s="48"/>
       <c r="I114" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J114" s="51"/>
@@ -3705,7 +3760,7 @@
       <c r="G115" s="48"/>
       <c r="H115" s="48"/>
       <c r="I115" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J115" s="51"/>
@@ -3723,7 +3778,7 @@
       <c r="G116" s="48"/>
       <c r="H116" s="48"/>
       <c r="I116" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J116" s="51"/>
@@ -3741,7 +3796,7 @@
       <c r="G117" s="48"/>
       <c r="H117" s="48"/>
       <c r="I117" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J117" s="51"/>
@@ -3759,7 +3814,7 @@
       <c r="G118" s="48"/>
       <c r="H118" s="48"/>
       <c r="I118" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J118" s="51"/>
@@ -3777,84 +3832,83 @@
       <c r="G119" s="48"/>
       <c r="H119" s="48"/>
       <c r="I119" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J119" s="51"/>
       <c r="K119" s="37"/>
     </row>
-    <row r="120" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F120" s="15"/>
-      <c r="G120" s="18">
-        <f t="shared" ref="G120:H120" si="16">SUM(G102:G119)</f>
-        <v>0</v>
-      </c>
-      <c r="H120" s="18">
+    <row r="120" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A120" s="44"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="45"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="48">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I120" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="19"/>
-      <c r="K120" s="38"/>
-    </row>
-    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B121" s="55"/>
-      <c r="C121" s="55"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="55"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="55"/>
-      <c r="J121" s="55"/>
-      <c r="K121" s="56"/>
-    </row>
-    <row r="122" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B122" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" s="55"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="55"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="55"/>
-      <c r="J122" s="55"/>
-      <c r="K122" s="56"/>
-    </row>
-    <row r="123" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="55"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="55"/>
-      <c r="F123" s="55"/>
-      <c r="G123" s="55"/>
-      <c r="H123" s="55"/>
-      <c r="I123" s="55"/>
-      <c r="J123" s="55"/>
-      <c r="K123" s="56"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="37"/>
+    </row>
+    <row r="121" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A121" s="44"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="45"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48">
+        <f t="shared" ref="I121:I128" si="17">H121-G121</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="51"/>
+      <c r="K121" s="37"/>
+    </row>
+    <row r="122" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A122" s="44"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="45"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="51"/>
+      <c r="K122" s="37"/>
+    </row>
+    <row r="123" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A123" s="44"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="45"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="51"/>
+      <c r="K123" s="37"/>
     </row>
     <row r="124" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="44"/>
@@ -3868,7 +3922,7 @@
       <c r="G124" s="48"/>
       <c r="H124" s="48"/>
       <c r="I124" s="48">
-        <f t="shared" ref="I124:I142" si="17">H124-G124</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J124" s="51"/>
@@ -3958,7 +4012,7 @@
       <c r="G129" s="48"/>
       <c r="H129" s="48"/>
       <c r="I129" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J129" s="51"/>
@@ -3976,83 +4030,84 @@
       <c r="G130" s="48"/>
       <c r="H130" s="48"/>
       <c r="I130" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J130" s="51"/>
       <c r="K130" s="37"/>
     </row>
-    <row r="131" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A131" s="44"/>
-      <c r="B131" s="45"/>
-      <c r="C131" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" s="45"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="48"/>
-      <c r="H131" s="48"/>
-      <c r="I131" s="48">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="51"/>
-      <c r="K131" s="37"/>
-    </row>
-    <row r="132" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A132" s="44"/>
-      <c r="B132" s="45"/>
-      <c r="C132" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" s="45"/>
-      <c r="E132" s="47"/>
-      <c r="F132" s="47"/>
-      <c r="G132" s="48"/>
-      <c r="H132" s="48"/>
-      <c r="I132" s="48">
-        <f t="shared" ref="I132:I139" si="18">H132-G132</f>
-        <v>0</v>
-      </c>
-      <c r="J132" s="51"/>
-      <c r="K132" s="37"/>
-    </row>
-    <row r="133" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="44"/>
-      <c r="B133" s="45"/>
-      <c r="C133" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" s="45"/>
-      <c r="E133" s="47"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="48"/>
-      <c r="H133" s="48"/>
-      <c r="I133" s="48">
+    <row r="131" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A131" s="13"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="15"/>
+      <c r="G131" s="18">
+        <f t="shared" ref="G131:H131" si="18">SUM(G113:G130)</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J133" s="51"/>
-      <c r="K133" s="37"/>
-    </row>
-    <row r="134" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="44"/>
-      <c r="B134" s="45"/>
-      <c r="C134" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" s="45"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="48"/>
-      <c r="H134" s="48"/>
-      <c r="I134" s="48">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J134" s="51"/>
-      <c r="K134" s="37"/>
+      <c r="I131" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="19"/>
+      <c r="K131" s="38"/>
+    </row>
+    <row r="132" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" s="62"/>
+      <c r="C132" s="62"/>
+      <c r="D132" s="62"/>
+      <c r="E132" s="62"/>
+      <c r="F132" s="62"/>
+      <c r="G132" s="62"/>
+      <c r="H132" s="62"/>
+      <c r="I132" s="62"/>
+      <c r="J132" s="62"/>
+      <c r="K132" s="63"/>
+    </row>
+    <row r="133" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A133" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="62"/>
+      <c r="D133" s="62"/>
+      <c r="E133" s="62"/>
+      <c r="F133" s="62"/>
+      <c r="G133" s="62"/>
+      <c r="H133" s="62"/>
+      <c r="I133" s="62"/>
+      <c r="J133" s="62"/>
+      <c r="K133" s="63"/>
+    </row>
+    <row r="134" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="62"/>
+      <c r="D134" s="62"/>
+      <c r="E134" s="62"/>
+      <c r="F134" s="62"/>
+      <c r="G134" s="62"/>
+      <c r="H134" s="62"/>
+      <c r="I134" s="62"/>
+      <c r="J134" s="62"/>
+      <c r="K134" s="63"/>
     </row>
     <row r="135" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="44"/>
@@ -4066,7 +4121,7 @@
       <c r="G135" s="48"/>
       <c r="H135" s="48"/>
       <c r="I135" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="I135:I152" si="19">H135-G135</f>
         <v>0</v>
       </c>
       <c r="J135" s="51"/>
@@ -4084,7 +4139,7 @@
       <c r="G136" s="48"/>
       <c r="H136" s="48"/>
       <c r="I136" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J136" s="51"/>
@@ -4102,7 +4157,7 @@
       <c r="G137" s="48"/>
       <c r="H137" s="48"/>
       <c r="I137" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J137" s="51"/>
@@ -4120,7 +4175,7 @@
       <c r="G138" s="48"/>
       <c r="H138" s="48"/>
       <c r="I138" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J138" s="51"/>
@@ -4138,7 +4193,7 @@
       <c r="G139" s="48"/>
       <c r="H139" s="48"/>
       <c r="I139" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J139" s="51"/>
@@ -4156,7 +4211,7 @@
       <c r="G140" s="48"/>
       <c r="H140" s="48"/>
       <c r="I140" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J140" s="51"/>
@@ -4174,84 +4229,83 @@
       <c r="G141" s="48"/>
       <c r="H141" s="48"/>
       <c r="I141" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J141" s="51"/>
       <c r="K141" s="37"/>
     </row>
-    <row r="142" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="13"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F142" s="15"/>
-      <c r="G142" s="18">
-        <f t="shared" ref="G142:H142" si="19">SUM(G124:G141)</f>
-        <v>0</v>
-      </c>
-      <c r="H142" s="18">
+    <row r="142" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A142" s="44"/>
+      <c r="B142" s="45"/>
+      <c r="C142" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="45"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="47"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="48"/>
+      <c r="I142" s="48">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I142" s="18">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J142" s="19"/>
-      <c r="K142" s="38"/>
-    </row>
-    <row r="143" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B143" s="55"/>
-      <c r="C143" s="55"/>
-      <c r="D143" s="55"/>
-      <c r="E143" s="55"/>
-      <c r="F143" s="55"/>
-      <c r="G143" s="55"/>
-      <c r="H143" s="55"/>
-      <c r="I143" s="55"/>
-      <c r="J143" s="55"/>
-      <c r="K143" s="56"/>
-    </row>
-    <row r="144" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B144" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C144" s="55"/>
-      <c r="D144" s="55"/>
-      <c r="E144" s="55"/>
-      <c r="F144" s="55"/>
-      <c r="G144" s="55"/>
-      <c r="H144" s="55"/>
-      <c r="I144" s="55"/>
-      <c r="J144" s="55"/>
-      <c r="K144" s="56"/>
-    </row>
-    <row r="145" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B145" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C145" s="55"/>
-      <c r="D145" s="55"/>
-      <c r="E145" s="55"/>
-      <c r="F145" s="55"/>
-      <c r="G145" s="55"/>
-      <c r="H145" s="55"/>
-      <c r="I145" s="55"/>
-      <c r="J145" s="55"/>
-      <c r="K145" s="56"/>
+      <c r="J142" s="51"/>
+      <c r="K142" s="37"/>
+    </row>
+    <row r="143" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A143" s="44"/>
+      <c r="B143" s="45"/>
+      <c r="C143" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="45"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="48"/>
+      <c r="I143" s="48">
+        <f t="shared" ref="I143:I149" si="20">H143-G143</f>
+        <v>0</v>
+      </c>
+      <c r="J143" s="51"/>
+      <c r="K143" s="37"/>
+    </row>
+    <row r="144" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A144" s="44"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="45"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="47"/>
+      <c r="G144" s="48"/>
+      <c r="H144" s="48"/>
+      <c r="I144" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="51"/>
+      <c r="K144" s="37"/>
+    </row>
+    <row r="145" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A145" s="44"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="45"/>
+      <c r="E145" s="47"/>
+      <c r="F145" s="47"/>
+      <c r="G145" s="48"/>
+      <c r="H145" s="48"/>
+      <c r="I145" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J145" s="51"/>
+      <c r="K145" s="37"/>
     </row>
     <row r="146" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="44"/>
@@ -4265,7 +4319,7 @@
       <c r="G146" s="48"/>
       <c r="H146" s="48"/>
       <c r="I146" s="48">
-        <f t="shared" ref="I146:I163" si="20">H146-G146</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J146" s="51"/>
@@ -4337,7 +4391,7 @@
       <c r="G150" s="48"/>
       <c r="H150" s="48"/>
       <c r="I150" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J150" s="51"/>
@@ -4355,83 +4409,84 @@
       <c r="G151" s="48"/>
       <c r="H151" s="48"/>
       <c r="I151" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J151" s="51"/>
       <c r="K151" s="37"/>
     </row>
-    <row r="152" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="44"/>
-      <c r="B152" s="45"/>
-      <c r="C152" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D152" s="45"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="47"/>
-      <c r="G152" s="48"/>
-      <c r="H152" s="48"/>
-      <c r="I152" s="48">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J152" s="51"/>
-      <c r="K152" s="37"/>
-    </row>
-    <row r="153" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A153" s="44"/>
-      <c r="B153" s="45"/>
-      <c r="C153" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" s="45"/>
-      <c r="E153" s="47"/>
-      <c r="F153" s="47"/>
-      <c r="G153" s="48"/>
-      <c r="H153" s="48"/>
-      <c r="I153" s="48">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J153" s="51"/>
-      <c r="K153" s="37"/>
-    </row>
-    <row r="154" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="44"/>
-      <c r="B154" s="45"/>
-      <c r="C154" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D154" s="45"/>
-      <c r="E154" s="47"/>
-      <c r="F154" s="47"/>
-      <c r="G154" s="48"/>
-      <c r="H154" s="48"/>
-      <c r="I154" s="48">
-        <f t="shared" ref="I154:I160" si="21">H154-G154</f>
-        <v>0</v>
-      </c>
-      <c r="J154" s="51"/>
-      <c r="K154" s="37"/>
-    </row>
-    <row r="155" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="44"/>
-      <c r="B155" s="45"/>
-      <c r="C155" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D155" s="45"/>
-      <c r="E155" s="47"/>
-      <c r="F155" s="47"/>
-      <c r="G155" s="48"/>
-      <c r="H155" s="48"/>
-      <c r="I155" s="48">
+    <row r="152" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="13"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" s="15"/>
+      <c r="G152" s="18">
+        <f t="shared" ref="G152:H152" si="21">SUM(G135:G151)</f>
+        <v>0</v>
+      </c>
+      <c r="H152" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="J155" s="51"/>
-      <c r="K155" s="37"/>
+      <c r="I152" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="19"/>
+      <c r="K152" s="38"/>
+    </row>
+    <row r="153" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B153" s="55"/>
+      <c r="C153" s="55"/>
+      <c r="D153" s="55"/>
+      <c r="E153" s="55"/>
+      <c r="F153" s="55"/>
+      <c r="G153" s="55"/>
+      <c r="H153" s="55"/>
+      <c r="I153" s="55"/>
+      <c r="J153" s="55"/>
+      <c r="K153" s="56"/>
+    </row>
+    <row r="154" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A154" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="55"/>
+      <c r="D154" s="55"/>
+      <c r="E154" s="55"/>
+      <c r="F154" s="55"/>
+      <c r="G154" s="55"/>
+      <c r="H154" s="55"/>
+      <c r="I154" s="55"/>
+      <c r="J154" s="55"/>
+      <c r="K154" s="56"/>
+    </row>
+    <row r="155" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" s="55"/>
+      <c r="D155" s="55"/>
+      <c r="E155" s="55"/>
+      <c r="F155" s="55"/>
+      <c r="G155" s="55"/>
+      <c r="H155" s="55"/>
+      <c r="I155" s="55"/>
+      <c r="J155" s="55"/>
+      <c r="K155" s="56"/>
     </row>
     <row r="156" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="44"/>
@@ -4445,7 +4500,7 @@
       <c r="G156" s="48"/>
       <c r="H156" s="48"/>
       <c r="I156" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I156:I174" si="22">H156-G156</f>
         <v>0</v>
       </c>
       <c r="J156" s="51"/>
@@ -4463,7 +4518,7 @@
       <c r="G157" s="48"/>
       <c r="H157" s="48"/>
       <c r="I157" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J157" s="51"/>
@@ -4481,7 +4536,7 @@
       <c r="G158" s="48"/>
       <c r="H158" s="48"/>
       <c r="I158" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J158" s="51"/>
@@ -4499,7 +4554,7 @@
       <c r="G159" s="48"/>
       <c r="H159" s="48"/>
       <c r="I159" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J159" s="51"/>
@@ -4517,7 +4572,7 @@
       <c r="G160" s="48"/>
       <c r="H160" s="48"/>
       <c r="I160" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J160" s="51"/>
@@ -4535,7 +4590,7 @@
       <c r="G161" s="48"/>
       <c r="H161" s="48"/>
       <c r="I161" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J161" s="51"/>
@@ -4553,84 +4608,83 @@
       <c r="G162" s="48"/>
       <c r="H162" s="48"/>
       <c r="I162" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J162" s="51"/>
       <c r="K162" s="37"/>
     </row>
-    <row r="163" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A163" s="13"/>
-      <c r="B163" s="15"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F163" s="15"/>
-      <c r="G163" s="18">
-        <f t="shared" ref="G163:H163" si="22">SUM(G146:G162)</f>
-        <v>0</v>
-      </c>
-      <c r="H163" s="18">
+    <row r="163" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A163" s="44"/>
+      <c r="B163" s="45"/>
+      <c r="C163" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="45"/>
+      <c r="E163" s="47"/>
+      <c r="F163" s="47"/>
+      <c r="G163" s="48"/>
+      <c r="H163" s="48"/>
+      <c r="I163" s="48">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I163" s="18">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J163" s="19"/>
-      <c r="K163" s="38"/>
-    </row>
-    <row r="164" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B164" s="63"/>
-      <c r="C164" s="63"/>
-      <c r="D164" s="63"/>
-      <c r="E164" s="63"/>
-      <c r="F164" s="63"/>
-      <c r="G164" s="63"/>
-      <c r="H164" s="63"/>
-      <c r="I164" s="63"/>
-      <c r="J164" s="63"/>
-      <c r="K164" s="64"/>
-    </row>
-    <row r="165" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A165" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B165" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" s="63"/>
-      <c r="D165" s="63"/>
-      <c r="E165" s="63"/>
-      <c r="F165" s="63"/>
-      <c r="G165" s="63"/>
-      <c r="H165" s="63"/>
-      <c r="I165" s="63"/>
-      <c r="J165" s="63"/>
-      <c r="K165" s="64"/>
-    </row>
-    <row r="166" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B166" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C166" s="63"/>
-      <c r="D166" s="63"/>
-      <c r="E166" s="63"/>
-      <c r="F166" s="63"/>
-      <c r="G166" s="63"/>
-      <c r="H166" s="63"/>
-      <c r="I166" s="63"/>
-      <c r="J166" s="63"/>
-      <c r="K166" s="64"/>
+      <c r="J163" s="51"/>
+      <c r="K163" s="37"/>
+    </row>
+    <row r="164" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A164" s="44"/>
+      <c r="B164" s="45"/>
+      <c r="C164" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="45"/>
+      <c r="E164" s="47"/>
+      <c r="F164" s="47"/>
+      <c r="G164" s="48"/>
+      <c r="H164" s="48"/>
+      <c r="I164" s="48">
+        <f t="shared" ref="I164:I171" si="23">H164-G164</f>
+        <v>0</v>
+      </c>
+      <c r="J164" s="51"/>
+      <c r="K164" s="37"/>
+    </row>
+    <row r="165" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A165" s="44"/>
+      <c r="B165" s="45"/>
+      <c r="C165" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="45"/>
+      <c r="E165" s="47"/>
+      <c r="F165" s="47"/>
+      <c r="G165" s="48"/>
+      <c r="H165" s="48"/>
+      <c r="I165" s="48">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J165" s="51"/>
+      <c r="K165" s="37"/>
+    </row>
+    <row r="166" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A166" s="44"/>
+      <c r="B166" s="45"/>
+      <c r="C166" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="45"/>
+      <c r="E166" s="47"/>
+      <c r="F166" s="47"/>
+      <c r="G166" s="48"/>
+      <c r="H166" s="48"/>
+      <c r="I166" s="48">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J166" s="51"/>
+      <c r="K166" s="37"/>
     </row>
     <row r="167" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="44"/>
@@ -4644,7 +4698,7 @@
       <c r="G167" s="48"/>
       <c r="H167" s="48"/>
       <c r="I167" s="48">
-        <f t="shared" ref="I167:I185" si="23">H167-G167</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J167" s="51"/>
@@ -4734,7 +4788,7 @@
       <c r="G172" s="48"/>
       <c r="H172" s="48"/>
       <c r="I172" s="48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J172" s="51"/>
@@ -4752,240 +4806,42 @@
       <c r="G173" s="48"/>
       <c r="H173" s="48"/>
       <c r="I173" s="48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J173" s="51"/>
       <c r="K173" s="37"/>
     </row>
-    <row r="174" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A174" s="44"/>
-      <c r="B174" s="45"/>
-      <c r="C174" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" s="45"/>
-      <c r="E174" s="47"/>
-      <c r="F174" s="47"/>
-      <c r="G174" s="48"/>
-      <c r="H174" s="48"/>
-      <c r="I174" s="48">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J174" s="51"/>
-      <c r="K174" s="37"/>
-    </row>
-    <row r="175" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="44"/>
-      <c r="B175" s="45"/>
-      <c r="C175" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D175" s="45"/>
-      <c r="E175" s="47"/>
-      <c r="F175" s="47"/>
-      <c r="G175" s="48"/>
-      <c r="H175" s="48"/>
-      <c r="I175" s="48">
-        <f t="shared" ref="I175:I182" si="24">H175-G175</f>
-        <v>0</v>
-      </c>
-      <c r="J175" s="51"/>
-      <c r="K175" s="37"/>
-    </row>
-    <row r="176" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A176" s="44"/>
-      <c r="B176" s="45"/>
-      <c r="C176" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" s="45"/>
-      <c r="E176" s="47"/>
-      <c r="F176" s="47"/>
-      <c r="G176" s="48"/>
-      <c r="H176" s="48"/>
-      <c r="I176" s="48">
+    <row r="174" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A174" s="39"/>
+      <c r="B174" s="40"/>
+      <c r="C174" s="40"/>
+      <c r="D174" s="40"/>
+      <c r="E174" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" s="40"/>
+      <c r="G174" s="41">
+        <f t="shared" ref="G174:H174" si="24">SUM(G156:G173)</f>
+        <v>0</v>
+      </c>
+      <c r="H174" s="41">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J176" s="51"/>
-      <c r="K176" s="37"/>
-    </row>
-    <row r="177" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A177" s="44"/>
-      <c r="B177" s="45"/>
-      <c r="C177" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177" s="45"/>
-      <c r="E177" s="47"/>
-      <c r="F177" s="47"/>
-      <c r="G177" s="48"/>
-      <c r="H177" s="48"/>
-      <c r="I177" s="48">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J177" s="51"/>
-      <c r="K177" s="37"/>
-    </row>
-    <row r="178" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A178" s="44"/>
-      <c r="B178" s="45"/>
-      <c r="C178" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D178" s="45"/>
-      <c r="E178" s="47"/>
-      <c r="F178" s="47"/>
-      <c r="G178" s="48"/>
-      <c r="H178" s="48"/>
-      <c r="I178" s="48">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J178" s="51"/>
-      <c r="K178" s="37"/>
-    </row>
-    <row r="179" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A179" s="44"/>
-      <c r="B179" s="45"/>
-      <c r="C179" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D179" s="45"/>
-      <c r="E179" s="47"/>
-      <c r="F179" s="47"/>
-      <c r="G179" s="48"/>
-      <c r="H179" s="48"/>
-      <c r="I179" s="48">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J179" s="51"/>
-      <c r="K179" s="37"/>
-    </row>
-    <row r="180" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A180" s="44"/>
-      <c r="B180" s="45"/>
-      <c r="C180" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" s="45"/>
-      <c r="E180" s="47"/>
-      <c r="F180" s="47"/>
-      <c r="G180" s="48"/>
-      <c r="H180" s="48"/>
-      <c r="I180" s="48">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J180" s="51"/>
-      <c r="K180" s="37"/>
-    </row>
-    <row r="181" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A181" s="44"/>
-      <c r="B181" s="45"/>
-      <c r="C181" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D181" s="45"/>
-      <c r="E181" s="47"/>
-      <c r="F181" s="47"/>
-      <c r="G181" s="48"/>
-      <c r="H181" s="48"/>
-      <c r="I181" s="48">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J181" s="51"/>
-      <c r="K181" s="37"/>
-    </row>
-    <row r="182" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A182" s="44"/>
-      <c r="B182" s="45"/>
-      <c r="C182" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D182" s="45"/>
-      <c r="E182" s="47"/>
-      <c r="F182" s="47"/>
-      <c r="G182" s="48"/>
-      <c r="H182" s="48"/>
-      <c r="I182" s="48">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J182" s="51"/>
-      <c r="K182" s="37"/>
-    </row>
-    <row r="183" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A183" s="44"/>
-      <c r="B183" s="45"/>
-      <c r="C183" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D183" s="45"/>
-      <c r="E183" s="47"/>
-      <c r="F183" s="47"/>
-      <c r="G183" s="48"/>
-      <c r="H183" s="48"/>
-      <c r="I183" s="48">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J183" s="51"/>
-      <c r="K183" s="37"/>
-    </row>
-    <row r="184" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A184" s="44"/>
-      <c r="B184" s="45"/>
-      <c r="C184" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D184" s="45"/>
-      <c r="E184" s="47"/>
-      <c r="F184" s="47"/>
-      <c r="G184" s="48"/>
-      <c r="H184" s="48"/>
-      <c r="I184" s="48">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J184" s="51"/>
-      <c r="K184" s="37"/>
-    </row>
-    <row r="185" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A185" s="39"/>
-      <c r="B185" s="40"/>
-      <c r="C185" s="40"/>
-      <c r="D185" s="40"/>
-      <c r="E185" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F185" s="40"/>
-      <c r="G185" s="41">
-        <f t="shared" ref="G185:H185" si="25">SUM(G167:G184)</f>
-        <v>0</v>
-      </c>
-      <c r="H185" s="41">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I185" s="41">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J185" s="42"/>
-      <c r="K185" s="43"/>
+      <c r="I174" s="41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J174" s="42"/>
+      <c r="K174" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K33" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{8BAC9A6B-5D32-4E8D-967D-E17D357516F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:K15" xr:uid="{D8329386-EEA9-4142-8D37-12956A9D6B41}">
+      <autoFilter ref="A1:K15" xr:uid="{1BD2DD00-A528-42CE-B660-183865DEF747}">
         <filterColumn colId="1">
           <filters blank="1">
             <filter val="- Weekplan item 1_x000a_- Weekplan item 2_x000a_- Weekplan item 3_x000a_- etc"/>
@@ -4996,32 +4852,32 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
-    <mergeCell ref="A164:K164"/>
-    <mergeCell ref="B165:K165"/>
-    <mergeCell ref="B166:K166"/>
+    <mergeCell ref="B111:K111"/>
+    <mergeCell ref="B112:K112"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="B69:K69"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="B89:K89"/>
+    <mergeCell ref="B90:K90"/>
+    <mergeCell ref="A110:K110"/>
+    <mergeCell ref="A153:K153"/>
+    <mergeCell ref="B154:K154"/>
+    <mergeCell ref="B155:K155"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="B56:K56"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="A78:K78"/>
-    <mergeCell ref="B144:K144"/>
-    <mergeCell ref="B145:K145"/>
-    <mergeCell ref="B79:K79"/>
-    <mergeCell ref="B122:K122"/>
-    <mergeCell ref="B123:K123"/>
-    <mergeCell ref="A143:K143"/>
-    <mergeCell ref="B80:K80"/>
-    <mergeCell ref="A99:K99"/>
-    <mergeCell ref="B100:K100"/>
-    <mergeCell ref="B101:K101"/>
-    <mergeCell ref="A121:K121"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="B133:K133"/>
+    <mergeCell ref="B134:K134"/>
+    <mergeCell ref="B68:K68"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:B32 B35:B53 B58:B76 B81:B97 B102:B119 B124:B141 B146:B162">
+  <conditionalFormatting sqref="B24:B42 B47:B65 B70:B86 B91:B108 B113:B130 B135:B151 B5:B21">
     <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
@@ -5038,7 +4894,7 @@
       <formula>NOT(ISERROR(SEARCH(("Done"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B33 B35:B54 B56:B77 B79:B98 B100:B120 B122:B142 B144:B163 B165:B185">
+  <conditionalFormatting sqref="B24:B43 B45:B66 B68:B87 B89:B109 B111:B131 B133:B152 B154:B174 B5:B22">
     <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
@@ -5046,29 +4902,29 @@
       <formula>NOT(ISERROR(SEARCH(("Cancelled"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B167:B184">
+  <conditionalFormatting sqref="B156:B173">
     <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Unplanned">
-      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B167))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B156))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Planned">
-      <formula>NOT(ISERROR(SEARCH(("Planned"),(B167))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Planned"),(B156))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="In-Progress">
-      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B167))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B156))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B167))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B156))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH(("Done"),(B167))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Done"),(B156))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 G3:G33 G37:G54 G58:G77 G81:G98 G102:G120 G124:G142 G146:G163 G167:G185">
+  <conditionalFormatting sqref="G1 G26:G43 G47:G66 G70:G87 G91:G109 G113:G131 G135:G152 G156:G174 G3:G22">
     <cfRule type="cellIs" dxfId="4" priority="17" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H4 H7:H185">
+  <conditionalFormatting sqref="H1:H4 H7:H174">
     <cfRule type="containsBlanks" dxfId="3" priority="18">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
@@ -5078,7 +4934,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I33 I37:I54 I58:I77 I81:I98 I102:I120 I124:I142 I146:I163 I167:I185">
+  <conditionalFormatting sqref="I26:I43 I47:I66 I70:I87 I91:I109 I113:I131 I135:I152 I156:I174 I5:I22">
     <cfRule type="expression" dxfId="1" priority="15">
       <formula>H5/G5&gt;=1.5</formula>
     </cfRule>
@@ -5087,7 +4943,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="F146:F162 F167:F184 F37:F53 F58:F76 F81:F97 F102:F119 F124:F141 F5:F32" xr:uid="{0FAB3063-668E-4727-8636-10D0A6594410}">
+    <dataValidation type="list" allowBlank="1" sqref="F135:F151 F156:F173 F26:F42 F47:F65 F70:F86 F91:F108 F113:F130 F5:F21" xr:uid="{0FAB3063-668E-4727-8636-10D0A6594410}">
       <formula1>"ILO 1.6, ILO 2.6, ILO 5.1, ILO 6.4, ILO 8.5, ILO 8.6"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5096,9 +4952,11 @@
     <hyperlink ref="J9" r:id="rId2" xr:uid="{0D930CB9-7189-4EC5-83D8-1C1C65571550}"/>
     <hyperlink ref="J17" r:id="rId3" xr:uid="{4DC2825B-87CF-459D-B3D8-25ECA4518806}"/>
     <hyperlink ref="J15" r:id="rId4" xr:uid="{ACEDFC9A-0FF0-4EB7-B8A2-A808AF51EC76}"/>
+    <hyperlink ref="J19" r:id="rId5" display="1. Thresholding and Filtering" xr:uid="{15F60698-F236-48CF-9817-60E03A44251E}"/>
+    <hyperlink ref="J20" r:id="rId6" xr:uid="{CD0FD26D-BE25-4EED-8F52-70668670D423}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -5106,13 +4964,13 @@
           <x14:formula1>
             <xm:f>'Drop-downs'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E146:E162 E167:E184 E37:E53 E58:E76 E81:E97 E102:E119 E124:E141 E5:E32</xm:sqref>
+          <xm:sqref>E135:E151 E156:E173 E26:E42 E47:E65 E70:E86 E91:E108 E113:E130 E5:E21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Drop-downs'!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B146:B162 B167:B184 B37:B53 B58:B76 B81:B97 B102:B119 B124:B141 B5:B32</xm:sqref>
+          <xm:sqref>B135:B151 B156:B173 B26:B42 B47:B65 B70:B86 B91:B108 B113:B130 B5:B21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5193,35 +5051,35 @@
         <v>ILO 0.3</v>
       </c>
       <c r="C4" s="10" cm="1">
-        <f t="array" ref="C4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B4)),0)</f>
+        <f t="array" ref="C4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="D4" s="10" cm="1">
-        <f t="array" ref="D4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$37:$H$53,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B4)),0)</f>
+        <f t="array" ref="D4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$26:$H$42,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="E4" s="10" cm="1">
-        <f t="array" ref="E4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B4)),0)</f>
+        <f t="array" ref="E4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="F4" s="10" cm="1">
-        <f t="array" ref="F4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B4)),0)</f>
+        <f t="array" ref="F4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="G4" s="10" cm="1">
-        <f t="array" ref="G4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B4)),0)</f>
+        <f t="array" ref="G4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="10" cm="1">
-        <f t="array" ref="H4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B4)),0)</f>
+        <f t="array" ref="H4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="10" cm="1">
-        <f t="array" ref="I4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B4)),0)</f>
+        <f t="array" ref="I4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="J4" s="10" cm="1">
-        <f t="array" ref="J4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B4)),0)</f>
+        <f t="array" ref="J4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="7">
@@ -5235,35 +5093,35 @@
         <v>ILO 1.5</v>
       </c>
       <c r="C5" s="10" cm="1">
-        <f t="array" ref="C5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B5)),0)</f>
+        <f t="array" ref="C5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="D5" s="10" cm="1">
-        <f t="array" ref="D5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B5)),0)</f>
+        <f t="array" ref="D5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="E5" s="10" cm="1">
-        <f t="array" ref="E5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B5)),0)</f>
+        <f t="array" ref="E5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="F5" s="10" cm="1">
-        <f t="array" ref="F5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B5)),0)</f>
+        <f t="array" ref="F5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="G5" s="10" cm="1">
-        <f t="array" ref="G5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B5)),0)</f>
+        <f t="array" ref="G5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="H5" s="10" cm="1">
-        <f t="array" ref="H5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B5)),0)</f>
+        <f t="array" ref="H5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="I5" s="10" cm="1">
-        <f t="array" ref="I5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B5)),0)</f>
+        <f t="array" ref="I5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="J5" s="10" cm="1">
-        <f t="array" ref="J5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B5)),0)</f>
+        <f t="array" ref="J5">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B5)),0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="7">
@@ -5277,35 +5135,35 @@
         <v>ILO 2.5</v>
       </c>
       <c r="C6" s="10" cm="1">
-        <f t="array" ref="C6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B6)),0)</f>
+        <f t="array" ref="C6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="D6" s="10" cm="1">
-        <f t="array" ref="D6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B6)),0)</f>
+        <f t="array" ref="D6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="E6" s="10" cm="1">
-        <f t="array" ref="E6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B6)),0)</f>
+        <f t="array" ref="E6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="F6" s="10" cm="1">
-        <f t="array" ref="F6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B6)),0)</f>
+        <f t="array" ref="F6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="G6" s="10" cm="1">
-        <f t="array" ref="G6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B6)),0)</f>
+        <f t="array" ref="G6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="10" cm="1">
-        <f t="array" ref="H6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B6)),0)</f>
+        <f t="array" ref="H6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="I6" s="10" cm="1">
-        <f t="array" ref="I6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B6)),0)</f>
+        <f t="array" ref="I6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="J6" s="10" cm="1">
-        <f t="array" ref="J6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B6)),0)</f>
+        <f t="array" ref="J6">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B6)),0)</f>
         <v>0</v>
       </c>
       <c r="K6" s="7">
@@ -5319,35 +5177,35 @@
         <v>ILO 3.5</v>
       </c>
       <c r="C7" s="10" cm="1">
-        <f t="array" ref="C7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B7)),0)</f>
+        <f t="array" ref="C7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="D7" s="10" cm="1">
-        <f t="array" ref="D7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B7)),0)</f>
+        <f t="array" ref="D7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="E7" s="10" cm="1">
-        <f t="array" ref="E7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B7)),0)</f>
+        <f t="array" ref="E7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="F7" s="10" cm="1">
-        <f t="array" ref="F7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B7)),0)</f>
+        <f t="array" ref="F7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="G7" s="10" cm="1">
-        <f t="array" ref="G7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B7)),0)</f>
+        <f t="array" ref="G7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="H7" s="10" cm="1">
-        <f t="array" ref="H7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B7)),0)</f>
+        <f t="array" ref="H7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="I7" s="10" cm="1">
-        <f t="array" ref="I7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B7)),0)</f>
+        <f t="array" ref="I7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="J7" s="10" cm="1">
-        <f t="array" ref="J7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B7)),0)</f>
+        <f t="array" ref="J7">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B7)),0)</f>
         <v>0</v>
       </c>
       <c r="K7" s="7">
@@ -5361,35 +5219,35 @@
         <v>ILO 4.4</v>
       </c>
       <c r="C8" s="10" cm="1">
-        <f t="array" ref="C8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B8)),0)</f>
+        <f t="array" ref="C8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="D8" s="10" cm="1">
-        <f t="array" ref="D8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B8)),0)</f>
+        <f t="array" ref="D8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="E8" s="10" cm="1">
-        <f t="array" ref="E8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B8)),0)</f>
+        <f t="array" ref="E8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="F8" s="10" cm="1">
-        <f t="array" ref="F8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B8)),0)</f>
+        <f t="array" ref="F8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="G8" s="10" cm="1">
-        <f t="array" ref="G8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B8)),0)</f>
+        <f t="array" ref="G8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="H8" s="10" cm="1">
-        <f t="array" ref="H8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B8)),0)</f>
+        <f t="array" ref="H8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="I8" s="10" cm="1">
-        <f t="array" ref="I8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B8)),0)</f>
+        <f t="array" ref="I8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="J8" s="10" cm="1">
-        <f t="array" ref="J8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B8)),0)</f>
+        <f t="array" ref="J8">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B8)),0)</f>
         <v>0</v>
       </c>
       <c r="K8" s="7">
@@ -5403,35 +5261,35 @@
         <v>ILO 7.3</v>
       </c>
       <c r="C9" s="10" cm="1">
-        <f t="array" ref="C9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B9)),0)</f>
+        <f t="array" ref="C9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="D9" s="10" cm="1">
-        <f t="array" ref="D9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B9)),0)</f>
+        <f t="array" ref="D9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="E9" s="10" cm="1">
-        <f t="array" ref="E9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B9)),0)</f>
+        <f t="array" ref="E9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="F9" s="10" cm="1">
-        <f t="array" ref="F9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B9)),0)</f>
+        <f t="array" ref="F9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="G9" s="10" cm="1">
-        <f t="array" ref="G9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B9)),0)</f>
+        <f t="array" ref="G9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="H9" s="10" cm="1">
-        <f t="array" ref="H9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B9)),0)</f>
+        <f t="array" ref="H9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="I9" s="10" cm="1">
-        <f t="array" ref="I9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B9)),0)</f>
+        <f t="array" ref="I9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="J9" s="10" cm="1">
-        <f t="array" ref="J9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B9)),0)</f>
+        <f t="array" ref="J9">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B9)),0)</f>
         <v>0</v>
       </c>
       <c r="K9" s="7">
@@ -5445,35 +5303,35 @@
         <v>ILO 11.2</v>
       </c>
       <c r="C10" s="10" cm="1">
-        <f t="array" ref="C10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B10)),0)</f>
+        <f t="array" ref="C10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="D10" s="10" cm="1">
-        <f t="array" ref="D10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B10)),0)</f>
+        <f t="array" ref="D10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="E10" s="10" cm="1">
-        <f t="array" ref="E10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B10)),0)</f>
+        <f t="array" ref="E10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="F10" s="10" cm="1">
-        <f t="array" ref="F10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B10)),0)</f>
+        <f t="array" ref="F10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="G10" s="10" cm="1">
-        <f t="array" ref="G10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B10)),0)</f>
+        <f t="array" ref="G10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="H10" s="10" cm="1">
-        <f t="array" ref="H10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B10)),0)</f>
+        <f t="array" ref="H10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="I10" s="10" cm="1">
-        <f t="array" ref="I10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B10)),0)</f>
+        <f t="array" ref="I10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="J10" s="10" cm="1">
-        <f t="array" ref="J10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$32,'Worklog_Tasks&amp;Times'!$F$5:$F$32=$B10)),0)</f>
+        <f t="array" ref="J10">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$5:$H$21,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B10)),0)</f>
         <v>0</v>
       </c>
       <c r="K10" s="7">
@@ -6763,14 +6621,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7009,21 +6865,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
-    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7048,9 +6903,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
+    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Logs/adsai_y2b_25_26_worklog.xlsx
+++ b/Logs/adsai_y2b_25_26_worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\2025-26b-fai2-adsai-MaciejCzerniak243552\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B9DA04-7506-4C6A-B022-3A4EADBA7BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4270974A-5CBE-4B7B-93E3-8298DBAFAADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Worklog_Tasks&amp;Times'!$A$1:$K$151</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Worklog_Tasks&amp;Times'!$A$1:$K$164</definedName>
     <definedName name="Z_8BAC9A6B_5D32_4E8D_967D_E17D357516F8_.wvu.FilterData" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$22</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -402,6 +402,58 @@
   </si>
   <si>
     <t>This week, I focused primarily on reading the assigned chapter, materials dedicated to that week, and starting the Week 1 notebooks. I realised early on that reading takes me longer than average due to dyslexia, so I made the strategic decision to begin the chapter before the block officially started. This helped me reduce pressure during the week and gave me more time to absorb the material. Reflecting on this decision, I can see that early preparation is an effective approach for tasks that require sustained concentration.</t>
+  </si>
+  <si>
+    <t>With small delay I'm finished all notebooks</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Feedback session</t>
+  </si>
+  <si>
+    <t>Peer Review Annotation</t>
+  </si>
+  <si>
+    <t>The day started with QGIS training. Afterwards I started working on femto bolt sensor integration to our environment.</t>
+  </si>
+  <si>
+    <t>The task is mostly done. I need to add last images to the file and describe it. Also I plan to verify the the final version with my mentor.</t>
+  </si>
+  <si>
+    <t>Week 2 notebooks</t>
+  </si>
+  <si>
+    <t>I started working on notebooks from second week. However, It was ineffective. I had problem with focus and I decided to end working day afterwards.</t>
+  </si>
+  <si>
+    <t>This part of the week gave me several opportunities to reflect on how I approach tasks and how I react when things do not go as expected. After work I continued working I continued working on Task 1 Part 2. The technical part of the task progressed well, I reached the final steps - adding the remaining images and writing the description.
+Afterwards I switched to notebooks from week 2 of the block. However, I struggled to stay focused, and my work became increasingly ineffective. Instead of pushing through without understanding why, I paused and evaluated the situation. I was mentally tired from switching between training, technical tasks, and notebooks. This made me realise that my productivity drops significantly when I try to handle too many different cognitive tasks in one day.
+Next steps:
+- Avoid switching between multiple complex tasks in the same day unless needed.
+- Start the Week 2 notebooks again when rested to maintain higher quality of work.
+- Pay closer attention to when my concentration drops and adjust my workflow accordingly.</t>
+  </si>
+  <si>
+    <t>Today’s feedback session went well and gave me much more clarity about what is expected for ILO 2.6. Before the meeting, I felt uncertain about how to formulate reflections in a way that demonstrates critical thinking. During the session, I realised that I need to be more explicit in analysing my decisions, identifying challenges, and explaining how I plan to improve my workflow based on what I learn each week.
+I also noted that I am slightly behind with the notebooks, but I expect to complete the remaining one from last week today.
+Next steps:
+- Apply the feedback from today by making my reflections more analytical and structured.
+- Finish the remaining notebook and review what caused the delay.
+- Use future feedback sessions to verify whether my reflections are improving in depth and clarity.</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>Petri Dish Detection and Extraction</t>
+  </si>
+  <si>
+    <t>Task 2 is about extracting AOI from an image to decrease computation time. I was struggle with the logic of this task at very begining but I checked notebooks and that helped a lot. I'm on the right track.</t>
+  </si>
+  <si>
+    <t>I found in Open CV documentation "connectedComponentsWithStats" function which which turned out to be the solution for the logic of my code. On practice purpose I wrapped the code in handy functions.</t>
   </si>
 </sst>
 </file>
@@ -895,6 +947,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -911,8 +983,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -931,24 +1001,6 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -961,7 +1013,15 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1428,11 +1488,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K174"/>
+  <dimension ref="A1:K187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1485,53 +1545,53 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="44">
@@ -1580,14 +1640,14 @@
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="48">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H6" s="48">
         <v>0.5</v>
       </c>
       <c r="I6" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J6" s="49"/>
       <c r="K6" s="37" t="s">
@@ -1720,7 +1780,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="44">
+        <v>45973</v>
+      </c>
       <c r="B11" s="45" t="s">
         <v>54</v>
       </c>
@@ -1751,7 +1813,7 @@
     </row>
     <row r="12" spans="1:11" s="50" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A12" s="44">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>54</v>
@@ -1813,9 +1875,6 @@
       <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
-        <v>45974</v>
-      </c>
       <c r="B14" s="45" t="s">
         <v>54</v>
       </c>
@@ -1845,6 +1904,9 @@
       <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="44">
+        <v>45975</v>
+      </c>
       <c r="B15" s="45" t="s">
         <v>54</v>
       </c>
@@ -1876,9 +1938,6 @@
       <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
-        <v>45975</v>
-      </c>
       <c r="B16" s="45" t="s">
         <v>54</v>
       </c>
@@ -2080,7 +2139,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="18">
         <f>SUM(G5:G21)</f>
-        <v>34.75</v>
+        <v>34.5</v>
       </c>
       <c r="H22" s="18">
         <f>SUM(H5:H21)</f>
@@ -2088,107 +2147,147 @@
       </c>
       <c r="I22" s="18">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="38"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="60"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
     </row>
     <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="63"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="63"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="52">
+        <v>45978</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="C26" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
+        <v>95</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="48">
+        <v>1</v>
+      </c>
+      <c r="H26" s="48">
+        <v>1</v>
+      </c>
       <c r="I26" s="48">
-        <f t="shared" ref="I26:I43" si="4">H26-G26</f>
+        <f t="shared" ref="I26:I56" si="4">H26-G26</f>
         <v>0</v>
       </c>
       <c r="J26" s="51"/>
-      <c r="K26" s="37"/>
-    </row>
-    <row r="27" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="45"/>
+      <c r="K26" s="37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="50" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="B27" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="C27" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
+        <v>101</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="H27" s="48">
+        <v>0.4</v>
+      </c>
       <c r="I27" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="J27" s="51"/>
-      <c r="K27" s="37"/>
+      <c r="K27" s="37" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="28" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="C28" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
+        <v>95</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="48">
+        <v>1</v>
+      </c>
+      <c r="H28" s="48">
+        <v>1</v>
+      </c>
       <c r="I28" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2197,88 +2296,150 @@
       <c r="K28" s="37"/>
     </row>
     <row r="29" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="C29" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="48">
+        <v>4</v>
+      </c>
+      <c r="H29" s="48">
+        <v>4</v>
+      </c>
+      <c r="I29" s="48"/>
       <c r="J29" s="51"/>
       <c r="K29" s="37"/>
     </row>
-    <row r="30" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="45"/>
+    <row r="30" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A30" s="52">
+        <v>45979</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="C30" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="47"/>
+        <v>80</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
+      <c r="G30" s="48">
+        <v>4</v>
+      </c>
+      <c r="H30" s="48">
+        <v>4</v>
+      </c>
       <c r="I30" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J30" s="51"/>
-      <c r="K30" s="37"/>
-    </row>
-    <row r="31" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="45"/>
+      <c r="K30" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="B31" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="C31" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
+        <v>71</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="48">
+        <v>4</v>
+      </c>
+      <c r="H31" s="48">
+        <v>4</v>
+      </c>
       <c r="I31" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J31" s="51"/>
-      <c r="K31" s="37"/>
-    </row>
-    <row r="32" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="45"/>
+      <c r="K31" s="37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="B32" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="C32" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
+        <v>95</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="48">
+        <v>1</v>
+      </c>
+      <c r="H32" s="48">
+        <v>1</v>
+      </c>
       <c r="I32" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J32" s="51"/>
-      <c r="K32" s="37"/>
+      <c r="K32" s="37" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="33" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="52">
+        <v>45980</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="C33" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
+        <v>46</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="H33" s="48">
+        <v>0.25</v>
+      </c>
       <c r="I33" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2286,62 +2447,106 @@
       <c r="J33" s="51"/>
       <c r="K33" s="37"/>
     </row>
-    <row r="34" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="50" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="52"/>
-      <c r="B34" s="45"/>
+      <c r="B34" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="C34" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
+        <v>110</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="48">
+        <v>4</v>
+      </c>
+      <c r="H34" s="48">
+        <v>4</v>
+      </c>
       <c r="I34" s="48">
-        <f t="shared" ref="I34:I40" si="5">H34-G34</f>
+        <f t="shared" ref="I34" si="5">H34-G34</f>
         <v>0</v>
       </c>
       <c r="J34" s="51"/>
-      <c r="K34" s="37"/>
-    </row>
-    <row r="35" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K34" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="50" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="52"/>
-      <c r="B35" s="45"/>
+      <c r="B35" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="C35" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
+      <c r="D35" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="48">
+        <v>2</v>
+      </c>
+      <c r="H35" s="48">
+        <v>2</v>
+      </c>
       <c r="I35" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I34:I40" si="6">H35-G35</f>
         <v>0</v>
       </c>
       <c r="J35" s="51"/>
-      <c r="K35" s="37"/>
-    </row>
-    <row r="36" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K35" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="50" customFormat="1" ht="228" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
-      <c r="B36" s="45"/>
+      <c r="B36" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="C36" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
+        <v>63</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="48">
+        <v>1</v>
+      </c>
+      <c r="H36" s="48">
+        <v>1</v>
+      </c>
       <c r="I36" s="48">
-        <f t="shared" si="5"/>
+        <f>H36-G36</f>
         <v>0</v>
       </c>
       <c r="J36" s="51"/>
-      <c r="K36" s="37"/>
+      <c r="K36" s="37" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="37" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="52">
+        <v>45981</v>
+      </c>
       <c r="B37" s="45"/>
       <c r="C37" s="46" t="s">
         <v>16</v>
@@ -2352,7 +2557,7 @@
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
       <c r="I37" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J37" s="51"/>
@@ -2370,7 +2575,7 @@
       <c r="G38" s="48"/>
       <c r="H38" s="48"/>
       <c r="I38" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J38" s="51"/>
@@ -2388,7 +2593,7 @@
       <c r="G39" s="48"/>
       <c r="H39" s="48"/>
       <c r="I39" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J39" s="51"/>
@@ -2406,7 +2611,7 @@
       <c r="G40" s="48"/>
       <c r="H40" s="48"/>
       <c r="I40" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J40" s="51"/>
@@ -2431,7 +2636,6 @@
       <c r="K41" s="37"/>
     </row>
     <row r="42" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
       <c r="B42" s="45"/>
       <c r="C42" s="46" t="s">
         <v>16</v>
@@ -2442,87 +2646,87 @@
       <c r="G42" s="48"/>
       <c r="H42" s="48"/>
       <c r="I42" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I42:I54" si="7">H42-G42</f>
         <v>0</v>
       </c>
       <c r="J42" s="51"/>
       <c r="K42" s="37"/>
     </row>
-    <row r="43" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="18">
-        <f t="shared" ref="G43:H43" si="6">SUM(G24:G42)</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="19"/>
-      <c r="K43" s="38"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="63"/>
-    </row>
-    <row r="45" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="63"/>
-    </row>
-    <row r="46" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="63"/>
+    <row r="43" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B43" s="45"/>
+      <c r="C43" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="45"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="51"/>
+      <c r="K43" s="37"/>
+    </row>
+    <row r="44" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="52">
+        <v>45982</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="45"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="51"/>
+      <c r="K44" s="37"/>
+    </row>
+    <row r="45" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="52"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="45"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="51"/>
+      <c r="K45" s="37"/>
+    </row>
+    <row r="46" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="52"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="45"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="51"/>
+      <c r="K46" s="37"/>
     </row>
     <row r="47" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="45"/>
       <c r="C47" s="46" t="s">
         <v>16</v>
@@ -2533,14 +2737,14 @@
       <c r="G47" s="48"/>
       <c r="H47" s="48"/>
       <c r="I47" s="48">
-        <f t="shared" ref="I47:I66" si="7">H47-G47</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J47" s="51"/>
       <c r="K47" s="37"/>
     </row>
     <row r="48" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="45"/>
       <c r="C48" s="46" t="s">
         <v>16</v>
@@ -2558,7 +2762,7 @@
       <c r="K48" s="37"/>
     </row>
     <row r="49" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="45"/>
       <c r="C49" s="46" t="s">
         <v>16</v>
@@ -2576,7 +2780,7 @@
       <c r="K49" s="37"/>
     </row>
     <row r="50" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="45"/>
       <c r="C50" s="46" t="s">
         <v>16</v>
@@ -2594,7 +2798,7 @@
       <c r="K50" s="37"/>
     </row>
     <row r="51" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="45"/>
       <c r="C51" s="46" t="s">
         <v>16</v>
@@ -2612,7 +2816,7 @@
       <c r="K51" s="37"/>
     </row>
     <row r="52" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="45"/>
       <c r="C52" s="46" t="s">
         <v>16</v>
@@ -2630,7 +2834,7 @@
       <c r="K52" s="37"/>
     </row>
     <row r="53" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="45"/>
       <c r="C53" s="46" t="s">
         <v>16</v>
@@ -2648,7 +2852,7 @@
       <c r="K53" s="37"/>
     </row>
     <row r="54" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="45"/>
       <c r="C54" s="46" t="s">
         <v>16</v>
@@ -2666,7 +2870,7 @@
       <c r="K54" s="37"/>
     </row>
     <row r="55" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="45"/>
       <c r="C55" s="46" t="s">
         <v>16</v>
@@ -2677,83 +2881,84 @@
       <c r="G55" s="48"/>
       <c r="H55" s="48"/>
       <c r="I55" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J55" s="51"/>
       <c r="K55" s="37"/>
     </row>
-    <row r="56" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48">
-        <f t="shared" ref="I56:I64" si="8">H56-G56</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="51"/>
-      <c r="K56" s="37"/>
-    </row>
-    <row r="57" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="45"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48">
+    <row r="56" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="18">
+        <f t="shared" ref="G56:H56" si="8">SUM(G24:G55)</f>
+        <v>22.5</v>
+      </c>
+      <c r="H56" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="51"/>
-      <c r="K57" s="37"/>
-    </row>
-    <row r="58" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="45"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="51"/>
-      <c r="K58" s="37"/>
-    </row>
-    <row r="59" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="45"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="51"/>
-      <c r="K59" s="37"/>
+        <v>22.65</v>
+      </c>
+      <c r="I56" s="18">
+        <f t="shared" si="4"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="J56" s="19"/>
+      <c r="K56" s="38"/>
+    </row>
+    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="56"/>
+    </row>
+    <row r="58" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="56"/>
+    </row>
+    <row r="59" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="56"/>
     </row>
     <row r="60" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="44"/>
@@ -2767,7 +2972,7 @@
       <c r="G60" s="48"/>
       <c r="H60" s="48"/>
       <c r="I60" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="I60:I79" si="9">H60-G60</f>
         <v>0</v>
       </c>
       <c r="J60" s="51"/>
@@ -2785,7 +2990,7 @@
       <c r="G61" s="48"/>
       <c r="H61" s="48"/>
       <c r="I61" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J61" s="51"/>
@@ -2803,7 +3008,7 @@
       <c r="G62" s="48"/>
       <c r="H62" s="48"/>
       <c r="I62" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J62" s="51"/>
@@ -2821,7 +3026,7 @@
       <c r="G63" s="48"/>
       <c r="H63" s="48"/>
       <c r="I63" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J63" s="51"/>
@@ -2839,7 +3044,7 @@
       <c r="G64" s="48"/>
       <c r="H64" s="48"/>
       <c r="I64" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J64" s="51"/>
@@ -2857,84 +3062,83 @@
       <c r="G65" s="48"/>
       <c r="H65" s="48"/>
       <c r="I65" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J65" s="51"/>
       <c r="K65" s="37"/>
     </row>
-    <row r="66" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="18">
-        <f t="shared" ref="G66:H66" si="9">SUM(G47:G65)</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="18">
+    <row r="66" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="44"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="45"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I66" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="19"/>
-      <c r="K66" s="38"/>
-    </row>
-    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="63"/>
-    </row>
-    <row r="68" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="63"/>
-    </row>
-    <row r="69" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="63"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="37"/>
+    </row>
+    <row r="67" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="44"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="45"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="51"/>
+      <c r="K67" s="37"/>
+    </row>
+    <row r="68" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="44"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="45"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="51"/>
+      <c r="K68" s="37"/>
+    </row>
+    <row r="69" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="44"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="45"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48">
+        <f t="shared" ref="I69:I77" si="10">H69-G69</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="51"/>
+      <c r="K69" s="37"/>
     </row>
     <row r="70" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
@@ -2948,7 +3152,7 @@
       <c r="G70" s="48"/>
       <c r="H70" s="48"/>
       <c r="I70" s="48">
-        <f t="shared" ref="I70:I87" si="10">H70-G70</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J70" s="51"/>
@@ -3092,83 +3296,84 @@
       <c r="G78" s="48"/>
       <c r="H78" s="48"/>
       <c r="I78" s="48">
-        <f t="shared" ref="I78:I84" si="11">H78-G78</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J78" s="51"/>
       <c r="K78" s="37"/>
     </row>
-    <row r="79" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="45"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48">
+    <row r="79" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="18">
+        <f t="shared" ref="G79:H79" si="11">SUM(G60:G78)</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J79" s="51"/>
-      <c r="K79" s="37"/>
-    </row>
-    <row r="80" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="45"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="51"/>
-      <c r="K80" s="37"/>
-    </row>
-    <row r="81" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="45"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="51"/>
-      <c r="K81" s="37"/>
-    </row>
-    <row r="82" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="44"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="45"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="51"/>
-      <c r="K82" s="37"/>
+      <c r="I79" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="19"/>
+      <c r="K79" s="38"/>
+    </row>
+    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="56"/>
+    </row>
+    <row r="81" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="56"/>
+    </row>
+    <row r="82" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="56"/>
     </row>
     <row r="83" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="44"/>
@@ -3182,7 +3387,7 @@
       <c r="G83" s="48"/>
       <c r="H83" s="48"/>
       <c r="I83" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I83:I100" si="12">H83-G83</f>
         <v>0</v>
       </c>
       <c r="J83" s="51"/>
@@ -3200,7 +3405,7 @@
       <c r="G84" s="48"/>
       <c r="H84" s="48"/>
       <c r="I84" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J84" s="51"/>
@@ -3218,7 +3423,7 @@
       <c r="G85" s="48"/>
       <c r="H85" s="48"/>
       <c r="I85" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J85" s="51"/>
@@ -3236,84 +3441,83 @@
       <c r="G86" s="48"/>
       <c r="H86" s="48"/>
       <c r="I86" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J86" s="51"/>
       <c r="K86" s="37"/>
     </row>
-    <row r="87" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" s="15"/>
-      <c r="G87" s="18">
-        <f t="shared" ref="G87:H87" si="12">SUM(G70:G86)</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="18">
+    <row r="87" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="44"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="45"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I87" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="19"/>
-      <c r="K87" s="38"/>
-    </row>
-    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" s="62"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="62"/>
-      <c r="H88" s="62"/>
-      <c r="I88" s="62"/>
-      <c r="J88" s="62"/>
-      <c r="K88" s="63"/>
-    </row>
-    <row r="89" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B89" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" s="62"/>
-      <c r="D89" s="62"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="62"/>
-      <c r="H89" s="62"/>
-      <c r="I89" s="62"/>
-      <c r="J89" s="62"/>
-      <c r="K89" s="63"/>
-    </row>
-    <row r="90" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="62"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="62"/>
-      <c r="H90" s="62"/>
-      <c r="I90" s="62"/>
-      <c r="J90" s="62"/>
-      <c r="K90" s="63"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="37"/>
+    </row>
+    <row r="88" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A88" s="44"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="45"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="51"/>
+      <c r="K88" s="37"/>
+    </row>
+    <row r="89" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A89" s="44"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="45"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="51"/>
+      <c r="K89" s="37"/>
+    </row>
+    <row r="90" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A90" s="44"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="45"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="51"/>
+      <c r="K90" s="37"/>
     </row>
     <row r="91" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="44"/>
@@ -3327,7 +3531,7 @@
       <c r="G91" s="48"/>
       <c r="H91" s="48"/>
       <c r="I91" s="48">
-        <f t="shared" ref="I91:I109" si="13">H91-G91</f>
+        <f t="shared" ref="I91:I97" si="13">H91-G91</f>
         <v>0</v>
       </c>
       <c r="J91" s="51"/>
@@ -3453,7 +3657,7 @@
       <c r="G98" s="48"/>
       <c r="H98" s="48"/>
       <c r="I98" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J98" s="51"/>
@@ -3471,83 +3675,84 @@
       <c r="G99" s="48"/>
       <c r="H99" s="48"/>
       <c r="I99" s="48">
-        <f t="shared" ref="I99:I106" si="14">H99-G99</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J99" s="51"/>
       <c r="K99" s="37"/>
     </row>
-    <row r="100" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="44"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="45"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="48">
+    <row r="100" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="15"/>
+      <c r="G100" s="18">
+        <f t="shared" ref="G100:H100" si="14">SUM(G83:G99)</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J100" s="51"/>
-      <c r="K100" s="37"/>
-    </row>
-    <row r="101" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="44"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" s="45"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="51"/>
-      <c r="K101" s="37"/>
-    </row>
-    <row r="102" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="44"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" s="45"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="51"/>
-      <c r="K102" s="37"/>
-    </row>
-    <row r="103" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="44"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="45"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="51"/>
-      <c r="K103" s="37"/>
+      <c r="I100" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="19"/>
+      <c r="K100" s="38"/>
+    </row>
+    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="55"/>
+      <c r="C101" s="55"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="55"/>
+      <c r="K101" s="56"/>
+    </row>
+    <row r="102" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A102" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="55"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="55"/>
+      <c r="K102" s="56"/>
+    </row>
+    <row r="103" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="55"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="55"/>
+      <c r="K103" s="56"/>
     </row>
     <row r="104" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="44"/>
@@ -3561,7 +3766,7 @@
       <c r="G104" s="48"/>
       <c r="H104" s="48"/>
       <c r="I104" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="I104:I122" si="15">H104-G104</f>
         <v>0</v>
       </c>
       <c r="J104" s="51"/>
@@ -3579,7 +3784,7 @@
       <c r="G105" s="48"/>
       <c r="H105" s="48"/>
       <c r="I105" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J105" s="51"/>
@@ -3597,7 +3802,7 @@
       <c r="G106" s="48"/>
       <c r="H106" s="48"/>
       <c r="I106" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J106" s="51"/>
@@ -3615,7 +3820,7 @@
       <c r="G107" s="48"/>
       <c r="H107" s="48"/>
       <c r="I107" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J107" s="51"/>
@@ -3633,84 +3838,83 @@
       <c r="G108" s="48"/>
       <c r="H108" s="48"/>
       <c r="I108" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J108" s="51"/>
       <c r="K108" s="37"/>
     </row>
-    <row r="109" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="13"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109" s="15"/>
-      <c r="G109" s="18">
-        <f t="shared" ref="G109:H109" si="15">SUM(G91:G108)</f>
-        <v>0</v>
-      </c>
-      <c r="H109" s="18">
+    <row r="109" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="44"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="45"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="48">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I109" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="19"/>
-      <c r="K109" s="38"/>
-    </row>
-    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110" s="62"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="62"/>
-      <c r="H110" s="62"/>
-      <c r="I110" s="62"/>
-      <c r="J110" s="62"/>
-      <c r="K110" s="63"/>
-    </row>
-    <row r="111" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" s="62"/>
-      <c r="D111" s="62"/>
-      <c r="E111" s="62"/>
-      <c r="F111" s="62"/>
-      <c r="G111" s="62"/>
-      <c r="H111" s="62"/>
-      <c r="I111" s="62"/>
-      <c r="J111" s="62"/>
-      <c r="K111" s="63"/>
-    </row>
-    <row r="112" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="62"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="62"/>
-      <c r="G112" s="62"/>
-      <c r="H112" s="62"/>
-      <c r="I112" s="62"/>
-      <c r="J112" s="62"/>
-      <c r="K112" s="63"/>
+      <c r="J109" s="51"/>
+      <c r="K109" s="37"/>
+    </row>
+    <row r="110" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A110" s="44"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="45"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="48">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="51"/>
+      <c r="K110" s="37"/>
+    </row>
+    <row r="111" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A111" s="44"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="45"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="48">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="51"/>
+      <c r="K111" s="37"/>
+    </row>
+    <row r="112" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A112" s="44"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="45"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="48">
+        <f t="shared" ref="I112:I119" si="16">H112-G112</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="51"/>
+      <c r="K112" s="37"/>
     </row>
     <row r="113" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="44"/>
@@ -3724,7 +3928,7 @@
       <c r="G113" s="48"/>
       <c r="H113" s="48"/>
       <c r="I113" s="48">
-        <f t="shared" ref="I113:I131" si="16">H113-G113</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J113" s="51"/>
@@ -3850,7 +4054,7 @@
       <c r="G120" s="48"/>
       <c r="H120" s="48"/>
       <c r="I120" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J120" s="51"/>
@@ -3868,83 +4072,84 @@
       <c r="G121" s="48"/>
       <c r="H121" s="48"/>
       <c r="I121" s="48">
-        <f t="shared" ref="I121:I128" si="17">H121-G121</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J121" s="51"/>
       <c r="K121" s="37"/>
     </row>
-    <row r="122" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="44"/>
-      <c r="B122" s="45"/>
-      <c r="C122" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" s="45"/>
-      <c r="E122" s="47"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="48"/>
-      <c r="I122" s="48">
+    <row r="122" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A122" s="13"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="15"/>
+      <c r="G122" s="18">
+        <f t="shared" ref="G122:H122" si="17">SUM(G104:G121)</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J122" s="51"/>
-      <c r="K122" s="37"/>
-    </row>
-    <row r="123" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="44"/>
-      <c r="B123" s="45"/>
-      <c r="C123" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D123" s="45"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="47"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="48"/>
-      <c r="I123" s="48">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="51"/>
-      <c r="K123" s="37"/>
-    </row>
-    <row r="124" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A124" s="44"/>
-      <c r="B124" s="45"/>
-      <c r="C124" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D124" s="45"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="47"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="51"/>
-      <c r="K124" s="37"/>
-    </row>
-    <row r="125" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="44"/>
-      <c r="B125" s="45"/>
-      <c r="C125" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" s="45"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="48">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="51"/>
-      <c r="K125" s="37"/>
+      <c r="I122" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="19"/>
+      <c r="K122" s="38"/>
+    </row>
+    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="55"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="55"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="55"/>
+      <c r="I123" s="55"/>
+      <c r="J123" s="55"/>
+      <c r="K123" s="56"/>
+    </row>
+    <row r="124" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A124" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="55"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="55"/>
+      <c r="F124" s="55"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="55"/>
+      <c r="J124" s="55"/>
+      <c r="K124" s="56"/>
+    </row>
+    <row r="125" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="55"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="55"/>
+      <c r="I125" s="55"/>
+      <c r="J125" s="55"/>
+      <c r="K125" s="56"/>
     </row>
     <row r="126" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="44"/>
@@ -3958,7 +4163,7 @@
       <c r="G126" s="48"/>
       <c r="H126" s="48"/>
       <c r="I126" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="I126:I144" si="18">H126-G126</f>
         <v>0</v>
       </c>
       <c r="J126" s="51"/>
@@ -3976,7 +4181,7 @@
       <c r="G127" s="48"/>
       <c r="H127" s="48"/>
       <c r="I127" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J127" s="51"/>
@@ -3994,7 +4199,7 @@
       <c r="G128" s="48"/>
       <c r="H128" s="48"/>
       <c r="I128" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J128" s="51"/>
@@ -4012,7 +4217,7 @@
       <c r="G129" s="48"/>
       <c r="H129" s="48"/>
       <c r="I129" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J129" s="51"/>
@@ -4030,84 +4235,83 @@
       <c r="G130" s="48"/>
       <c r="H130" s="48"/>
       <c r="I130" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J130" s="51"/>
       <c r="K130" s="37"/>
     </row>
-    <row r="131" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A131" s="13"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F131" s="15"/>
-      <c r="G131" s="18">
-        <f t="shared" ref="G131:H131" si="18">SUM(G113:G130)</f>
-        <v>0</v>
-      </c>
-      <c r="H131" s="18">
+    <row r="131" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A131" s="44"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="45"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="48"/>
+      <c r="I131" s="48">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="I131" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="19"/>
-      <c r="K131" s="38"/>
-    </row>
-    <row r="132" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B132" s="62"/>
-      <c r="C132" s="62"/>
-      <c r="D132" s="62"/>
-      <c r="E132" s="62"/>
-      <c r="F132" s="62"/>
-      <c r="G132" s="62"/>
-      <c r="H132" s="62"/>
-      <c r="I132" s="62"/>
-      <c r="J132" s="62"/>
-      <c r="K132" s="63"/>
-    </row>
-    <row r="133" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B133" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C133" s="62"/>
-      <c r="D133" s="62"/>
-      <c r="E133" s="62"/>
-      <c r="F133" s="62"/>
-      <c r="G133" s="62"/>
-      <c r="H133" s="62"/>
-      <c r="I133" s="62"/>
-      <c r="J133" s="62"/>
-      <c r="K133" s="63"/>
-    </row>
-    <row r="134" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B134" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C134" s="62"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="62"/>
-      <c r="F134" s="62"/>
-      <c r="G134" s="62"/>
-      <c r="H134" s="62"/>
-      <c r="I134" s="62"/>
-      <c r="J134" s="62"/>
-      <c r="K134" s="63"/>
+      <c r="J131" s="51"/>
+      <c r="K131" s="37"/>
+    </row>
+    <row r="132" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A132" s="44"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="45"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="48"/>
+      <c r="I132" s="48">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="51"/>
+      <c r="K132" s="37"/>
+    </row>
+    <row r="133" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A133" s="44"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="45"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="48"/>
+      <c r="I133" s="48">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="51"/>
+      <c r="K133" s="37"/>
+    </row>
+    <row r="134" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A134" s="44"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" s="45"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="48"/>
+      <c r="H134" s="48"/>
+      <c r="I134" s="48">
+        <f t="shared" ref="I134:I141" si="19">H134-G134</f>
+        <v>0</v>
+      </c>
+      <c r="J134" s="51"/>
+      <c r="K134" s="37"/>
     </row>
     <row r="135" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="44"/>
@@ -4121,7 +4325,7 @@
       <c r="G135" s="48"/>
       <c r="H135" s="48"/>
       <c r="I135" s="48">
-        <f t="shared" ref="I135:I152" si="19">H135-G135</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J135" s="51"/>
@@ -4247,7 +4451,7 @@
       <c r="G142" s="48"/>
       <c r="H142" s="48"/>
       <c r="I142" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J142" s="51"/>
@@ -4265,83 +4469,84 @@
       <c r="G143" s="48"/>
       <c r="H143" s="48"/>
       <c r="I143" s="48">
-        <f t="shared" ref="I143:I149" si="20">H143-G143</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J143" s="51"/>
       <c r="K143" s="37"/>
     </row>
-    <row r="144" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="44"/>
-      <c r="B144" s="45"/>
-      <c r="C144" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D144" s="45"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="48"/>
-      <c r="H144" s="48"/>
-      <c r="I144" s="48">
+    <row r="144" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144" s="15"/>
+      <c r="G144" s="18">
+        <f t="shared" ref="G144:H144" si="20">SUM(G126:G143)</f>
+        <v>0</v>
+      </c>
+      <c r="H144" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J144" s="51"/>
-      <c r="K144" s="37"/>
-    </row>
-    <row r="145" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="44"/>
-      <c r="B145" s="45"/>
-      <c r="C145" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D145" s="45"/>
-      <c r="E145" s="47"/>
-      <c r="F145" s="47"/>
-      <c r="G145" s="48"/>
-      <c r="H145" s="48"/>
-      <c r="I145" s="48">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J145" s="51"/>
-      <c r="K145" s="37"/>
-    </row>
-    <row r="146" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="44"/>
-      <c r="B146" s="45"/>
-      <c r="C146" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D146" s="45"/>
-      <c r="E146" s="47"/>
-      <c r="F146" s="47"/>
-      <c r="G146" s="48"/>
-      <c r="H146" s="48"/>
-      <c r="I146" s="48">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J146" s="51"/>
-      <c r="K146" s="37"/>
-    </row>
-    <row r="147" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A147" s="44"/>
-      <c r="B147" s="45"/>
-      <c r="C147" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D147" s="45"/>
-      <c r="E147" s="47"/>
-      <c r="F147" s="47"/>
-      <c r="G147" s="48"/>
-      <c r="H147" s="48"/>
-      <c r="I147" s="48">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J147" s="51"/>
-      <c r="K147" s="37"/>
+      <c r="I144" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="19"/>
+      <c r="K144" s="38"/>
+    </row>
+    <row r="145" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" s="55"/>
+      <c r="C145" s="55"/>
+      <c r="D145" s="55"/>
+      <c r="E145" s="55"/>
+      <c r="F145" s="55"/>
+      <c r="G145" s="55"/>
+      <c r="H145" s="55"/>
+      <c r="I145" s="55"/>
+      <c r="J145" s="55"/>
+      <c r="K145" s="56"/>
+    </row>
+    <row r="146" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A146" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="55"/>
+      <c r="D146" s="55"/>
+      <c r="E146" s="55"/>
+      <c r="F146" s="55"/>
+      <c r="G146" s="55"/>
+      <c r="H146" s="55"/>
+      <c r="I146" s="55"/>
+      <c r="J146" s="55"/>
+      <c r="K146" s="56"/>
+    </row>
+    <row r="147" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="55"/>
+      <c r="D147" s="55"/>
+      <c r="E147" s="55"/>
+      <c r="F147" s="55"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="55"/>
+      <c r="I147" s="55"/>
+      <c r="J147" s="55"/>
+      <c r="K147" s="56"/>
     </row>
     <row r="148" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="44"/>
@@ -4355,7 +4560,7 @@
       <c r="G148" s="48"/>
       <c r="H148" s="48"/>
       <c r="I148" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="I148:I165" si="21">H148-G148</f>
         <v>0</v>
       </c>
       <c r="J148" s="51"/>
@@ -4373,7 +4578,7 @@
       <c r="G149" s="48"/>
       <c r="H149" s="48"/>
       <c r="I149" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J149" s="51"/>
@@ -4391,7 +4596,7 @@
       <c r="G150" s="48"/>
       <c r="H150" s="48"/>
       <c r="I150" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J150" s="51"/>
@@ -4409,84 +4614,83 @@
       <c r="G151" s="48"/>
       <c r="H151" s="48"/>
       <c r="I151" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J151" s="51"/>
       <c r="K151" s="37"/>
     </row>
-    <row r="152" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="13"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F152" s="15"/>
-      <c r="G152" s="18">
-        <f t="shared" ref="G152:H152" si="21">SUM(G135:G151)</f>
-        <v>0</v>
-      </c>
-      <c r="H152" s="18">
+    <row r="152" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="44"/>
+      <c r="B152" s="45"/>
+      <c r="C152" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="45"/>
+      <c r="E152" s="47"/>
+      <c r="F152" s="47"/>
+      <c r="G152" s="48"/>
+      <c r="H152" s="48"/>
+      <c r="I152" s="48">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I152" s="18">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J152" s="19"/>
-      <c r="K152" s="38"/>
-    </row>
-    <row r="153" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B153" s="55"/>
-      <c r="C153" s="55"/>
-      <c r="D153" s="55"/>
-      <c r="E153" s="55"/>
-      <c r="F153" s="55"/>
-      <c r="G153" s="55"/>
-      <c r="H153" s="55"/>
-      <c r="I153" s="55"/>
-      <c r="J153" s="55"/>
-      <c r="K153" s="56"/>
-    </row>
-    <row r="154" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B154" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C154" s="55"/>
-      <c r="D154" s="55"/>
-      <c r="E154" s="55"/>
-      <c r="F154" s="55"/>
-      <c r="G154" s="55"/>
-      <c r="H154" s="55"/>
-      <c r="I154" s="55"/>
-      <c r="J154" s="55"/>
-      <c r="K154" s="56"/>
-    </row>
-    <row r="155" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C155" s="55"/>
-      <c r="D155" s="55"/>
-      <c r="E155" s="55"/>
-      <c r="F155" s="55"/>
-      <c r="G155" s="55"/>
-      <c r="H155" s="55"/>
-      <c r="I155" s="55"/>
-      <c r="J155" s="55"/>
-      <c r="K155" s="56"/>
+      <c r="J152" s="51"/>
+      <c r="K152" s="37"/>
+    </row>
+    <row r="153" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A153" s="44"/>
+      <c r="B153" s="45"/>
+      <c r="C153" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="45"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="47"/>
+      <c r="G153" s="48"/>
+      <c r="H153" s="48"/>
+      <c r="I153" s="48">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="51"/>
+      <c r="K153" s="37"/>
+    </row>
+    <row r="154" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A154" s="44"/>
+      <c r="B154" s="45"/>
+      <c r="C154" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" s="45"/>
+      <c r="E154" s="47"/>
+      <c r="F154" s="47"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="48"/>
+      <c r="I154" s="48">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="51"/>
+      <c r="K154" s="37"/>
+    </row>
+    <row r="155" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A155" s="44"/>
+      <c r="B155" s="45"/>
+      <c r="C155" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" s="45"/>
+      <c r="E155" s="47"/>
+      <c r="F155" s="47"/>
+      <c r="G155" s="48"/>
+      <c r="H155" s="48"/>
+      <c r="I155" s="48">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="51"/>
+      <c r="K155" s="37"/>
     </row>
     <row r="156" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="44"/>
@@ -4500,7 +4704,7 @@
       <c r="G156" s="48"/>
       <c r="H156" s="48"/>
       <c r="I156" s="48">
-        <f t="shared" ref="I156:I174" si="22">H156-G156</f>
+        <f t="shared" ref="I156:I162" si="22">H156-G156</f>
         <v>0</v>
       </c>
       <c r="J156" s="51"/>
@@ -4626,7 +4830,7 @@
       <c r="G163" s="48"/>
       <c r="H163" s="48"/>
       <c r="I163" s="48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J163" s="51"/>
@@ -4644,83 +4848,84 @@
       <c r="G164" s="48"/>
       <c r="H164" s="48"/>
       <c r="I164" s="48">
-        <f t="shared" ref="I164:I171" si="23">H164-G164</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J164" s="51"/>
       <c r="K164" s="37"/>
     </row>
-    <row r="165" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A165" s="44"/>
-      <c r="B165" s="45"/>
-      <c r="C165" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" s="45"/>
-      <c r="E165" s="47"/>
-      <c r="F165" s="47"/>
-      <c r="G165" s="48"/>
-      <c r="H165" s="48"/>
-      <c r="I165" s="48">
+    <row r="165" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A165" s="13"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F165" s="15"/>
+      <c r="G165" s="18">
+        <f t="shared" ref="G165:H165" si="23">SUM(G148:G164)</f>
+        <v>0</v>
+      </c>
+      <c r="H165" s="18">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J165" s="51"/>
-      <c r="K165" s="37"/>
-    </row>
-    <row r="166" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="44"/>
-      <c r="B166" s="45"/>
-      <c r="C166" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166" s="45"/>
-      <c r="E166" s="47"/>
-      <c r="F166" s="47"/>
-      <c r="G166" s="48"/>
-      <c r="H166" s="48"/>
-      <c r="I166" s="48">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J166" s="51"/>
-      <c r="K166" s="37"/>
-    </row>
-    <row r="167" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="44"/>
-      <c r="B167" s="45"/>
-      <c r="C167" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" s="45"/>
-      <c r="E167" s="47"/>
-      <c r="F167" s="47"/>
-      <c r="G167" s="48"/>
-      <c r="H167" s="48"/>
-      <c r="I167" s="48">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J167" s="51"/>
-      <c r="K167" s="37"/>
-    </row>
-    <row r="168" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="44"/>
-      <c r="B168" s="45"/>
-      <c r="C168" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" s="45"/>
-      <c r="E168" s="47"/>
-      <c r="F168" s="47"/>
-      <c r="G168" s="48"/>
-      <c r="H168" s="48"/>
-      <c r="I168" s="48">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J168" s="51"/>
-      <c r="K168" s="37"/>
+      <c r="I165" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J165" s="19"/>
+      <c r="K165" s="38"/>
+    </row>
+    <row r="166" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B166" s="63"/>
+      <c r="C166" s="63"/>
+      <c r="D166" s="63"/>
+      <c r="E166" s="63"/>
+      <c r="F166" s="63"/>
+      <c r="G166" s="63"/>
+      <c r="H166" s="63"/>
+      <c r="I166" s="63"/>
+      <c r="J166" s="63"/>
+      <c r="K166" s="64"/>
+    </row>
+    <row r="167" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A167" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="63"/>
+      <c r="D167" s="63"/>
+      <c r="E167" s="63"/>
+      <c r="F167" s="63"/>
+      <c r="G167" s="63"/>
+      <c r="H167" s="63"/>
+      <c r="I167" s="63"/>
+      <c r="J167" s="63"/>
+      <c r="K167" s="64"/>
+    </row>
+    <row r="168" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" s="63"/>
+      <c r="D168" s="63"/>
+      <c r="E168" s="63"/>
+      <c r="F168" s="63"/>
+      <c r="G168" s="63"/>
+      <c r="H168" s="63"/>
+      <c r="I168" s="63"/>
+      <c r="J168" s="63"/>
+      <c r="K168" s="64"/>
     </row>
     <row r="169" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="44"/>
@@ -4734,7 +4939,7 @@
       <c r="G169" s="48"/>
       <c r="H169" s="48"/>
       <c r="I169" s="48">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="I169:I187" si="24">H169-G169</f>
         <v>0</v>
       </c>
       <c r="J169" s="51"/>
@@ -4752,7 +4957,7 @@
       <c r="G170" s="48"/>
       <c r="H170" s="48"/>
       <c r="I170" s="48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J170" s="51"/>
@@ -4770,7 +4975,7 @@
       <c r="G171" s="48"/>
       <c r="H171" s="48"/>
       <c r="I171" s="48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J171" s="51"/>
@@ -4788,7 +4993,7 @@
       <c r="G172" s="48"/>
       <c r="H172" s="48"/>
       <c r="I172" s="48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J172" s="51"/>
@@ -4806,42 +5011,276 @@
       <c r="G173" s="48"/>
       <c r="H173" s="48"/>
       <c r="I173" s="48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J173" s="51"/>
       <c r="K173" s="37"/>
     </row>
-    <row r="174" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A174" s="39"/>
-      <c r="B174" s="40"/>
-      <c r="C174" s="40"/>
-      <c r="D174" s="40"/>
-      <c r="E174" s="40" t="s">
+    <row r="174" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A174" s="44"/>
+      <c r="B174" s="45"/>
+      <c r="C174" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="45"/>
+      <c r="E174" s="47"/>
+      <c r="F174" s="47"/>
+      <c r="G174" s="48"/>
+      <c r="H174" s="48"/>
+      <c r="I174" s="48">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J174" s="51"/>
+      <c r="K174" s="37"/>
+    </row>
+    <row r="175" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A175" s="44"/>
+      <c r="B175" s="45"/>
+      <c r="C175" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="45"/>
+      <c r="E175" s="47"/>
+      <c r="F175" s="47"/>
+      <c r="G175" s="48"/>
+      <c r="H175" s="48"/>
+      <c r="I175" s="48">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J175" s="51"/>
+      <c r="K175" s="37"/>
+    </row>
+    <row r="176" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A176" s="44"/>
+      <c r="B176" s="45"/>
+      <c r="C176" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="45"/>
+      <c r="E176" s="47"/>
+      <c r="F176" s="47"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="48"/>
+      <c r="I176" s="48">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J176" s="51"/>
+      <c r="K176" s="37"/>
+    </row>
+    <row r="177" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A177" s="44"/>
+      <c r="B177" s="45"/>
+      <c r="C177" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="45"/>
+      <c r="E177" s="47"/>
+      <c r="F177" s="47"/>
+      <c r="G177" s="48"/>
+      <c r="H177" s="48"/>
+      <c r="I177" s="48">
+        <f t="shared" ref="I177:I184" si="25">H177-G177</f>
+        <v>0</v>
+      </c>
+      <c r="J177" s="51"/>
+      <c r="K177" s="37"/>
+    </row>
+    <row r="178" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A178" s="44"/>
+      <c r="B178" s="45"/>
+      <c r="C178" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="45"/>
+      <c r="E178" s="47"/>
+      <c r="F178" s="47"/>
+      <c r="G178" s="48"/>
+      <c r="H178" s="48"/>
+      <c r="I178" s="48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J178" s="51"/>
+      <c r="K178" s="37"/>
+    </row>
+    <row r="179" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A179" s="44"/>
+      <c r="B179" s="45"/>
+      <c r="C179" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="45"/>
+      <c r="E179" s="47"/>
+      <c r="F179" s="47"/>
+      <c r="G179" s="48"/>
+      <c r="H179" s="48"/>
+      <c r="I179" s="48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J179" s="51"/>
+      <c r="K179" s="37"/>
+    </row>
+    <row r="180" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A180" s="44"/>
+      <c r="B180" s="45"/>
+      <c r="C180" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="45"/>
+      <c r="E180" s="47"/>
+      <c r="F180" s="47"/>
+      <c r="G180" s="48"/>
+      <c r="H180" s="48"/>
+      <c r="I180" s="48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J180" s="51"/>
+      <c r="K180" s="37"/>
+    </row>
+    <row r="181" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A181" s="44"/>
+      <c r="B181" s="45"/>
+      <c r="C181" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="45"/>
+      <c r="E181" s="47"/>
+      <c r="F181" s="47"/>
+      <c r="G181" s="48"/>
+      <c r="H181" s="48"/>
+      <c r="I181" s="48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J181" s="51"/>
+      <c r="K181" s="37"/>
+    </row>
+    <row r="182" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A182" s="44"/>
+      <c r="B182" s="45"/>
+      <c r="C182" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" s="45"/>
+      <c r="E182" s="47"/>
+      <c r="F182" s="47"/>
+      <c r="G182" s="48"/>
+      <c r="H182" s="48"/>
+      <c r="I182" s="48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J182" s="51"/>
+      <c r="K182" s="37"/>
+    </row>
+    <row r="183" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A183" s="44"/>
+      <c r="B183" s="45"/>
+      <c r="C183" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="45"/>
+      <c r="E183" s="47"/>
+      <c r="F183" s="47"/>
+      <c r="G183" s="48"/>
+      <c r="H183" s="48"/>
+      <c r="I183" s="48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J183" s="51"/>
+      <c r="K183" s="37"/>
+    </row>
+    <row r="184" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A184" s="44"/>
+      <c r="B184" s="45"/>
+      <c r="C184" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="45"/>
+      <c r="E184" s="47"/>
+      <c r="F184" s="47"/>
+      <c r="G184" s="48"/>
+      <c r="H184" s="48"/>
+      <c r="I184" s="48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J184" s="51"/>
+      <c r="K184" s="37"/>
+    </row>
+    <row r="185" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A185" s="44"/>
+      <c r="B185" s="45"/>
+      <c r="C185" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="45"/>
+      <c r="E185" s="47"/>
+      <c r="F185" s="47"/>
+      <c r="G185" s="48"/>
+      <c r="H185" s="48"/>
+      <c r="I185" s="48">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J185" s="51"/>
+      <c r="K185" s="37"/>
+    </row>
+    <row r="186" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A186" s="44"/>
+      <c r="B186" s="45"/>
+      <c r="C186" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="45"/>
+      <c r="E186" s="47"/>
+      <c r="F186" s="47"/>
+      <c r="G186" s="48"/>
+      <c r="H186" s="48"/>
+      <c r="I186" s="48">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J186" s="51"/>
+      <c r="K186" s="37"/>
+    </row>
+    <row r="187" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A187" s="39"/>
+      <c r="B187" s="40"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="40"/>
+      <c r="E187" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F174" s="40"/>
-      <c r="G174" s="41">
-        <f t="shared" ref="G174:H174" si="24">SUM(G156:G173)</f>
-        <v>0</v>
-      </c>
-      <c r="H174" s="41">
+      <c r="F187" s="40"/>
+      <c r="G187" s="41">
+        <f t="shared" ref="G187:H187" si="26">SUM(G169:G186)</f>
+        <v>0</v>
+      </c>
+      <c r="H187" s="41">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I187" s="41">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I174" s="41">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J174" s="42"/>
-      <c r="K174" s="43"/>
+      <c r="J187" s="42"/>
+      <c r="K187" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{8BAC9A6B-5D32-4E8D-967D-E17D357516F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:K15" xr:uid="{1BD2DD00-A528-42CE-B660-183865DEF747}">
+      <autoFilter ref="A1:K15" xr:uid="{41B36568-DACE-4535-90A1-B597C06C13B5}">
         <filterColumn colId="1">
           <filters blank="1">
             <filter val="- Weekplan item 1_x000a_- Weekplan item 2_x000a_- Weekplan item 3_x000a_- etc"/>
@@ -4852,98 +5291,103 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
-    <mergeCell ref="B111:K111"/>
-    <mergeCell ref="B112:K112"/>
-    <mergeCell ref="A132:K132"/>
-    <mergeCell ref="B69:K69"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="B89:K89"/>
-    <mergeCell ref="B90:K90"/>
-    <mergeCell ref="A110:K110"/>
-    <mergeCell ref="A153:K153"/>
-    <mergeCell ref="B154:K154"/>
-    <mergeCell ref="B155:K155"/>
+    <mergeCell ref="A166:K166"/>
+    <mergeCell ref="B167:K167"/>
+    <mergeCell ref="B168:K168"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="B24:K24"/>
     <mergeCell ref="B25:K25"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="A67:K67"/>
-    <mergeCell ref="B133:K133"/>
-    <mergeCell ref="B134:K134"/>
-    <mergeCell ref="B68:K68"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="B59:K59"/>
+    <mergeCell ref="A80:K80"/>
+    <mergeCell ref="B146:K146"/>
+    <mergeCell ref="B147:K147"/>
+    <mergeCell ref="B81:K81"/>
+    <mergeCell ref="B124:K124"/>
+    <mergeCell ref="B125:K125"/>
+    <mergeCell ref="A145:K145"/>
+    <mergeCell ref="B82:K82"/>
+    <mergeCell ref="A101:K101"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="B103:K103"/>
+    <mergeCell ref="A123:K123"/>
   </mergeCells>
-  <conditionalFormatting sqref="B24:B42 B47:B65 B70:B86 B91:B108 B113:B130 B135:B151 B5:B21">
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Unplanned">
+  <conditionalFormatting sqref="B5:B21 B60:B78 B83:B99 B104:B121 B126:B143 B148:B164 B24:B55">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH(("Planned"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="In-Progress">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="In-Progress">
       <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH(("Done"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B43 B45:B66 B68:B87 B89:B109 B111:B131 B133:B152 B154:B174 B5:B22">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Unplanned">
+  <conditionalFormatting sqref="B5:B22 B58:B79 B81:B100 B102:B122 B124:B144 B146:B165 B167:B187 B24:B56">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Cancelled">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="Cancelled">
       <formula>NOT(ISERROR(SEARCH(("Cancelled"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B156:B173">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Unplanned">
-      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B156))))</formula>
+  <conditionalFormatting sqref="B169:B186">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Unplanned">
+      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B169))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Planned">
-      <formula>NOT(ISERROR(SEARCH(("Planned"),(B156))))</formula>
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Planned">
+      <formula>NOT(ISERROR(SEARCH(("Planned"),(B169))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="In-Progress">
-      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B156))))</formula>
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="In-Progress">
+      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B169))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B156))))</formula>
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B169))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH(("Done"),(B156))))</formula>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH(("Done"),(B169))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 G26:G43 G47:G66 G70:G87 G91:G109 G113:G131 G135:G152 G156:G174 G3:G22">
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="G1 G3:G22 G60:G79 G83:G100 G104:G122 G126:G144 G148:G165 G169:G187 G26:G56">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H4 H7:H174">
-    <cfRule type="containsBlanks" dxfId="3" priority="18">
+  <conditionalFormatting sqref="H1:H4 H7:H32 H36:H187">
+    <cfRule type="containsBlanks" dxfId="4" priority="19">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I43 I47:I66 I70:I87 I91:I109 I113:I131 I135:I152 I156:I174 I5:I22">
-    <cfRule type="expression" dxfId="1" priority="15">
+  <conditionalFormatting sqref="I5:I22 I60:I79 I83:I100 I104:I122 I126:I144 I148:I165 I169:I187 I26:I56">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>H5/G5&gt;=1.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>H5/G5&lt;=0.5</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H33:H35">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="F135:F151 F156:F173 F26:F42 F47:F65 F70:F86 F91:F108 F113:F130 F5:F21" xr:uid="{0FAB3063-668E-4727-8636-10D0A6594410}">
+    <dataValidation type="list" allowBlank="1" sqref="F148:F164 F169:F186 F5:F21 F60:F78 F83:F99 F104:F121 F126:F143 F26:F55" xr:uid="{0FAB3063-668E-4727-8636-10D0A6594410}">
       <formula1>"ILO 1.6, ILO 2.6, ILO 5.1, ILO 6.4, ILO 8.5, ILO 8.6"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4964,13 +5408,13 @@
           <x14:formula1>
             <xm:f>'Drop-downs'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E135:E151 E156:E173 E26:E42 E47:E65 E70:E86 E91:E108 E113:E130 E5:E21</xm:sqref>
+          <xm:sqref>E148:E164 E169:E186 E5:E21 E60:E78 E83:E99 E104:E121 E126:E143 E26:E55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Drop-downs'!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B135:B151 B156:B173 B26:B42 B47:B65 B70:B86 B91:B108 B113:B130 B5:B21</xm:sqref>
+          <xm:sqref>B148:B164 B169:B186 B5:B21 B60:B78 B83:B99 B104:B121 B126:B143 B26:B55</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5055,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="10" cm="1">
-        <f t="array" ref="D4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$26:$H$42,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B4)),0)</f>
+        <f t="array" ref="D4">IFERROR(SUM(_xlfn._xlws.FILTER('Worklog_Tasks&amp;Times'!$H$26:$H$55,'Worklog_Tasks&amp;Times'!$F$5:$F$21=$B4)),0)</f>
         <v>0</v>
       </c>
       <c r="E4" s="10" cm="1">
@@ -6621,12 +7065,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6865,20 +7311,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
+    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6903,12 +7350,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
-    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Logs/adsai_y2b_25_26_worklog.xlsx
+++ b/Logs/adsai_y2b_25_26_worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\2025-26b-fai2-adsai-MaciejCzerniak243552\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4270974A-5CBE-4B7B-93E3-8298DBAFAADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF7B1E-3795-4335-A7B0-F36D824A4E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="116">
   <si>
     <t>Date</t>
   </si>
@@ -377,9 +377,6 @@
     <t>The time spent on reading is underestimated since it is hard to track for me. I don't pay attention when I started reading.</t>
   </si>
   <si>
-    <t>1. Basics</t>
-  </si>
-  <si>
     <t>Tangible Landscape</t>
   </si>
   <si>
@@ -390,12 +387,6 @@
   </si>
   <si>
     <t>Self-study</t>
-  </si>
-  <si>
-    <t>3. Morphological Operations</t>
-  </si>
-  <si>
-    <t>2. Thresholding and Filtering</t>
   </si>
   <si>
     <t>Today I started first task which is image annotation. and the main challenge was correctly distinguishing the four classes: root, seed, shoot, and background. At first, I assumed it would be easy to label them based on color and shape differences, but in practice the boundaries were not as clear as expected. The root and shoot often blend into each other, and the seed sometimes has similar tones to the background depending on the lighting. I need to be cautious and if I am not sure whether a given mask is correct, I should consult it with a mentor.  This block promises to be challenging .</t>
@@ -454,6 +445,21 @@
   </si>
   <si>
     <t>I found in Open CV documentation "connectedComponentsWithStats" function which which turned out to be the solution for the logic of my code. On practice purpose I wrapped the code in handy functions.</t>
+  </si>
+  <si>
+    <t>task_2.ipynb</t>
+  </si>
+  <si>
+    <t>1. Basics.ipynb</t>
+  </si>
+  <si>
+    <t>2. Thresholding and Filtering.ipynb</t>
+  </si>
+  <si>
+    <t>3. Morphological Operations.ipynb</t>
+  </si>
+  <si>
+    <t>6. Object Detection with DL.ipynb</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
     <numFmt numFmtId="165" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -559,6 +565,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="15">
@@ -796,7 +810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -947,26 +961,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -983,6 +977,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1001,12 +997,33 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1017,16 +1034,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1491,8 +1508,8 @@
   <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1545,53 +1562,53 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="44">
@@ -1711,7 +1728,7 @@
       </c>
       <c r="J8" s="49"/>
       <c r="K8" s="37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -1722,7 +1739,7 @@
         <v>71</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>66</v>
@@ -1741,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K9" s="37"/>
     </row>
@@ -1773,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="37" t="s">
         <v>81</v>
@@ -1914,7 +1931,7 @@
         <v>71</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>66</v>
@@ -1933,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K15" s="37"/>
     </row>
@@ -1973,7 +1990,7 @@
         <v>54</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="45" t="s">
         <v>88</v>
@@ -1995,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="K17" s="37" t="s">
         <v>89</v>
@@ -2037,7 +2054,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="45" t="s">
         <v>88</v>
@@ -2059,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="K19" s="37"/>
     </row>
@@ -2071,7 +2088,7 @@
         <v>54</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>88</v>
@@ -2093,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="K20" s="37"/>
     </row>
@@ -2125,7 +2142,7 @@
       </c>
       <c r="J21" s="51"/>
       <c r="K21" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -2153,53 +2170,53 @@
       <c r="K22" s="38"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
     </row>
     <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
     </row>
     <row r="25" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="56"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="26" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="52">
@@ -2209,7 +2226,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="45" t="s">
         <v>88</v>
@@ -2232,7 +2249,7 @@
       </c>
       <c r="J26" s="51"/>
       <c r="K26" s="37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="50" customFormat="1" ht="180" x14ac:dyDescent="0.25">
@@ -2240,10 +2257,10 @@
         <v>54</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>46</v>
@@ -2263,18 +2280,18 @@
       </c>
       <c r="J27" s="51"/>
       <c r="K27" s="37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B28" s="45" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E28" s="47" t="s">
         <v>66</v>
@@ -2292,7 +2309,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J28" s="51"/>
+      <c r="J28" s="53" t="s">
+        <v>115</v>
+      </c>
       <c r="K28" s="37"/>
     </row>
     <row r="29" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -2303,7 +2322,7 @@
         <v>71</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E29" s="47" t="s">
         <v>66</v>
@@ -2318,7 +2337,6 @@
         <v>4</v>
       </c>
       <c r="I29" s="48"/>
-      <c r="J29" s="51"/>
       <c r="K29" s="37"/>
     </row>
     <row r="30" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2350,7 +2368,7 @@
       </c>
       <c r="J30" s="51"/>
       <c r="K30" s="37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2361,7 +2379,7 @@
         <v>71</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E31" s="47" t="s">
         <v>66</v>
@@ -2381,7 +2399,7 @@
       </c>
       <c r="J31" s="51"/>
       <c r="K31" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -2389,10 +2407,10 @@
         <v>54</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E32" s="47" t="s">
         <v>66</v>
@@ -2410,9 +2428,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J32" s="51"/>
+      <c r="J32" s="53" t="s">
+        <v>115</v>
+      </c>
       <c r="K32" s="37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -2453,10 +2473,10 @@
         <v>54</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E34" s="47" t="s">
         <v>49</v>
@@ -2476,7 +2496,7 @@
       </c>
       <c r="J34" s="51"/>
       <c r="K34" s="37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="50" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -2485,10 +2505,10 @@
         <v>54</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E35" s="47" t="s">
         <v>49</v>
@@ -2503,12 +2523,14 @@
         <v>2</v>
       </c>
       <c r="I35" s="48">
-        <f t="shared" ref="I34:I40" si="6">H35-G35</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="51"/>
+        <f t="shared" ref="I35:I40" si="6">H35-G35</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="79" t="s">
+        <v>111</v>
+      </c>
       <c r="K35" s="37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="50" customFormat="1" ht="228" x14ac:dyDescent="0.25">
@@ -2540,7 +2562,7 @@
       </c>
       <c r="J36" s="51"/>
       <c r="K36" s="37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -2912,53 +2934,53 @@
       <c r="K56" s="38"/>
     </row>
     <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="56"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="63"/>
     </row>
     <row r="58" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="73" t="s">
+      <c r="B58" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="56"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="63"/>
     </row>
     <row r="59" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="56"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="63"/>
     </row>
     <row r="60" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="44"/>
@@ -3327,53 +3349,53 @@
       <c r="K79" s="38"/>
     </row>
     <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="74" t="s">
+      <c r="A80" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
-      <c r="K80" s="56"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="63"/>
     </row>
     <row r="81" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="56"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="63"/>
     </row>
     <row r="82" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="58" t="s">
+      <c r="B82" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="56"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="63"/>
     </row>
     <row r="83" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="44"/>
@@ -3706,53 +3728,53 @@
       <c r="K100" s="38"/>
     </row>
     <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="59" t="s">
+      <c r="A101" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="55"/>
-      <c r="J101" s="55"/>
-      <c r="K101" s="56"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="62"/>
+      <c r="I101" s="62"/>
+      <c r="J101" s="62"/>
+      <c r="K101" s="63"/>
     </row>
     <row r="102" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="60" t="s">
+      <c r="B102" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="55"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="55"/>
-      <c r="J102" s="55"/>
-      <c r="K102" s="56"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="62"/>
+      <c r="J102" s="62"/>
+      <c r="K102" s="63"/>
     </row>
     <row r="103" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B103" s="60" t="s">
+      <c r="B103" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C103" s="55"/>
-      <c r="D103" s="55"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="55"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="55"/>
-      <c r="J103" s="55"/>
-      <c r="K103" s="56"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="62"/>
+      <c r="I103" s="62"/>
+      <c r="J103" s="62"/>
+      <c r="K103" s="63"/>
     </row>
     <row r="104" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="44"/>
@@ -4103,53 +4125,53 @@
       <c r="K122" s="38"/>
     </row>
     <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="61" t="s">
+      <c r="A123" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B123" s="55"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="55"/>
-      <c r="F123" s="55"/>
-      <c r="G123" s="55"/>
-      <c r="H123" s="55"/>
-      <c r="I123" s="55"/>
-      <c r="J123" s="55"/>
-      <c r="K123" s="56"/>
+      <c r="B123" s="62"/>
+      <c r="C123" s="62"/>
+      <c r="D123" s="62"/>
+      <c r="E123" s="62"/>
+      <c r="F123" s="62"/>
+      <c r="G123" s="62"/>
+      <c r="H123" s="62"/>
+      <c r="I123" s="62"/>
+      <c r="J123" s="62"/>
+      <c r="K123" s="63"/>
     </row>
     <row r="124" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B124" s="54" t="s">
+      <c r="B124" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C124" s="55"/>
-      <c r="D124" s="55"/>
-      <c r="E124" s="55"/>
-      <c r="F124" s="55"/>
-      <c r="G124" s="55"/>
-      <c r="H124" s="55"/>
-      <c r="I124" s="55"/>
-      <c r="J124" s="55"/>
-      <c r="K124" s="56"/>
+      <c r="C124" s="62"/>
+      <c r="D124" s="62"/>
+      <c r="E124" s="62"/>
+      <c r="F124" s="62"/>
+      <c r="G124" s="62"/>
+      <c r="H124" s="62"/>
+      <c r="I124" s="62"/>
+      <c r="J124" s="62"/>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B125" s="54" t="s">
+      <c r="B125" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="55"/>
-      <c r="D125" s="55"/>
-      <c r="E125" s="55"/>
-      <c r="F125" s="55"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="55"/>
-      <c r="I125" s="55"/>
-      <c r="J125" s="55"/>
-      <c r="K125" s="56"/>
+      <c r="C125" s="62"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="62"/>
+      <c r="F125" s="62"/>
+      <c r="G125" s="62"/>
+      <c r="H125" s="62"/>
+      <c r="I125" s="62"/>
+      <c r="J125" s="62"/>
+      <c r="K125" s="63"/>
     </row>
     <row r="126" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="44"/>
@@ -4500,53 +4522,53 @@
       <c r="K144" s="38"/>
     </row>
     <row r="145" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="57" t="s">
+      <c r="A145" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B145" s="55"/>
-      <c r="C145" s="55"/>
-      <c r="D145" s="55"/>
-      <c r="E145" s="55"/>
-      <c r="F145" s="55"/>
-      <c r="G145" s="55"/>
-      <c r="H145" s="55"/>
-      <c r="I145" s="55"/>
-      <c r="J145" s="55"/>
-      <c r="K145" s="56"/>
+      <c r="B145" s="62"/>
+      <c r="C145" s="62"/>
+      <c r="D145" s="62"/>
+      <c r="E145" s="62"/>
+      <c r="F145" s="62"/>
+      <c r="G145" s="62"/>
+      <c r="H145" s="62"/>
+      <c r="I145" s="62"/>
+      <c r="J145" s="62"/>
+      <c r="K145" s="63"/>
     </row>
     <row r="146" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B146" s="75" t="s">
+      <c r="B146" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="55"/>
-      <c r="D146" s="55"/>
-      <c r="E146" s="55"/>
-      <c r="F146" s="55"/>
-      <c r="G146" s="55"/>
-      <c r="H146" s="55"/>
-      <c r="I146" s="55"/>
-      <c r="J146" s="55"/>
-      <c r="K146" s="56"/>
+      <c r="C146" s="62"/>
+      <c r="D146" s="62"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="62"/>
+      <c r="H146" s="62"/>
+      <c r="I146" s="62"/>
+      <c r="J146" s="62"/>
+      <c r="K146" s="63"/>
     </row>
     <row r="147" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B147" s="75" t="s">
+      <c r="B147" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C147" s="55"/>
-      <c r="D147" s="55"/>
-      <c r="E147" s="55"/>
-      <c r="F147" s="55"/>
-      <c r="G147" s="55"/>
-      <c r="H147" s="55"/>
-      <c r="I147" s="55"/>
-      <c r="J147" s="55"/>
-      <c r="K147" s="56"/>
+      <c r="C147" s="62"/>
+      <c r="D147" s="62"/>
+      <c r="E147" s="62"/>
+      <c r="F147" s="62"/>
+      <c r="G147" s="62"/>
+      <c r="H147" s="62"/>
+      <c r="I147" s="62"/>
+      <c r="J147" s="62"/>
+      <c r="K147" s="63"/>
     </row>
     <row r="148" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="44"/>
@@ -4879,53 +4901,53 @@
       <c r="K165" s="38"/>
     </row>
     <row r="166" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="62" t="s">
+      <c r="A166" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B166" s="63"/>
-      <c r="C166" s="63"/>
-      <c r="D166" s="63"/>
-      <c r="E166" s="63"/>
-      <c r="F166" s="63"/>
-      <c r="G166" s="63"/>
-      <c r="H166" s="63"/>
-      <c r="I166" s="63"/>
-      <c r="J166" s="63"/>
-      <c r="K166" s="64"/>
+      <c r="B166" s="55"/>
+      <c r="C166" s="55"/>
+      <c r="D166" s="55"/>
+      <c r="E166" s="55"/>
+      <c r="F166" s="55"/>
+      <c r="G166" s="55"/>
+      <c r="H166" s="55"/>
+      <c r="I166" s="55"/>
+      <c r="J166" s="55"/>
+      <c r="K166" s="56"/>
     </row>
     <row r="167" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B167" s="65" t="s">
+      <c r="B167" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C167" s="63"/>
-      <c r="D167" s="63"/>
-      <c r="E167" s="63"/>
-      <c r="F167" s="63"/>
-      <c r="G167" s="63"/>
-      <c r="H167" s="63"/>
-      <c r="I167" s="63"/>
-      <c r="J167" s="63"/>
-      <c r="K167" s="64"/>
+      <c r="C167" s="55"/>
+      <c r="D167" s="55"/>
+      <c r="E167" s="55"/>
+      <c r="F167" s="55"/>
+      <c r="G167" s="55"/>
+      <c r="H167" s="55"/>
+      <c r="I167" s="55"/>
+      <c r="J167" s="55"/>
+      <c r="K167" s="56"/>
     </row>
     <row r="168" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B168" s="65" t="s">
+      <c r="B168" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C168" s="63"/>
-      <c r="D168" s="63"/>
-      <c r="E168" s="63"/>
-      <c r="F168" s="63"/>
-      <c r="G168" s="63"/>
-      <c r="H168" s="63"/>
-      <c r="I168" s="63"/>
-      <c r="J168" s="63"/>
-      <c r="K168" s="64"/>
+      <c r="C168" s="55"/>
+      <c r="D168" s="55"/>
+      <c r="E168" s="55"/>
+      <c r="F168" s="55"/>
+      <c r="G168" s="55"/>
+      <c r="H168" s="55"/>
+      <c r="I168" s="55"/>
+      <c r="J168" s="55"/>
+      <c r="K168" s="56"/>
     </row>
     <row r="169" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="44"/>
@@ -5280,7 +5302,7 @@
   <customSheetViews>
     <customSheetView guid="{8BAC9A6B-5D32-4E8D-967D-E17D357516F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:K15" xr:uid="{41B36568-DACE-4535-90A1-B597C06C13B5}">
+      <autoFilter ref="A1:K15" xr:uid="{0ABFD685-BC54-425B-B8DE-6F2A17BE5005}">
         <filterColumn colId="1">
           <filters blank="1">
             <filter val="- Weekplan item 1_x000a_- Weekplan item 2_x000a_- Weekplan item 3_x000a_- etc"/>
@@ -5291,6 +5313,14 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
+    <mergeCell ref="B124:K124"/>
+    <mergeCell ref="B125:K125"/>
+    <mergeCell ref="A145:K145"/>
+    <mergeCell ref="B82:K82"/>
+    <mergeCell ref="A101:K101"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="B103:K103"/>
+    <mergeCell ref="A123:K123"/>
     <mergeCell ref="A166:K166"/>
     <mergeCell ref="B167:K167"/>
     <mergeCell ref="B168:K168"/>
@@ -5307,16 +5337,8 @@
     <mergeCell ref="B146:K146"/>
     <mergeCell ref="B147:K147"/>
     <mergeCell ref="B81:K81"/>
-    <mergeCell ref="B124:K124"/>
-    <mergeCell ref="B125:K125"/>
-    <mergeCell ref="A145:K145"/>
-    <mergeCell ref="B82:K82"/>
-    <mergeCell ref="A101:K101"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="B103:K103"/>
-    <mergeCell ref="A123:K123"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:B21 B60:B78 B83:B99 B104:B121 B126:B143 B148:B164 B24:B55">
+  <conditionalFormatting sqref="B5:B21 B24:B55 B60:B78 B83:B99 B104:B121 B126:B143 B148:B164">
     <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
@@ -5333,7 +5355,7 @@
       <formula>NOT(ISERROR(SEARCH(("Done"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B22 B58:B79 B81:B100 B102:B122 B124:B144 B146:B165 B167:B187 B24:B56">
+  <conditionalFormatting sqref="B5:B22 B24:B56 B58:B79 B81:B100 B102:B122 B124:B144 B146:B165 B167:B187">
     <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
@@ -5358,7 +5380,7 @@
       <formula>NOT(ISERROR(SEARCH(("Done"),(B169))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 G3:G22 G60:G79 G83:G100 G104:G122 G126:G144 G148:G165 G169:G187 G26:G56">
+  <conditionalFormatting sqref="G1 G3:G22 G26:G56 G60:G79 G83:G100 G104:G122 G126:G144 G148:G165 G169:G187">
     <cfRule type="cellIs" dxfId="5" priority="18" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
@@ -5373,17 +5395,17 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I22 I60:I79 I83:I100 I104:I122 I126:I144 I148:I165 I169:I187 I26:I56">
-    <cfRule type="expression" dxfId="2" priority="16">
+  <conditionalFormatting sqref="H33:H35">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I22 I26:I56 I60:I79 I83:I100 I104:I122 I126:I144 I148:I165 I169:I187">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>H5/G5&gt;=1.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>H5/G5&lt;=0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5394,13 +5416,16 @@
   <hyperlinks>
     <hyperlink ref="J10" r:id="rId1" xr:uid="{338167E6-7B0F-4DEB-BE9A-83BBFDE4AA41}"/>
     <hyperlink ref="J9" r:id="rId2" xr:uid="{0D930CB9-7189-4EC5-83D8-1C1C65571550}"/>
-    <hyperlink ref="J17" r:id="rId3" xr:uid="{4DC2825B-87CF-459D-B3D8-25ECA4518806}"/>
+    <hyperlink ref="J17" r:id="rId3" display="1. Basics" xr:uid="{4DC2825B-87CF-459D-B3D8-25ECA4518806}"/>
     <hyperlink ref="J15" r:id="rId4" xr:uid="{ACEDFC9A-0FF0-4EB7-B8A2-A808AF51EC76}"/>
     <hyperlink ref="J19" r:id="rId5" display="1. Thresholding and Filtering" xr:uid="{15F60698-F236-48CF-9817-60E03A44251E}"/>
-    <hyperlink ref="J20" r:id="rId6" xr:uid="{CD0FD26D-BE25-4EED-8F52-70668670D423}"/>
+    <hyperlink ref="J20" r:id="rId6" display="3. Morphological Operations" xr:uid="{CD0FD26D-BE25-4EED-8F52-70668670D423}"/>
+    <hyperlink ref="J35" r:id="rId7" xr:uid="{336236C0-5774-457E-8C6B-B15D8D1E5C6F}"/>
+    <hyperlink ref="J28" r:id="rId8" display="6. Object Detection with DL" xr:uid="{AA05656E-B459-4B01-971B-EC7FC7984922}"/>
+    <hyperlink ref="J32" r:id="rId9" display="6. Object Detection with DL" xr:uid="{B430FD59-6FDC-4875-93EF-48D33E82DA61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -7065,14 +7090,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7311,21 +7334,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
-    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7350,9 +7372,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
+    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Logs/adsai_y2b_25_26_worklog.xlsx
+++ b/Logs/adsai_y2b_25_26_worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\2025-26b-fai2-adsai-MaciejCzerniak243552\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF7B1E-3795-4335-A7B0-F36D824A4E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FFB7C9-9D4B-403D-858D-5FA8E3451685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>6. Object Detection with DL.ipynb</t>
+  </si>
+  <si>
+    <t>5. Image Segmentation.ipynb</t>
   </si>
 </sst>
 </file>
@@ -810,7 +813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -961,6 +964,29 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -977,8 +1003,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -997,24 +1021,6 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1022,7 +1028,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1507,9 +1513,9 @@
   </sheetPr>
   <dimension ref="A1:K187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1562,53 +1568,53 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="44">
@@ -2011,7 +2017,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="53" t="s">
+      <c r="J17" s="80" t="s">
         <v>112</v>
       </c>
       <c r="K17" s="37" t="s">
@@ -2049,7 +2055,7 @@
       </c>
       <c r="K18" s="37"/>
     </row>
-    <row r="19" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B19" s="45" t="s">
         <v>54</v>
       </c>
@@ -2075,12 +2081,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="80" t="s">
         <v>113</v>
       </c>
       <c r="K19" s="37"/>
     </row>
-    <row r="20" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="44">
         <v>45977</v>
       </c>
@@ -2109,7 +2115,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="80" t="s">
         <v>114</v>
       </c>
       <c r="K20" s="37"/>
@@ -2170,55 +2176,55 @@
       <c r="K22" s="38"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="60"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="69"/>
     </row>
     <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="63"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
     </row>
     <row r="25" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="63"/>
-    </row>
-    <row r="26" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:11" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="52">
         <v>45978</v>
       </c>
@@ -2247,7 +2253,9 @@
         <f t="shared" ref="I26:I56" si="4">H26-G26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="51"/>
+      <c r="J26" s="80" t="s">
+        <v>116</v>
+      </c>
       <c r="K26" s="37" t="s">
         <v>97</v>
       </c>
@@ -2283,7 +2291,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B28" s="45" t="s">
         <v>54</v>
       </c>
@@ -2309,7 +2317,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J28" s="53" t="s">
+      <c r="J28" s="80" t="s">
         <v>115</v>
       </c>
       <c r="K28" s="37"/>
@@ -2402,7 +2410,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
         <v>54</v>
       </c>
@@ -2428,7 +2436,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J32" s="53" t="s">
+      <c r="J32" s="80" t="s">
         <v>115</v>
       </c>
       <c r="K32" s="37" t="s">
@@ -2526,7 +2534,7 @@
         <f t="shared" ref="I35:I40" si="6">H35-G35</f>
         <v>0</v>
       </c>
-      <c r="J35" s="79" t="s">
+      <c r="J35" s="54" t="s">
         <v>111</v>
       </c>
       <c r="K35" s="37" t="s">
@@ -2934,53 +2942,53 @@
       <c r="K56" s="38"/>
     </row>
     <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="63"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="57"/>
     </row>
     <row r="58" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="63"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="57"/>
     </row>
     <row r="59" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="63"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="57"/>
     </row>
     <row r="60" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="44"/>
@@ -3349,53 +3357,53 @@
       <c r="K79" s="38"/>
     </row>
     <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="68" t="s">
+      <c r="A80" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="62"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="62"/>
-      <c r="K80" s="63"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="57"/>
     </row>
     <row r="81" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="70" t="s">
+      <c r="B81" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="62"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="62"/>
-      <c r="I81" s="62"/>
-      <c r="J81" s="62"/>
-      <c r="K81" s="63"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="57"/>
     </row>
     <row r="82" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="70" t="s">
+      <c r="B82" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="62"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="62"/>
-      <c r="I82" s="62"/>
-      <c r="J82" s="62"/>
-      <c r="K82" s="63"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="57"/>
     </row>
     <row r="83" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="44"/>
@@ -3728,53 +3736,53 @@
       <c r="K100" s="38"/>
     </row>
     <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="73" t="s">
+      <c r="A101" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B101" s="62"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62"/>
-      <c r="G101" s="62"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="62"/>
-      <c r="J101" s="62"/>
-      <c r="K101" s="63"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="56"/>
+      <c r="I101" s="56"/>
+      <c r="J101" s="56"/>
+      <c r="K101" s="57"/>
     </row>
     <row r="102" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="74" t="s">
+      <c r="B102" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="62"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="62"/>
-      <c r="I102" s="62"/>
-      <c r="J102" s="62"/>
-      <c r="K102" s="63"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="56"/>
+      <c r="J102" s="56"/>
+      <c r="K102" s="57"/>
     </row>
     <row r="103" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B103" s="74" t="s">
+      <c r="B103" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C103" s="62"/>
-      <c r="D103" s="62"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="62"/>
-      <c r="G103" s="62"/>
-      <c r="H103" s="62"/>
-      <c r="I103" s="62"/>
-      <c r="J103" s="62"/>
-      <c r="K103" s="63"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="56"/>
+      <c r="I103" s="56"/>
+      <c r="J103" s="56"/>
+      <c r="K103" s="57"/>
     </row>
     <row r="104" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="44"/>
@@ -4125,53 +4133,53 @@
       <c r="K122" s="38"/>
     </row>
     <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="75" t="s">
+      <c r="A123" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B123" s="62"/>
-      <c r="C123" s="62"/>
-      <c r="D123" s="62"/>
-      <c r="E123" s="62"/>
-      <c r="F123" s="62"/>
-      <c r="G123" s="62"/>
-      <c r="H123" s="62"/>
-      <c r="I123" s="62"/>
-      <c r="J123" s="62"/>
-      <c r="K123" s="63"/>
+      <c r="B123" s="56"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="56"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="57"/>
     </row>
     <row r="124" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B124" s="71" t="s">
+      <c r="B124" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C124" s="62"/>
-      <c r="D124" s="62"/>
-      <c r="E124" s="62"/>
-      <c r="F124" s="62"/>
-      <c r="G124" s="62"/>
-      <c r="H124" s="62"/>
-      <c r="I124" s="62"/>
-      <c r="J124" s="62"/>
-      <c r="K124" s="63"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="56"/>
+      <c r="F124" s="56"/>
+      <c r="G124" s="56"/>
+      <c r="H124" s="56"/>
+      <c r="I124" s="56"/>
+      <c r="J124" s="56"/>
+      <c r="K124" s="57"/>
     </row>
     <row r="125" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B125" s="71" t="s">
+      <c r="B125" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="62"/>
-      <c r="D125" s="62"/>
-      <c r="E125" s="62"/>
-      <c r="F125" s="62"/>
-      <c r="G125" s="62"/>
-      <c r="H125" s="62"/>
-      <c r="I125" s="62"/>
-      <c r="J125" s="62"/>
-      <c r="K125" s="63"/>
+      <c r="C125" s="56"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="56"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="57"/>
     </row>
     <row r="126" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="44"/>
@@ -4522,53 +4530,53 @@
       <c r="K144" s="38"/>
     </row>
     <row r="145" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="72" t="s">
+      <c r="A145" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B145" s="62"/>
-      <c r="C145" s="62"/>
-      <c r="D145" s="62"/>
-      <c r="E145" s="62"/>
-      <c r="F145" s="62"/>
-      <c r="G145" s="62"/>
-      <c r="H145" s="62"/>
-      <c r="I145" s="62"/>
-      <c r="J145" s="62"/>
-      <c r="K145" s="63"/>
+      <c r="B145" s="56"/>
+      <c r="C145" s="56"/>
+      <c r="D145" s="56"/>
+      <c r="E145" s="56"/>
+      <c r="F145" s="56"/>
+      <c r="G145" s="56"/>
+      <c r="H145" s="56"/>
+      <c r="I145" s="56"/>
+      <c r="J145" s="56"/>
+      <c r="K145" s="57"/>
     </row>
     <row r="146" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B146" s="69" t="s">
+      <c r="B146" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="62"/>
-      <c r="D146" s="62"/>
-      <c r="E146" s="62"/>
-      <c r="F146" s="62"/>
-      <c r="G146" s="62"/>
-      <c r="H146" s="62"/>
-      <c r="I146" s="62"/>
-      <c r="J146" s="62"/>
-      <c r="K146" s="63"/>
+      <c r="C146" s="56"/>
+      <c r="D146" s="56"/>
+      <c r="E146" s="56"/>
+      <c r="F146" s="56"/>
+      <c r="G146" s="56"/>
+      <c r="H146" s="56"/>
+      <c r="I146" s="56"/>
+      <c r="J146" s="56"/>
+      <c r="K146" s="57"/>
     </row>
     <row r="147" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B147" s="69" t="s">
+      <c r="B147" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C147" s="62"/>
-      <c r="D147" s="62"/>
-      <c r="E147" s="62"/>
-      <c r="F147" s="62"/>
-      <c r="G147" s="62"/>
-      <c r="H147" s="62"/>
-      <c r="I147" s="62"/>
-      <c r="J147" s="62"/>
-      <c r="K147" s="63"/>
+      <c r="C147" s="56"/>
+      <c r="D147" s="56"/>
+      <c r="E147" s="56"/>
+      <c r="F147" s="56"/>
+      <c r="G147" s="56"/>
+      <c r="H147" s="56"/>
+      <c r="I147" s="56"/>
+      <c r="J147" s="56"/>
+      <c r="K147" s="57"/>
     </row>
     <row r="148" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="44"/>
@@ -4901,53 +4909,53 @@
       <c r="K165" s="38"/>
     </row>
     <row r="166" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="54" t="s">
+      <c r="A166" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B166" s="55"/>
-      <c r="C166" s="55"/>
-      <c r="D166" s="55"/>
-      <c r="E166" s="55"/>
-      <c r="F166" s="55"/>
-      <c r="G166" s="55"/>
-      <c r="H166" s="55"/>
-      <c r="I166" s="55"/>
-      <c r="J166" s="55"/>
-      <c r="K166" s="56"/>
+      <c r="B166" s="64"/>
+      <c r="C166" s="64"/>
+      <c r="D166" s="64"/>
+      <c r="E166" s="64"/>
+      <c r="F166" s="64"/>
+      <c r="G166" s="64"/>
+      <c r="H166" s="64"/>
+      <c r="I166" s="64"/>
+      <c r="J166" s="64"/>
+      <c r="K166" s="65"/>
     </row>
     <row r="167" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B167" s="57" t="s">
+      <c r="B167" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C167" s="55"/>
-      <c r="D167" s="55"/>
-      <c r="E167" s="55"/>
-      <c r="F167" s="55"/>
-      <c r="G167" s="55"/>
-      <c r="H167" s="55"/>
-      <c r="I167" s="55"/>
-      <c r="J167" s="55"/>
-      <c r="K167" s="56"/>
+      <c r="C167" s="64"/>
+      <c r="D167" s="64"/>
+      <c r="E167" s="64"/>
+      <c r="F167" s="64"/>
+      <c r="G167" s="64"/>
+      <c r="H167" s="64"/>
+      <c r="I167" s="64"/>
+      <c r="J167" s="64"/>
+      <c r="K167" s="65"/>
     </row>
     <row r="168" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B168" s="57" t="s">
+      <c r="B168" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C168" s="55"/>
-      <c r="D168" s="55"/>
-      <c r="E168" s="55"/>
-      <c r="F168" s="55"/>
-      <c r="G168" s="55"/>
-      <c r="H168" s="55"/>
-      <c r="I168" s="55"/>
-      <c r="J168" s="55"/>
-      <c r="K168" s="56"/>
+      <c r="C168" s="64"/>
+      <c r="D168" s="64"/>
+      <c r="E168" s="64"/>
+      <c r="F168" s="64"/>
+      <c r="G168" s="64"/>
+      <c r="H168" s="64"/>
+      <c r="I168" s="64"/>
+      <c r="J168" s="64"/>
+      <c r="K168" s="65"/>
     </row>
     <row r="169" spans="1:11" s="50" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="44"/>
@@ -5302,7 +5310,7 @@
   <customSheetViews>
     <customSheetView guid="{8BAC9A6B-5D32-4E8D-967D-E17D357516F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:K15" xr:uid="{0ABFD685-BC54-425B-B8DE-6F2A17BE5005}">
+      <autoFilter ref="A1:K15" xr:uid="{7493B26C-4D33-4E71-9288-58C3AF132047}">
         <filterColumn colId="1">
           <filters blank="1">
             <filter val="- Weekplan item 1_x000a_- Weekplan item 2_x000a_- Weekplan item 3_x000a_- etc"/>
@@ -5313,14 +5321,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
-    <mergeCell ref="B124:K124"/>
-    <mergeCell ref="B125:K125"/>
-    <mergeCell ref="A145:K145"/>
-    <mergeCell ref="B82:K82"/>
-    <mergeCell ref="A101:K101"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="B103:K103"/>
-    <mergeCell ref="A123:K123"/>
     <mergeCell ref="A166:K166"/>
     <mergeCell ref="B167:K167"/>
     <mergeCell ref="B168:K168"/>
@@ -5337,6 +5337,14 @@
     <mergeCell ref="B146:K146"/>
     <mergeCell ref="B147:K147"/>
     <mergeCell ref="B81:K81"/>
+    <mergeCell ref="B124:K124"/>
+    <mergeCell ref="B125:K125"/>
+    <mergeCell ref="A145:K145"/>
+    <mergeCell ref="B82:K82"/>
+    <mergeCell ref="A101:K101"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="B103:K103"/>
+    <mergeCell ref="A123:K123"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B21 B24:B55 B60:B78 B83:B99 B104:B121 B126:B143 B148:B164">
     <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Unplanned">
@@ -5408,7 +5416,7 @@
       <formula>H5/G5&lt;=0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" sqref="F148:F164 F169:F186 F5:F21 F60:F78 F83:F99 F104:F121 F126:F143 F26:F55" xr:uid="{0FAB3063-668E-4727-8636-10D0A6594410}">
       <formula1>"ILO 1.6, ILO 2.6, ILO 5.1, ILO 6.4, ILO 8.5, ILO 8.6"</formula1>
     </dataValidation>
@@ -5416,19 +5424,20 @@
   <hyperlinks>
     <hyperlink ref="J10" r:id="rId1" xr:uid="{338167E6-7B0F-4DEB-BE9A-83BBFDE4AA41}"/>
     <hyperlink ref="J9" r:id="rId2" xr:uid="{0D930CB9-7189-4EC5-83D8-1C1C65571550}"/>
-    <hyperlink ref="J17" r:id="rId3" display="1. Basics" xr:uid="{4DC2825B-87CF-459D-B3D8-25ECA4518806}"/>
+    <hyperlink ref="J17" r:id="rId3" xr:uid="{4DC2825B-87CF-459D-B3D8-25ECA4518806}"/>
     <hyperlink ref="J15" r:id="rId4" xr:uid="{ACEDFC9A-0FF0-4EB7-B8A2-A808AF51EC76}"/>
-    <hyperlink ref="J19" r:id="rId5" display="1. Thresholding and Filtering" xr:uid="{15F60698-F236-48CF-9817-60E03A44251E}"/>
-    <hyperlink ref="J20" r:id="rId6" display="3. Morphological Operations" xr:uid="{CD0FD26D-BE25-4EED-8F52-70668670D423}"/>
+    <hyperlink ref="J19" r:id="rId5" xr:uid="{15F60698-F236-48CF-9817-60E03A44251E}"/>
+    <hyperlink ref="J20" r:id="rId6" xr:uid="{CD0FD26D-BE25-4EED-8F52-70668670D423}"/>
     <hyperlink ref="J35" r:id="rId7" xr:uid="{336236C0-5774-457E-8C6B-B15D8D1E5C6F}"/>
-    <hyperlink ref="J28" r:id="rId8" display="6. Object Detection with DL" xr:uid="{AA05656E-B459-4B01-971B-EC7FC7984922}"/>
-    <hyperlink ref="J32" r:id="rId9" display="6. Object Detection with DL" xr:uid="{B430FD59-6FDC-4875-93EF-48D33E82DA61}"/>
+    <hyperlink ref="J28" r:id="rId8" xr:uid="{AA05656E-B459-4B01-971B-EC7FC7984922}"/>
+    <hyperlink ref="J32" r:id="rId9" xr:uid="{B430FD59-6FDC-4875-93EF-48D33E82DA61}"/>
+    <hyperlink ref="J26" r:id="rId10" xr:uid="{8AB49E5F-4AC4-4FEC-94CA-96A569865976}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId11"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Drop-downs'!$B$2:$B$16</xm:f>
@@ -5877,58 +5886,58 @@
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7090,12 +7099,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7334,20 +7345,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
+    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7372,12 +7384,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
-    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Logs/adsai_y2b_25_26_worklog.xlsx
+++ b/Logs/adsai_y2b_25_26_worklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\2025-26b-fai2-adsai-MaciejCzerniak243552\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C720B777-FD9A-4501-9277-6320348FCD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7A38B6-F499-4C72-BC0A-11A85FA71258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Worklog_Tasks&amp;Times'!$A$1:$K$149</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Worklog_Tasks&amp;Times'!$A$1:$K$170</definedName>
     <definedName name="Z_8BAC9A6B_5D32_4E8D_967D_E17D357516F8_.wvu.FilterData" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$22</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="179">
   <si>
     <t>Date</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">Week 5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 6 </t>
   </si>
   <si>
     <t>Week 7</t>
@@ -554,6 +551,134 @@
   </si>
   <si>
     <t>I did sanity check and everything seems to be alright.</t>
+  </si>
+  <si>
+    <t>Task 5</t>
+  </si>
+  <si>
+    <t>Week 3 notebooks</t>
+  </si>
+  <si>
+    <t>I started task 5. I'm going to work on single class model to verify if this type of model is enough.</t>
+  </si>
+  <si>
+    <t>The model doesn't seems to be feasible for this task. At least after "base" U-net model. F1 is not even 0.50. I need to test other patch sizes. I also found dice loss which is usually used in medicine. I think it might be useful for this task, however I verify it in next iterations.</t>
+  </si>
+  <si>
+    <t>Model Training</t>
+  </si>
+  <si>
+    <t>I encounter a problem with data generator and I don't know how to fix it. I try to have an access to amount of image-mask pairs to verify if everything works well.</t>
+  </si>
+  <si>
+    <t>Everything seems to be good. The training is running but it goes slow. It is time to use server.</t>
+  </si>
+  <si>
+    <t>I tried to use the server but my data generators don't want to work. I tried to overcome it somehow but I wasn't able. I decided to switch back to my local station.</t>
+  </si>
+  <si>
+    <t>From my observations it appears that model training is so unefficient localy. I need to switch to GPU and setup CUDA.</t>
+  </si>
+  <si>
+    <t>I struggle to setup the right CUDA on my laptop. Somehow in terminal I see that is compatibile with CUDA 13. However, on Nvidia webpage last working integration for RTX 3060 is 11.2.</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>CUDA</t>
+  </si>
+  <si>
+    <t>cuDNN</t>
+  </si>
+  <si>
+    <t>I solved the issue with CUDA and now it works. I found additional cuDNN and I implemnted it to CUDA. cuDNN accelerates widely used deep learning frameworks, including PyTorch, JAX, Caffe2, Chainer, Keras, MATLAB, MxNet, PaddlePaddle, and TensorFlow.</t>
+  </si>
+  <si>
+    <t>After improvements mentioned above the training took only a 100 minutes. Resulst are too good to be true. My multiclass baseline has overall 99% F1 score. Now I'm going to evaluate the model to get into result for each class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is harder than I thought. Apparently I'm not able to get predictions for all images at the same time since the number of validate dataset images is to big to predict all at once. Even if I overcome that issue at some point and I did predictions only on around a 100 images then I startet struggle to get all metrics that I want for all classes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I solved a problem with metrics and root class has 80-85% F1 score which is more than I expected. I proceed to inference template and the quality of predictions are really good but with small noices. I want to go stright to the end of the process to have some 'skeleton' finished for the project to be able to iterate whole pipline. It is also recommended by the mentor to go to the end and iterate whole pipline. </t>
+  </si>
+  <si>
+    <t>Task 6</t>
+  </si>
+  <si>
+    <t>Individual Root Segmentation</t>
+  </si>
+  <si>
+    <t>I'm not able to use the approach showed in self study materials and I don't know why.</t>
+  </si>
+  <si>
+    <t>I realized that I can't get probability from my model and that's why I can't use Selective Search. I need different approach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 4 </t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Task 9</t>
+  </si>
+  <si>
+    <t>Robotics Environment Interaction</t>
+  </si>
+  <si>
+    <t>ILO 8.6</t>
+  </si>
+  <si>
+    <t>Since I don't have idea how I can solve the problem with taks 6 I switched to robotic part</t>
+  </si>
+  <si>
+    <t>This week required a lot of critical evaluation of my technical assumptions, especially regarding the environment setup and the interpretation of model results. I initially struggled to configure CUDA correctly on my laptop.
+Resolving this issue helped me understand how fragile deep learning environments can be and how important it is to align hardware, drivers, and libraries correctly.
+After fixing the CUDA issue and integrating cuDNN, I observed a significant improvement in training speed. This reinforced the importance of optimising the environment before evaluating model performance. When I trained the multiclass baseline model, the initial results appeared unusually strong, with an overall F1 score of 99%. Instead of accepting these results at face value, I critically questioned their validity and decided to perform a more detailed evaluation per class.
+During the evaluation phase, I encountered limitations related to memory and dataset size, which prevented me from generating predictions for all validation images at once. This challenged my assumption that evaluation would be a straightforward extension of training. I had to rethink how to compute metrics incrementally and selectively. Once resolved, I discovered that the root class achieved an F1 score of around 80–85%, which was more realistic and informative than the aggregated metric. This experience highlighted how misleading global metrics can be and why class-wise evaluation is essential.
+Next Steps:
+- Validate model performance using class-wise metrics rather than relying on overall scores.
+- Adapt the individual root segmentation approach to methods compatible with non-probabilistic outputs.
+- Continue iterating on the full pipeline now that an end-to-end structure is in place.</t>
+  </si>
+  <si>
+    <t>I started working on approach where  I use first morphology (open/close) then connectedComponentsWithStats. This approach gave me solid base after 2 iterations. However, I still don't get the right detection since the one of the plants is small and choosing the biggest blob not solving the situation.</t>
+  </si>
+  <si>
+    <t>After many attempts in iteration 2 and 3 I decided to involve whole mask instead of root mask. It conected most of disconected roots and blobs. In 4th iterration after dilate -&gt; erode -&gt; connectedComponentsWithStats -&gt; sort results and picking 4 biggest blobs I got satisfying result. I proceeded to Kaggle dataset to do the same task, predicting masks beforhand.</t>
+  </si>
+  <si>
+    <t>Segmented roots system are not the best due to noise produced during prediction. However it is strong base for the next task.</t>
+  </si>
+  <si>
+    <t>Task 7</t>
+  </si>
+  <si>
+    <t>Root System Architecture (RSA) Extraction</t>
+  </si>
+  <si>
+    <t>Following w3 notebooks I played with skeletonize and other useful functions. However, my approach was taking the highest point of each root system mask what gave me strange results such as huge root system had 25 px length.I did first submission with this approach and it seems to work surprisingly well. It gave me public score 35,985 which placed me on 20th place at that moment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I did severall improvments but it didin't gave me significantly higher score. Afterwards, I focused on the problem with picking the highest point. With 3rd iteration I switched form "dijkstra_path_length" to "single_source_dijkstra_path_length" which is huge step in the right direction. After this iteration I got score 3.294 and I moved to 2nd place. There still room for improvement since in task 6 </t>
+  </si>
+  <si>
+    <t>This part of the week required continuous re-evaluation of my problem-solving strategy, especially when my initial assumptions did not lead to acceptable results. When I reached a temporary dead end with Task 6, I decided to shift my focus to Task 9 to maintain momentum. This decision helped me stay productive while giving myself time to reconsider the segmentation problem from a different perspective instead of forcing an ineffective approach.
+Returning to Task 6, I experimented with a morphology-based pipeline using open/close operations followed by connectedComponentsWithStats. After a couple of iterations, this approach provided a reasonable baseline. However, I identified a critical flaw: selecting the largest blob did not work when one of the plants was significantly smaller. This challenged my assumption that size alone could be used as a reliable selection criterion.
+Through further iterations, I decided to involve the entire predicted mask instead of isolating only the root mask. This change helped reconnect fragmented roots and reduce the number of disconnected components. In the fourth iteration, combining dilation, erosion, connected component analysis, sorting results, and selecting the four largest blobs produced a much more reliable outcome. Applying the same logic to the Kaggle dataset further confirmed that the approach was robust, even though prediction noise still affected segmentation quality. Despite this, I recognised that the result is a strong foundation for subsequent tasks rather than a final solution.</t>
+  </si>
+  <si>
+    <t>In Task 7, I explored different strategies for root system architecture extraction using skeletonization and related functions. My initial approach - using the highest point of each root system mask - produced unintuitive results, such as unrealistically short root lengths. Nevertheless, I submitted this version to establish a baseline, which surprisingly achieved a competitive public score.
+Subsequent improvements initially yielded limited gains, prompting a deeper examination of the core assumption behind the path-length calculation. In the third iteration, switching from dijkstra_path_length to single_source_dijkstra_path_length significantly improved the results and led to a substantial jump in ranking.
+Next Steps:
+- Reduce noise propagation from Task 6 and the model to improve downstream RSA extraction.
+- Refine blob selection criteria to better handle varying plant sizes.
+- Continue iterating on Task 7 with more biologically meaningful root length definitions.</t>
+  </si>
+  <si>
+    <t>After intense week of work I decided to take a break.</t>
   </si>
 </sst>
 </file>
@@ -673,7 +798,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,6 +874,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1050,22 +1181,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1083,6 +1203,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1098,6 +1220,21 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1105,31 +1242,72 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="44">
     <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1154,6 +1332,166 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4C7C3"/>
           <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6B26B"/>
+          <bgColor rgb="FFF6B26B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6B26B"/>
+          <bgColor rgb="FFF6B26B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1631,11 +1969,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1688,69 +2026,69 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="B4" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>45971</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="46">
@@ -1765,24 +2103,24 @@
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B6" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="46">
         <v>0.25</v>
@@ -1796,24 +2134,24 @@
       </c>
       <c r="J6" s="47"/>
       <c r="K6" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>71</v>
-      </c>
       <c r="E7" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="46">
         <v>3</v>
@@ -1830,19 +2168,19 @@
     </row>
     <row r="8" spans="1:11" s="48" customFormat="1" ht="96" x14ac:dyDescent="0.25">
       <c r="B8" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>74</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>75</v>
       </c>
       <c r="G8" s="46">
         <v>0.5</v>
@@ -1856,24 +2194,24 @@
       </c>
       <c r="J8" s="47"/>
       <c r="K8" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="46">
         <v>1</v>
@@ -1886,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K9" s="35"/>
     </row>
@@ -1895,16 +2233,16 @@
         <v>45972</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="45"/>
       <c r="G10" s="46">
@@ -1918,10 +2256,10 @@
         <v>3</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.25">
@@ -1929,16 +2267,16 @@
         <v>45973</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="46">
@@ -1953,7 +2291,7 @@
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.25">
@@ -1961,19 +2299,19 @@
         <v>45974</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>84</v>
-      </c>
       <c r="E12" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="46">
         <v>3</v>
@@ -1987,24 +2325,24 @@
       </c>
       <c r="J12" s="47"/>
       <c r="K12" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="46">
         <v>4</v>
@@ -2021,19 +2359,19 @@
     </row>
     <row r="14" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="46">
         <v>4</v>
@@ -2053,19 +2391,19 @@
         <v>45975</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="46">
         <v>3</v>
@@ -2078,25 +2416,25 @@
         <v>0</v>
       </c>
       <c r="J15" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B16" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="46">
         <v>2</v>
@@ -2110,24 +2448,24 @@
       </c>
       <c r="J16" s="47"/>
       <c r="K16" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B17" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="46">
         <v>2</v>
@@ -2140,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -2151,19 +2489,19 @@
         <v>45976</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="45" t="s">
         <v>74</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>75</v>
       </c>
       <c r="G18" s="46">
         <v>0.5</v>
@@ -2179,19 +2517,19 @@
     </row>
     <row r="19" spans="1:11" s="48" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B19" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" s="46">
         <v>1</v>
@@ -2204,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19" s="35"/>
     </row>
@@ -2213,19 +2551,19 @@
         <v>45977</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="46">
         <v>0.5</v>
@@ -2238,25 +2576,25 @@
         <v>0</v>
       </c>
       <c r="J20" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" s="48" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="B21" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="45" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>75</v>
       </c>
       <c r="G21" s="46">
         <v>0.5</v>
@@ -2270,7 +2608,7 @@
       </c>
       <c r="J21" s="49"/>
       <c r="K21" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -2298,72 +2636,72 @@
       <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="66"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
     </row>
     <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="55"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="55"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" s="48" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="50">
         <v>45978</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="46">
         <v>1</v>
@@ -2376,27 +2714,27 @@
         <v>0</v>
       </c>
       <c r="J26" s="52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="48" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="B27" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="43" t="s">
-        <v>98</v>
-      </c>
       <c r="E27" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G27" s="46">
         <v>0.25</v>
@@ -2410,24 +2748,24 @@
       </c>
       <c r="J27" s="49"/>
       <c r="K27" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="48" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B28" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" s="46">
         <v>1</v>
@@ -2440,25 +2778,25 @@
         <v>0</v>
       </c>
       <c r="J28" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" s="46">
         <v>4</v>
@@ -2467,8 +2805,8 @@
         <v>4</v>
       </c>
       <c r="I29" s="46"/>
-      <c r="J29" s="77" t="s">
-        <v>138</v>
+      <c r="J29" s="54" t="s">
+        <v>137</v>
       </c>
       <c r="K29" s="35"/>
     </row>
@@ -2477,16 +2815,16 @@
         <v>45979</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="45"/>
       <c r="G30" s="46">
@@ -2501,24 +2839,24 @@
       </c>
       <c r="J30" s="49"/>
       <c r="K30" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B31" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G31" s="46">
         <v>4</v>
@@ -2530,28 +2868,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J31" s="77" t="s">
-        <v>138</v>
+      <c r="J31" s="54" t="s">
+        <v>137</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="48" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B32" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" s="46">
         <v>1</v>
@@ -2564,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -2575,19 +2913,19 @@
         <v>45980</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G33" s="46">
         <v>0.25</v>
@@ -2605,19 +2943,19 @@
     <row r="34" spans="1:11" s="48" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="50"/>
       <c r="B34" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="43" t="s">
-        <v>106</v>
-      </c>
       <c r="E34" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="46">
         <v>4</v>
@@ -2629,29 +2967,29 @@
         <f t="shared" ref="I34" si="5">H34-G34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="76" t="s">
-        <v>109</v>
+      <c r="J34" s="53" t="s">
+        <v>108</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="48" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
       <c r="B35" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="43" t="s">
-        <v>106</v>
-      </c>
       <c r="E35" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" s="46">
         <v>2</v>
@@ -2663,29 +3001,29 @@
         <f t="shared" ref="I35:I39" si="6">H35-G35</f>
         <v>0</v>
       </c>
-      <c r="J35" s="76" t="s">
-        <v>109</v>
+      <c r="J35" s="53" t="s">
+        <v>108</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="48" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
       <c r="B36" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="45" t="s">
         <v>74</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="45" t="s">
-        <v>75</v>
       </c>
       <c r="G36" s="46">
         <v>1</v>
@@ -2699,7 +3037,7 @@
       </c>
       <c r="J36" s="49"/>
       <c r="K36" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -2707,19 +3045,19 @@
         <v>45983</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="43" t="s">
-        <v>116</v>
-      </c>
       <c r="E37" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" s="46">
         <v>4</v>
@@ -2731,27 +3069,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J37" s="76" t="s">
-        <v>118</v>
+      <c r="J37" s="53" t="s">
+        <v>117</v>
       </c>
       <c r="K37" s="35"/>
     </row>
     <row r="38" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="50"/>
       <c r="B38" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="43" t="s">
-        <v>116</v>
-      </c>
       <c r="E38" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G38" s="46">
         <v>4</v>
@@ -2763,8 +3101,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J38" s="76" t="s">
-        <v>118</v>
+      <c r="J38" s="53" t="s">
+        <v>117</v>
       </c>
       <c r="K38" s="35"/>
     </row>
@@ -2773,19 +3111,19 @@
         <v>45984</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>116</v>
-      </c>
       <c r="E39" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G39" s="46">
         <v>4</v>
@@ -2797,29 +3135,29 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J39" s="76" t="s">
-        <v>118</v>
+      <c r="J39" s="53" t="s">
+        <v>117</v>
       </c>
       <c r="K39" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="48" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="50"/>
       <c r="B40" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G40" s="46">
         <v>2</v>
@@ -2832,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K40" s="35"/>
     </row>
@@ -2861,72 +3199,72 @@
       <c r="K41" s="36"/>
     </row>
     <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="55"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="64"/>
     </row>
     <row r="43" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="55"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="64"/>
     </row>
     <row r="44" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="55"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="64"/>
     </row>
     <row r="45" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
         <v>45985</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G45" s="46">
         <v>0.25</v>
@@ -2943,19 +3281,19 @@
     </row>
     <row r="46" spans="1:11" s="48" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B46" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G46" s="46">
         <v>1</v>
@@ -2968,27 +3306,27 @@
         <v>0</v>
       </c>
       <c r="J46" s="52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B47" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G47" s="46">
         <v>3</v>
@@ -3001,27 +3339,27 @@
         <v>0</v>
       </c>
       <c r="J47" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="48" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="B48" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="E48" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="45" t="s">
         <v>123</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="45" t="s">
-        <v>124</v>
       </c>
       <c r="G48" s="46">
         <v>2</v>
@@ -3034,27 +3372,27 @@
         <v>0</v>
       </c>
       <c r="J48" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K48" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="48" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B49" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G49" s="46">
         <v>1</v>
@@ -3067,26 +3405,26 @@
         <v>0</v>
       </c>
       <c r="J49" s="52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K49" s="35"/>
     </row>
     <row r="50" spans="1:11" ht="348" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
       <c r="B50" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F50" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G50" s="46">
         <v>0.5</v>
@@ -3099,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.25">
@@ -3107,25 +3445,25 @@
         <v>45986</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="44" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E51" s="45"/>
       <c r="F51" s="45"/>
       <c r="G51" s="46"/>
       <c r="H51" s="46"/>
       <c r="I51" s="46">
-        <f>H51-G51</f>
+        <f t="shared" ref="I51:I57" si="9">H51-G51</f>
         <v>0</v>
       </c>
       <c r="J51" s="49"/>
       <c r="K51" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3133,19 +3471,19 @@
         <v>45987</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E52" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G52" s="46">
         <v>2</v>
@@ -3154,32 +3492,32 @@
         <v>2</v>
       </c>
       <c r="I52" s="46">
-        <f>H52-G52</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J52" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K52" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="48" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" s="50"/>
       <c r="B53" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G53" s="46">
         <v>1</v>
@@ -3188,32 +3526,32 @@
         <v>1</v>
       </c>
       <c r="I53" s="46">
-        <f>H53-G53</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J53" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
       <c r="B54" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="E54" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="45" t="s">
         <v>123</v>
-      </c>
-      <c r="E54" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" s="45" t="s">
-        <v>124</v>
       </c>
       <c r="G54" s="46">
         <v>4</v>
@@ -3222,31 +3560,31 @@
         <v>4</v>
       </c>
       <c r="I54" s="46">
-        <f>H54-G54</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J54" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K54" s="35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="48" customFormat="1" ht="96" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="48" customFormat="1" ht="108" x14ac:dyDescent="0.25">
       <c r="B55" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="E55" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="45" t="s">
         <v>123</v>
-      </c>
-      <c r="E55" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" s="45" t="s">
-        <v>124</v>
       </c>
       <c r="G55" s="46">
         <v>4</v>
@@ -3255,31 +3593,31 @@
         <v>4</v>
       </c>
       <c r="I55" s="46">
-        <f>H55-G55</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J55" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K55" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B56" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="43" t="s">
+      <c r="E56" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="45" t="s">
         <v>123</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" s="45" t="s">
-        <v>124</v>
       </c>
       <c r="G56" s="46">
         <v>4</v>
@@ -3288,14 +3626,14 @@
         <v>4</v>
       </c>
       <c r="I56" s="46">
-        <f>H56-G56</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J56" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K56" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="48" customFormat="1" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3303,19 +3641,19 @@
         <v>45988</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E57" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F57" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G57" s="46">
         <v>2</v>
@@ -3324,29 +3662,29 @@
         <v>2</v>
       </c>
       <c r="I57" s="46">
-        <f>H57-G57</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J57" s="49"/>
       <c r="K57" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="E58" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="45" t="s">
         <v>123</v>
-      </c>
-      <c r="E58" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" s="45" t="s">
-        <v>124</v>
       </c>
       <c r="G58" s="46">
         <v>4</v>
@@ -3358,606 +3696,966 @@
         <v>0</v>
       </c>
       <c r="J58" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B59" s="43"/>
+      <c r="B59" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C59" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
+        <v>92</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="46">
+        <v>3</v>
+      </c>
+      <c r="H59" s="46">
+        <v>3</v>
+      </c>
       <c r="I59" s="46">
-        <f t="shared" ref="I58:I63" si="9">H59-G59</f>
+        <f t="shared" ref="I59:I63" si="10">H59-G59</f>
         <v>0</v>
       </c>
       <c r="J59" s="49"/>
       <c r="K59" s="35"/>
     </row>
-    <row r="60" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="43"/>
+    <row r="60" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A60" s="50">
+        <v>45989</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C60" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="43"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="46">
+        <v>4</v>
+      </c>
+      <c r="H60" s="46">
+        <v>4</v>
+      </c>
       <c r="I60" s="46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J60" s="49"/>
-      <c r="K60" s="35"/>
-    </row>
-    <row r="61" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="50">
-        <v>45989</v>
-      </c>
-      <c r="B61" s="43"/>
+      <c r="K60" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="B61" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C61" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="46">
+        <v>4</v>
+      </c>
+      <c r="H61" s="46">
+        <v>4</v>
+      </c>
       <c r="I61" s="46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J61" s="49"/>
-      <c r="K61" s="35"/>
-    </row>
-    <row r="62" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="43"/>
+      <c r="K61" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A62" s="50">
+        <v>45990</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C62" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="46">
+        <v>2</v>
+      </c>
+      <c r="H62" s="46">
+        <v>2</v>
+      </c>
       <c r="I62" s="46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J62" s="49"/>
-      <c r="K62" s="35"/>
-    </row>
-    <row r="63" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K62" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
-      <c r="B63" s="43"/>
+      <c r="B63" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C63" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="43"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" s="46">
+        <v>4</v>
+      </c>
+      <c r="H63" s="46">
+        <v>4</v>
+      </c>
       <c r="I63" s="46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J63" s="49"/>
-      <c r="K63" s="35"/>
-    </row>
-    <row r="64" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K63" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="48" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
-      <c r="B64" s="43"/>
+      <c r="B64" s="43" t="s">
+        <v>43</v>
+      </c>
       <c r="C64" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="43"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G64" s="46">
+        <v>1</v>
+      </c>
+      <c r="H64" s="46">
+        <v>1</v>
+      </c>
       <c r="I64" s="46">
-        <f t="shared" ref="I64:I69" si="10">H64-G64</f>
+        <f t="shared" ref="I64:I65" si="11">H64-G64</f>
         <v>0</v>
       </c>
       <c r="J64" s="49"/>
-      <c r="K64" s="35"/>
-    </row>
-    <row r="65" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K64" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A65" s="42"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C65" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="46">
+        <v>4</v>
+      </c>
+      <c r="H65" s="46">
+        <v>4</v>
+      </c>
       <c r="I65" s="46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J65" s="49"/>
-      <c r="K65" s="35"/>
-    </row>
-    <row r="66" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="49"/>
-      <c r="K66" s="35"/>
-    </row>
-    <row r="67" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="43"/>
-      <c r="C67" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="43"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="49"/>
-      <c r="K67" s="35"/>
-    </row>
-    <row r="68" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B68" s="43"/>
-      <c r="C68" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="43"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="49"/>
-      <c r="K68" s="35"/>
-    </row>
-    <row r="69" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B69" s="43"/>
-      <c r="C69" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="43"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="49"/>
-      <c r="K69" s="35"/>
-    </row>
-    <row r="70" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="43"/>
+      <c r="K65" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="18">
+        <f>SUM(G45:G65)</f>
+        <v>50.75</v>
+      </c>
+      <c r="H66" s="18">
+        <f>SUM(H45:H65)</f>
+        <v>50.75</v>
+      </c>
+      <c r="I66" s="18">
+        <f t="shared" ref="I66" si="12">H66-G66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="19"/>
+      <c r="K66" s="36"/>
+    </row>
+    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="64"/>
+    </row>
+    <row r="68" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="64"/>
+    </row>
+    <row r="69" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="64"/>
+    </row>
+    <row r="70" spans="1:11" s="48" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A70" s="42">
+        <v>45992</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C70" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="43"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
+        <v>151</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G70" s="46">
+        <v>4</v>
+      </c>
+      <c r="H70" s="46">
+        <v>4</v>
+      </c>
       <c r="I70" s="46">
-        <f t="shared" ref="I70:I85" si="11">H70-G70</f>
+        <f t="shared" ref="I70" si="13">H70-G70</f>
         <v>0</v>
       </c>
       <c r="J70" s="49"/>
-      <c r="K70" s="35"/>
-    </row>
-    <row r="71" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="43"/>
+      <c r="K70" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="B71" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C71" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="43"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
+        <v>151</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" s="46">
+        <v>4</v>
+      </c>
+      <c r="H71" s="46">
+        <v>4</v>
+      </c>
       <c r="I71" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I71:I88" si="14">H71-G71</f>
         <v>0</v>
       </c>
       <c r="J71" s="49"/>
-      <c r="K71" s="35"/>
-    </row>
-    <row r="72" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="B72" s="43"/>
+      <c r="K71" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="48" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="B72" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C72" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="43"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G72" s="46">
+        <v>2</v>
+      </c>
+      <c r="H72" s="46">
+        <v>2</v>
+      </c>
       <c r="I72" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J72" s="49"/>
-      <c r="K72" s="35"/>
-    </row>
-    <row r="73" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="43"/>
+      <c r="K72" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B73" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C73" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="43"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="46">
+        <v>4</v>
+      </c>
+      <c r="H73" s="46">
+        <v>4</v>
+      </c>
       <c r="I73" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J73" s="49"/>
-      <c r="K73" s="35"/>
-    </row>
-    <row r="74" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="43"/>
+      <c r="K73" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="48" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A74" s="42">
+        <v>45993</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C74" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G74" s="46">
+        <v>2</v>
+      </c>
+      <c r="H74" s="46">
+        <v>2</v>
+      </c>
       <c r="I74" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J74" s="49"/>
-      <c r="K74" s="35"/>
-    </row>
-    <row r="75" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K74" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
-      <c r="B75" s="43"/>
+      <c r="B75" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C75" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="43"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
+        <v>158</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G75" s="46">
+        <v>4</v>
+      </c>
+      <c r="H75" s="46">
+        <v>4</v>
+      </c>
       <c r="I75" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J75" s="49"/>
-      <c r="K75" s="35"/>
-    </row>
-    <row r="76" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K75" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A76" s="42"/>
-      <c r="B76" s="43"/>
+      <c r="B76" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C76" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="43"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
+        <v>158</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G76" s="46">
+        <v>1</v>
+      </c>
+      <c r="H76" s="46">
+        <v>1</v>
+      </c>
       <c r="I76" s="46">
-        <f t="shared" ref="I76:I82" si="12">H76-G76</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J76" s="49"/>
-      <c r="K76" s="35"/>
+      <c r="K76" s="35" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="77" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="42"/>
-      <c r="B77" s="43"/>
+      <c r="B77" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C77" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
+        <v>158</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G77" s="46">
+        <v>4</v>
+      </c>
+      <c r="H77" s="46">
+        <v>4</v>
+      </c>
       <c r="I77" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J77" s="49"/>
       <c r="K77" s="35"/>
     </row>
-    <row r="78" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="B78" s="43"/>
+    <row r="78" spans="1:11" s="48" customFormat="1" ht="372" x14ac:dyDescent="0.25">
+      <c r="B78" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C78" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="43"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
+        <v>61</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G78" s="46">
+        <v>2</v>
+      </c>
+      <c r="H78" s="46">
+        <v>2</v>
+      </c>
       <c r="I78" s="46">
-        <f t="shared" si="12"/>
+        <f>H78-G78</f>
         <v>0</v>
       </c>
       <c r="J78" s="49"/>
-      <c r="K78" s="35"/>
-    </row>
-    <row r="79" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
-      <c r="B79" s="43"/>
+      <c r="K78" s="35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A79" s="42">
+        <v>45994</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C79" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="43"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
+        <v>164</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F79" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G79" s="46">
+        <v>4</v>
+      </c>
+      <c r="H79" s="46">
+        <v>4</v>
+      </c>
       <c r="I79" s="46">
-        <f t="shared" si="12"/>
+        <f>H79-G79</f>
         <v>0</v>
       </c>
       <c r="J79" s="49"/>
-      <c r="K79" s="35"/>
-    </row>
-    <row r="80" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K79" s="35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A80" s="42"/>
-      <c r="B80" s="43"/>
+      <c r="B80" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C80" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="43"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
+        <v>158</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G80" s="46">
+        <v>4</v>
+      </c>
+      <c r="H80" s="46">
+        <v>4</v>
+      </c>
       <c r="I80" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I80:I86" si="15">H80-G80</f>
         <v>0</v>
       </c>
       <c r="J80" s="49"/>
-      <c r="K80" s="35"/>
-    </row>
-    <row r="81" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K80" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
-      <c r="B81" s="43"/>
+      <c r="B81" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C81" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="43"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
+        <v>158</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E81" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G81" s="46">
+        <v>4</v>
+      </c>
+      <c r="H81" s="46">
+        <v>4</v>
+      </c>
       <c r="I81" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J81" s="49"/>
-      <c r="K81" s="35"/>
-    </row>
-    <row r="82" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K81" s="35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
-      <c r="B82" s="43"/>
+      <c r="B82" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C82" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="43"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
+        <v>158</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G82" s="46">
+        <v>4</v>
+      </c>
+      <c r="H82" s="46">
+        <v>4</v>
+      </c>
       <c r="I82" s="46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J82" s="49"/>
-      <c r="K82" s="35"/>
-    </row>
-    <row r="83" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-      <c r="B83" s="43"/>
+      <c r="K82" s="35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="42">
+        <v>45995</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C83" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="43"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
+        <v>172</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G83" s="46">
+        <v>4</v>
+      </c>
+      <c r="H83" s="46">
+        <v>4</v>
+      </c>
       <c r="I83" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J83" s="49"/>
-      <c r="K83" s="35"/>
-    </row>
-    <row r="84" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K83" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="48" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A84" s="42"/>
-      <c r="B84" s="43"/>
+      <c r="B84" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C84" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="43"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
+        <v>172</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G84" s="46">
+        <v>4</v>
+      </c>
+      <c r="H84" s="46">
+        <v>4</v>
+      </c>
       <c r="I84" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J84" s="49"/>
-      <c r="K84" s="35"/>
-    </row>
-    <row r="85" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15" t="s">
+      <c r="K84" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="48" customFormat="1" ht="276" x14ac:dyDescent="0.25">
+      <c r="A85" s="42">
+        <v>45996</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G85" s="46">
+        <v>1</v>
+      </c>
+      <c r="H85" s="46">
+        <v>1</v>
+      </c>
+      <c r="I85" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="49"/>
+      <c r="K85" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="48" customFormat="1" ht="216" x14ac:dyDescent="0.25">
+      <c r="A86" s="42"/>
+      <c r="B86" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G86" s="46">
+        <v>1</v>
+      </c>
+      <c r="H86" s="46">
+        <v>1</v>
+      </c>
+      <c r="I86" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="49"/>
+      <c r="K86" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="42"/>
+      <c r="B87" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G87" s="46">
+        <v>4</v>
+      </c>
+      <c r="H87" s="46">
+        <v>0</v>
+      </c>
+      <c r="I87" s="46">
+        <f t="shared" ref="I87" si="16">H87-G87</f>
+        <v>-4</v>
+      </c>
+      <c r="J87" s="49"/>
+      <c r="K87" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="15"/>
-      <c r="G85" s="18">
-        <f>SUM(G45:G84)</f>
-        <v>28.75</v>
-      </c>
-      <c r="H85" s="18">
-        <f>SUM(H45:H84)</f>
-        <v>28.75</v>
-      </c>
-      <c r="I85" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="19"/>
-      <c r="K85" s="36"/>
-    </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="57" t="s">
+      <c r="F88" s="15"/>
+      <c r="G88" s="18">
+        <f>SUM(G70:G87)</f>
+        <v>57</v>
+      </c>
+      <c r="H88" s="18">
+        <f>SUM(H70:H87)</f>
+        <v>53</v>
+      </c>
+      <c r="I88" s="18">
+        <f t="shared" si="14"/>
+        <v>-4</v>
+      </c>
+      <c r="J88" s="19"/>
+      <c r="K88" s="36"/>
+    </row>
+    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="55"/>
-    </row>
-    <row r="87" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
+      <c r="B89" s="63"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="63"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="64"/>
+    </row>
+    <row r="90" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A90" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B90" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="55"/>
-    </row>
-    <row r="88" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
+      <c r="C90" s="63"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="64"/>
+    </row>
+    <row r="91" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="58" t="s">
+      <c r="B91" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="54"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="54"/>
-      <c r="K88" s="55"/>
-    </row>
-    <row r="89" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="43"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46">
-        <f t="shared" ref="I89:I107" si="13">H89-G89</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="49"/>
-      <c r="K89" s="35"/>
-    </row>
-    <row r="90" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="43"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="49"/>
-      <c r="K90" s="35"/>
-    </row>
-    <row r="91" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="43"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="49"/>
-      <c r="K91" s="35"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="63"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="63"/>
+      <c r="K91" s="64"/>
     </row>
     <row r="92" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
+      <c r="A92" s="42">
+        <v>45999</v>
+      </c>
       <c r="B92" s="43"/>
       <c r="C92" s="44" t="s">
         <v>16</v>
@@ -3968,14 +4666,16 @@
       <c r="G92" s="46"/>
       <c r="H92" s="46"/>
       <c r="I92" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I92:I130" si="17">H92-G92</f>
         <v>0</v>
       </c>
       <c r="J92" s="49"/>
       <c r="K92" s="35"/>
     </row>
     <row r="93" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
+      <c r="A93" s="42">
+        <v>46000</v>
+      </c>
       <c r="B93" s="43"/>
       <c r="C93" s="44" t="s">
         <v>16</v>
@@ -3986,14 +4686,16 @@
       <c r="G93" s="46"/>
       <c r="H93" s="46"/>
       <c r="I93" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J93" s="49"/>
       <c r="K93" s="35"/>
     </row>
     <row r="94" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
+      <c r="A94" s="42">
+        <v>46001</v>
+      </c>
       <c r="B94" s="43"/>
       <c r="C94" s="44" t="s">
         <v>16</v>
@@ -4004,14 +4706,16 @@
       <c r="G94" s="46"/>
       <c r="H94" s="46"/>
       <c r="I94" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J94" s="49"/>
       <c r="K94" s="35"/>
     </row>
     <row r="95" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
+      <c r="A95" s="42">
+        <v>46002</v>
+      </c>
       <c r="B95" s="43"/>
       <c r="C95" s="44" t="s">
         <v>16</v>
@@ -4022,14 +4726,16 @@
       <c r="G95" s="46"/>
       <c r="H95" s="46"/>
       <c r="I95" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J95" s="49"/>
       <c r="K95" s="35"/>
     </row>
     <row r="96" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
+      <c r="A96" s="42">
+        <v>46003</v>
+      </c>
       <c r="B96" s="43"/>
       <c r="C96" s="44" t="s">
         <v>16</v>
@@ -4040,7 +4746,7 @@
       <c r="G96" s="46"/>
       <c r="H96" s="46"/>
       <c r="I96" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J96" s="49"/>
@@ -4058,7 +4764,7 @@
       <c r="G97" s="46"/>
       <c r="H97" s="46"/>
       <c r="I97" s="46">
-        <f t="shared" ref="I97:I104" si="14">H97-G97</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J97" s="49"/>
@@ -4076,7 +4782,7 @@
       <c r="G98" s="46"/>
       <c r="H98" s="46"/>
       <c r="I98" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J98" s="49"/>
@@ -4094,14 +4800,13 @@
       <c r="G99" s="46"/>
       <c r="H99" s="46"/>
       <c r="I99" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J99" s="49"/>
       <c r="K99" s="35"/>
     </row>
     <row r="100" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
       <c r="B100" s="43"/>
       <c r="C100" s="44" t="s">
         <v>16</v>
@@ -4112,14 +4817,13 @@
       <c r="G100" s="46"/>
       <c r="H100" s="46"/>
       <c r="I100" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="I100:I110" si="18">H100-G100</f>
         <v>0</v>
       </c>
       <c r="J100" s="49"/>
       <c r="K100" s="35"/>
     </row>
     <row r="101" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
       <c r="B101" s="43"/>
       <c r="C101" s="44" t="s">
         <v>16</v>
@@ -4130,14 +4834,13 @@
       <c r="G101" s="46"/>
       <c r="H101" s="46"/>
       <c r="I101" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J101" s="49"/>
       <c r="K101" s="35"/>
     </row>
     <row r="102" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="42"/>
       <c r="B102" s="43"/>
       <c r="C102" s="44" t="s">
         <v>16</v>
@@ -4148,14 +4851,13 @@
       <c r="G102" s="46"/>
       <c r="H102" s="46"/>
       <c r="I102" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J102" s="49"/>
       <c r="K102" s="35"/>
     </row>
     <row r="103" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="42"/>
       <c r="B103" s="43"/>
       <c r="C103" s="44" t="s">
         <v>16</v>
@@ -4166,14 +4868,13 @@
       <c r="G103" s="46"/>
       <c r="H103" s="46"/>
       <c r="I103" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J103" s="49"/>
       <c r="K103" s="35"/>
     </row>
     <row r="104" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="42"/>
       <c r="B104" s="43"/>
       <c r="C104" s="44" t="s">
         <v>16</v>
@@ -4184,7 +4885,7 @@
       <c r="G104" s="46"/>
       <c r="H104" s="46"/>
       <c r="I104" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J104" s="49"/>
@@ -4202,7 +4903,7 @@
       <c r="G105" s="46"/>
       <c r="H105" s="46"/>
       <c r="I105" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J105" s="49"/>
@@ -4220,87 +4921,85 @@
       <c r="G106" s="46"/>
       <c r="H106" s="46"/>
       <c r="I106" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J106" s="49"/>
       <c r="K106" s="35"/>
     </row>
-    <row r="107" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F107" s="15"/>
-      <c r="G107" s="18">
-        <f t="shared" ref="G107:H107" si="15">SUM(G89:G106)</f>
-        <v>0</v>
-      </c>
-      <c r="H107" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I107" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="19"/>
-      <c r="K107" s="36"/>
-    </row>
-    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B108" s="54"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="54"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="54"/>
-      <c r="I108" s="54"/>
-      <c r="J108" s="54"/>
-      <c r="K108" s="55"/>
-    </row>
-    <row r="109" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B109" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="55"/>
-    </row>
-    <row r="110" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" s="54"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="54"/>
-      <c r="F110" s="54"/>
-      <c r="G110" s="54"/>
-      <c r="H110" s="54"/>
-      <c r="I110" s="54"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="55"/>
+    <row r="107" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A107" s="42"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="43"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="49"/>
+      <c r="K107" s="35"/>
+    </row>
+    <row r="108" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A108" s="42"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="43"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="49"/>
+      <c r="K108" s="35"/>
+    </row>
+    <row r="109" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="42"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="43"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="49"/>
+      <c r="K109" s="35"/>
+    </row>
+    <row r="110" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A110" s="42"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="43"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="49"/>
+      <c r="K110" s="35"/>
     </row>
     <row r="111" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="42"/>
       <c r="B111" s="43"/>
       <c r="C111" s="44" t="s">
         <v>16</v>
@@ -4311,14 +5010,13 @@
       <c r="G111" s="46"/>
       <c r="H111" s="46"/>
       <c r="I111" s="46">
-        <f t="shared" ref="I111:I129" si="16">H111-G111</f>
+        <f t="shared" ref="I111:I127" si="19">H111-G111</f>
         <v>0</v>
       </c>
       <c r="J111" s="49"/>
       <c r="K111" s="35"/>
     </row>
     <row r="112" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
       <c r="B112" s="43"/>
       <c r="C112" s="44" t="s">
         <v>16</v>
@@ -4329,7 +5027,7 @@
       <c r="G112" s="46"/>
       <c r="H112" s="46"/>
       <c r="I112" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J112" s="49"/>
@@ -4347,7 +5045,7 @@
       <c r="G113" s="46"/>
       <c r="H113" s="46"/>
       <c r="I113" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J113" s="49"/>
@@ -4365,7 +5063,7 @@
       <c r="G114" s="46"/>
       <c r="H114" s="46"/>
       <c r="I114" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J114" s="49"/>
@@ -4383,14 +5081,13 @@
       <c r="G115" s="46"/>
       <c r="H115" s="46"/>
       <c r="I115" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J115" s="49"/>
       <c r="K115" s="35"/>
     </row>
     <row r="116" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="42"/>
       <c r="B116" s="43"/>
       <c r="C116" s="44" t="s">
         <v>16</v>
@@ -4401,14 +5098,13 @@
       <c r="G116" s="46"/>
       <c r="H116" s="46"/>
       <c r="I116" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J116" s="49"/>
       <c r="K116" s="35"/>
     </row>
     <row r="117" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="42"/>
       <c r="B117" s="43"/>
       <c r="C117" s="44" t="s">
         <v>16</v>
@@ -4419,14 +5115,13 @@
       <c r="G117" s="46"/>
       <c r="H117" s="46"/>
       <c r="I117" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J117" s="49"/>
       <c r="K117" s="35"/>
     </row>
     <row r="118" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="42"/>
       <c r="B118" s="43"/>
       <c r="C118" s="44" t="s">
         <v>16</v>
@@ -4437,14 +5132,13 @@
       <c r="G118" s="46"/>
       <c r="H118" s="46"/>
       <c r="I118" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J118" s="49"/>
       <c r="K118" s="35"/>
     </row>
     <row r="119" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="42"/>
       <c r="B119" s="43"/>
       <c r="C119" s="44" t="s">
         <v>16</v>
@@ -4455,14 +5149,13 @@
       <c r="G119" s="46"/>
       <c r="H119" s="46"/>
       <c r="I119" s="46">
-        <f t="shared" ref="I119:I126" si="17">H119-G119</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J119" s="49"/>
       <c r="K119" s="35"/>
     </row>
     <row r="120" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="42"/>
       <c r="B120" s="43"/>
       <c r="C120" s="44" t="s">
         <v>16</v>
@@ -4473,7 +5166,7 @@
       <c r="G120" s="46"/>
       <c r="H120" s="46"/>
       <c r="I120" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J120" s="49"/>
@@ -4491,7 +5184,7 @@
       <c r="G121" s="46"/>
       <c r="H121" s="46"/>
       <c r="I121" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J121" s="49"/>
@@ -4509,14 +5202,13 @@
       <c r="G122" s="46"/>
       <c r="H122" s="46"/>
       <c r="I122" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J122" s="49"/>
       <c r="K122" s="35"/>
     </row>
     <row r="123" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="42"/>
       <c r="B123" s="43"/>
       <c r="C123" s="44" t="s">
         <v>16</v>
@@ -4527,14 +5219,13 @@
       <c r="G123" s="46"/>
       <c r="H123" s="46"/>
       <c r="I123" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J123" s="49"/>
       <c r="K123" s="35"/>
     </row>
     <row r="124" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A124" s="42"/>
       <c r="B124" s="43"/>
       <c r="C124" s="44" t="s">
         <v>16</v>
@@ -4545,14 +5236,13 @@
       <c r="G124" s="46"/>
       <c r="H124" s="46"/>
       <c r="I124" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J124" s="49"/>
       <c r="K124" s="35"/>
     </row>
     <row r="125" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="42"/>
       <c r="B125" s="43"/>
       <c r="C125" s="44" t="s">
         <v>16</v>
@@ -4563,7 +5253,7 @@
       <c r="G125" s="46"/>
       <c r="H125" s="46"/>
       <c r="I125" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J125" s="49"/>
@@ -4581,7 +5271,7 @@
       <c r="G126" s="46"/>
       <c r="H126" s="46"/>
       <c r="I126" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J126" s="49"/>
@@ -4599,7 +5289,7 @@
       <c r="G127" s="46"/>
       <c r="H127" s="46"/>
       <c r="I127" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J127" s="49"/>
@@ -4617,102 +5307,102 @@
       <c r="G128" s="46"/>
       <c r="H128" s="46"/>
       <c r="I128" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J128" s="49"/>
       <c r="K128" s="35"/>
     </row>
-    <row r="129" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15" t="s">
+    <row r="129" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A129" s="42"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="43"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="46"/>
+      <c r="H129" s="46"/>
+      <c r="I129" s="46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="49"/>
+      <c r="K129" s="35"/>
+    </row>
+    <row r="130" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A130" s="13"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="15"/>
-      <c r="G129" s="18">
-        <f t="shared" ref="G129:H129" si="18">SUM(G111:G128)</f>
-        <v>0</v>
-      </c>
-      <c r="H129" s="18">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I129" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="19"/>
-      <c r="K129" s="36"/>
-    </row>
-    <row r="130" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B130" s="54"/>
-      <c r="C130" s="54"/>
-      <c r="D130" s="54"/>
-      <c r="E130" s="54"/>
-      <c r="F130" s="54"/>
-      <c r="G130" s="54"/>
-      <c r="H130" s="54"/>
-      <c r="I130" s="54"/>
-      <c r="J130" s="54"/>
-      <c r="K130" s="55"/>
-    </row>
-    <row r="131" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A131" s="27" t="s">
+      <c r="F130" s="15"/>
+      <c r="G130" s="18">
+        <f t="shared" ref="G130:H130" si="20">SUM(G92:G129)</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I130" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="19"/>
+      <c r="K130" s="36"/>
+    </row>
+    <row r="131" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B131" s="63"/>
+      <c r="C131" s="63"/>
+      <c r="D131" s="63"/>
+      <c r="E131" s="63"/>
+      <c r="F131" s="63"/>
+      <c r="G131" s="63"/>
+      <c r="H131" s="63"/>
+      <c r="I131" s="63"/>
+      <c r="J131" s="63"/>
+      <c r="K131" s="64"/>
+    </row>
+    <row r="132" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A132" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B131" s="72" t="s">
+      <c r="B132" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C131" s="54"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="54"/>
-      <c r="F131" s="54"/>
-      <c r="G131" s="54"/>
-      <c r="H131" s="54"/>
-      <c r="I131" s="54"/>
-      <c r="J131" s="54"/>
-      <c r="K131" s="55"/>
-    </row>
-    <row r="132" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="28" t="s">
+      <c r="C132" s="63"/>
+      <c r="D132" s="63"/>
+      <c r="E132" s="63"/>
+      <c r="F132" s="63"/>
+      <c r="G132" s="63"/>
+      <c r="H132" s="63"/>
+      <c r="I132" s="63"/>
+      <c r="J132" s="63"/>
+      <c r="K132" s="64"/>
+    </row>
+    <row r="133" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B132" s="72" t="s">
+      <c r="B133" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C132" s="54"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="54"/>
-      <c r="I132" s="54"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="55"/>
-    </row>
-    <row r="133" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="42"/>
-      <c r="B133" s="43"/>
-      <c r="C133" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" s="43"/>
-      <c r="E133" s="45"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="46"/>
-      <c r="I133" s="46">
-        <f t="shared" ref="I133:I150" si="19">H133-G133</f>
-        <v>0</v>
-      </c>
-      <c r="J133" s="49"/>
-      <c r="K133" s="35"/>
+      <c r="C133" s="63"/>
+      <c r="D133" s="63"/>
+      <c r="E133" s="63"/>
+      <c r="F133" s="63"/>
+      <c r="G133" s="63"/>
+      <c r="H133" s="63"/>
+      <c r="I133" s="63"/>
+      <c r="J133" s="63"/>
+      <c r="K133" s="64"/>
     </row>
     <row r="134" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="42"/>
@@ -4726,7 +5416,7 @@
       <c r="G134" s="46"/>
       <c r="H134" s="46"/>
       <c r="I134" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="I134:I171" si="21">H134-G134</f>
         <v>0</v>
       </c>
       <c r="J134" s="49"/>
@@ -4744,7 +5434,7 @@
       <c r="G135" s="46"/>
       <c r="H135" s="46"/>
       <c r="I135" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J135" s="49"/>
@@ -4762,7 +5452,7 @@
       <c r="G136" s="46"/>
       <c r="H136" s="46"/>
       <c r="I136" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J136" s="49"/>
@@ -4780,7 +5470,7 @@
       <c r="G137" s="46"/>
       <c r="H137" s="46"/>
       <c r="I137" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J137" s="49"/>
@@ -4798,7 +5488,7 @@
       <c r="G138" s="46"/>
       <c r="H138" s="46"/>
       <c r="I138" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J138" s="49"/>
@@ -4816,7 +5506,7 @@
       <c r="G139" s="46"/>
       <c r="H139" s="46"/>
       <c r="I139" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J139" s="49"/>
@@ -4834,14 +5524,13 @@
       <c r="G140" s="46"/>
       <c r="H140" s="46"/>
       <c r="I140" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J140" s="49"/>
       <c r="K140" s="35"/>
     </row>
     <row r="141" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="42"/>
       <c r="B141" s="43"/>
       <c r="C141" s="44" t="s">
         <v>16</v>
@@ -4852,14 +5541,13 @@
       <c r="G141" s="46"/>
       <c r="H141" s="46"/>
       <c r="I141" s="46">
-        <f t="shared" ref="I141:I147" si="20">H141-G141</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J141" s="49"/>
       <c r="K141" s="35"/>
     </row>
     <row r="142" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="42"/>
       <c r="B142" s="43"/>
       <c r="C142" s="44" t="s">
         <v>16</v>
@@ -4870,7 +5558,7 @@
       <c r="G142" s="46"/>
       <c r="H142" s="46"/>
       <c r="I142" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J142" s="49"/>
@@ -4888,7 +5576,7 @@
       <c r="G143" s="46"/>
       <c r="H143" s="46"/>
       <c r="I143" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J143" s="49"/>
@@ -4906,7 +5594,7 @@
       <c r="G144" s="46"/>
       <c r="H144" s="46"/>
       <c r="I144" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J144" s="49"/>
@@ -4924,14 +5612,13 @@
       <c r="G145" s="46"/>
       <c r="H145" s="46"/>
       <c r="I145" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J145" s="49"/>
       <c r="K145" s="35"/>
     </row>
     <row r="146" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="42"/>
       <c r="B146" s="43"/>
       <c r="C146" s="44" t="s">
         <v>16</v>
@@ -4942,14 +5629,13 @@
       <c r="G146" s="46"/>
       <c r="H146" s="46"/>
       <c r="I146" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J146" s="49"/>
       <c r="K146" s="35"/>
     </row>
     <row r="147" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A147" s="42"/>
       <c r="B147" s="43"/>
       <c r="C147" s="44" t="s">
         <v>16</v>
@@ -4960,14 +5646,13 @@
       <c r="G147" s="46"/>
       <c r="H147" s="46"/>
       <c r="I147" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J147" s="49"/>
       <c r="K147" s="35"/>
     </row>
     <row r="148" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A148" s="42"/>
       <c r="B148" s="43"/>
       <c r="C148" s="44" t="s">
         <v>16</v>
@@ -4978,14 +5663,13 @@
       <c r="G148" s="46"/>
       <c r="H148" s="46"/>
       <c r="I148" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J148" s="49"/>
       <c r="K148" s="35"/>
     </row>
     <row r="149" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A149" s="42"/>
       <c r="B149" s="43"/>
       <c r="C149" s="44" t="s">
         <v>16</v>
@@ -4996,87 +5680,83 @@
       <c r="G149" s="46"/>
       <c r="H149" s="46"/>
       <c r="I149" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J149" s="49"/>
       <c r="K149" s="35"/>
     </row>
-    <row r="150" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="13"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F150" s="15"/>
-      <c r="G150" s="18">
-        <f t="shared" ref="G150:H150" si="21">SUM(G133:G149)</f>
-        <v>0</v>
-      </c>
-      <c r="H150" s="18">
+    <row r="150" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B150" s="43"/>
+      <c r="C150" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="43"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="46"/>
+      <c r="H150" s="46"/>
+      <c r="I150" s="46">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I150" s="18">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J150" s="19"/>
-      <c r="K150" s="36"/>
-    </row>
-    <row r="151" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B151" s="61"/>
-      <c r="C151" s="61"/>
-      <c r="D151" s="61"/>
-      <c r="E151" s="61"/>
-      <c r="F151" s="61"/>
-      <c r="G151" s="61"/>
-      <c r="H151" s="61"/>
-      <c r="I151" s="61"/>
-      <c r="J151" s="61"/>
-      <c r="K151" s="62"/>
-    </row>
-    <row r="152" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B152" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C152" s="61"/>
-      <c r="D152" s="61"/>
-      <c r="E152" s="61"/>
-      <c r="F152" s="61"/>
-      <c r="G152" s="61"/>
-      <c r="H152" s="61"/>
-      <c r="I152" s="61"/>
-      <c r="J152" s="61"/>
-      <c r="K152" s="62"/>
-    </row>
-    <row r="153" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C153" s="61"/>
-      <c r="D153" s="61"/>
-      <c r="E153" s="61"/>
-      <c r="F153" s="61"/>
-      <c r="G153" s="61"/>
-      <c r="H153" s="61"/>
-      <c r="I153" s="61"/>
-      <c r="J153" s="61"/>
-      <c r="K153" s="62"/>
+      <c r="J150" s="49"/>
+      <c r="K150" s="35"/>
+    </row>
+    <row r="151" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A151" s="42"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="43"/>
+      <c r="E151" s="45"/>
+      <c r="F151" s="45"/>
+      <c r="G151" s="46"/>
+      <c r="H151" s="46"/>
+      <c r="I151" s="46">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J151" s="49"/>
+      <c r="K151" s="35"/>
+    </row>
+    <row r="152" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="42"/>
+      <c r="B152" s="43"/>
+      <c r="C152" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="43"/>
+      <c r="E152" s="45"/>
+      <c r="F152" s="45"/>
+      <c r="G152" s="46"/>
+      <c r="H152" s="46"/>
+      <c r="I152" s="46">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="49"/>
+      <c r="K152" s="35"/>
+    </row>
+    <row r="153" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B153" s="43"/>
+      <c r="C153" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="43"/>
+      <c r="E153" s="45"/>
+      <c r="F153" s="45"/>
+      <c r="G153" s="46"/>
+      <c r="H153" s="46"/>
+      <c r="I153" s="46">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="49"/>
+      <c r="K153" s="35"/>
     </row>
     <row r="154" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="42"/>
       <c r="B154" s="43"/>
       <c r="C154" s="44" t="s">
         <v>16</v>
@@ -5087,14 +5767,13 @@
       <c r="G154" s="46"/>
       <c r="H154" s="46"/>
       <c r="I154" s="46">
-        <f t="shared" ref="I154:I172" si="22">H154-G154</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J154" s="49"/>
       <c r="K154" s="35"/>
     </row>
     <row r="155" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="42"/>
       <c r="B155" s="43"/>
       <c r="C155" s="44" t="s">
         <v>16</v>
@@ -5105,7 +5784,7 @@
       <c r="G155" s="46"/>
       <c r="H155" s="46"/>
       <c r="I155" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J155" s="49"/>
@@ -5123,7 +5802,7 @@
       <c r="G156" s="46"/>
       <c r="H156" s="46"/>
       <c r="I156" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J156" s="49"/>
@@ -5141,7 +5820,7 @@
       <c r="G157" s="46"/>
       <c r="H157" s="46"/>
       <c r="I157" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J157" s="49"/>
@@ -5159,7 +5838,7 @@
       <c r="G158" s="46"/>
       <c r="H158" s="46"/>
       <c r="I158" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J158" s="49"/>
@@ -5177,7 +5856,7 @@
       <c r="G159" s="46"/>
       <c r="H159" s="46"/>
       <c r="I159" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J159" s="49"/>
@@ -5195,7 +5874,7 @@
       <c r="G160" s="46"/>
       <c r="H160" s="46"/>
       <c r="I160" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J160" s="49"/>
@@ -5213,7 +5892,7 @@
       <c r="G161" s="46"/>
       <c r="H161" s="46"/>
       <c r="I161" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J161" s="49"/>
@@ -5231,7 +5910,7 @@
       <c r="G162" s="46"/>
       <c r="H162" s="46"/>
       <c r="I162" s="46">
-        <f t="shared" ref="I162:I169" si="23">H162-G162</f>
+        <f t="shared" ref="I162:I168" si="22">H162-G162</f>
         <v>0</v>
       </c>
       <c r="J162" s="49"/>
@@ -5249,7 +5928,7 @@
       <c r="G163" s="46"/>
       <c r="H163" s="46"/>
       <c r="I163" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J163" s="49"/>
@@ -5267,7 +5946,7 @@
       <c r="G164" s="46"/>
       <c r="H164" s="46"/>
       <c r="I164" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J164" s="49"/>
@@ -5285,7 +5964,7 @@
       <c r="G165" s="46"/>
       <c r="H165" s="46"/>
       <c r="I165" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J165" s="49"/>
@@ -5303,7 +5982,7 @@
       <c r="G166" s="46"/>
       <c r="H166" s="46"/>
       <c r="I166" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J166" s="49"/>
@@ -5321,7 +6000,7 @@
       <c r="G167" s="46"/>
       <c r="H167" s="46"/>
       <c r="I167" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J167" s="49"/>
@@ -5339,7 +6018,7 @@
       <c r="G168" s="46"/>
       <c r="H168" s="46"/>
       <c r="I168" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J168" s="49"/>
@@ -5357,7 +6036,7 @@
       <c r="G169" s="46"/>
       <c r="H169" s="46"/>
       <c r="I169" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J169" s="49"/>
@@ -5375,60 +6054,1644 @@
       <c r="G170" s="46"/>
       <c r="H170" s="46"/>
       <c r="I170" s="46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J170" s="49"/>
       <c r="K170" s="35"/>
     </row>
-    <row r="171" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A171" s="42"/>
-      <c r="B171" s="43"/>
-      <c r="C171" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D171" s="43"/>
-      <c r="E171" s="45"/>
-      <c r="F171" s="45"/>
-      <c r="G171" s="46"/>
-      <c r="H171" s="46"/>
-      <c r="I171" s="46">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J171" s="49"/>
-      <c r="K171" s="35"/>
-    </row>
-    <row r="172" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="37"/>
-      <c r="B172" s="38"/>
-      <c r="C172" s="38"/>
-      <c r="D172" s="38"/>
-      <c r="E172" s="38" t="s">
+    <row r="171" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A171" s="13"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F172" s="38"/>
-      <c r="G172" s="39">
-        <f t="shared" ref="G172:H172" si="24">SUM(G154:G171)</f>
-        <v>0</v>
-      </c>
-      <c r="H172" s="39">
+      <c r="F171" s="15"/>
+      <c r="G171" s="18">
+        <f t="shared" ref="G171:H171" si="23">SUM(G134:G170)</f>
+        <v>0</v>
+      </c>
+      <c r="H171" s="18">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I171" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J171" s="19"/>
+      <c r="K171" s="36"/>
+    </row>
+    <row r="172" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B172" s="56"/>
+      <c r="C172" s="56"/>
+      <c r="D172" s="56"/>
+      <c r="E172" s="56"/>
+      <c r="F172" s="56"/>
+      <c r="G172" s="56"/>
+      <c r="H172" s="56"/>
+      <c r="I172" s="56"/>
+      <c r="J172" s="56"/>
+      <c r="K172" s="57"/>
+    </row>
+    <row r="173" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A173" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="56"/>
+      <c r="D173" s="56"/>
+      <c r="E173" s="56"/>
+      <c r="F173" s="56"/>
+      <c r="G173" s="56"/>
+      <c r="H173" s="56"/>
+      <c r="I173" s="56"/>
+      <c r="J173" s="56"/>
+      <c r="K173" s="57"/>
+    </row>
+    <row r="174" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" s="56"/>
+      <c r="D174" s="56"/>
+      <c r="E174" s="56"/>
+      <c r="F174" s="56"/>
+      <c r="G174" s="56"/>
+      <c r="H174" s="56"/>
+      <c r="I174" s="56"/>
+      <c r="J174" s="56"/>
+      <c r="K174" s="57"/>
+    </row>
+    <row r="175" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A175" s="42"/>
+      <c r="B175" s="43"/>
+      <c r="C175" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="43"/>
+      <c r="E175" s="45"/>
+      <c r="F175" s="45"/>
+      <c r="G175" s="46"/>
+      <c r="H175" s="46"/>
+      <c r="I175" s="46">
+        <f t="shared" ref="I175:I216" si="24">H175-G175</f>
+        <v>0</v>
+      </c>
+      <c r="J175" s="49"/>
+      <c r="K175" s="35"/>
+    </row>
+    <row r="176" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A176" s="42"/>
+      <c r="B176" s="43"/>
+      <c r="C176" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="43"/>
+      <c r="E176" s="45"/>
+      <c r="F176" s="45"/>
+      <c r="G176" s="46"/>
+      <c r="H176" s="46"/>
+      <c r="I176" s="46">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I172" s="39">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J172" s="40"/>
-      <c r="K172" s="41"/>
+      <c r="J176" s="49"/>
+      <c r="K176" s="35"/>
+    </row>
+    <row r="177" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A177" s="42"/>
+      <c r="B177" s="43"/>
+      <c r="C177" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="43"/>
+      <c r="E177" s="45"/>
+      <c r="F177" s="45"/>
+      <c r="G177" s="46"/>
+      <c r="H177" s="46"/>
+      <c r="I177" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J177" s="49"/>
+      <c r="K177" s="35"/>
+    </row>
+    <row r="178" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A178" s="42"/>
+      <c r="B178" s="43"/>
+      <c r="C178" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="43"/>
+      <c r="E178" s="45"/>
+      <c r="F178" s="45"/>
+      <c r="G178" s="46"/>
+      <c r="H178" s="46"/>
+      <c r="I178" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J178" s="49"/>
+      <c r="K178" s="35"/>
+    </row>
+    <row r="179" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A179" s="42"/>
+      <c r="B179" s="43"/>
+      <c r="C179" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="43"/>
+      <c r="E179" s="45"/>
+      <c r="F179" s="45"/>
+      <c r="G179" s="46"/>
+      <c r="H179" s="46"/>
+      <c r="I179" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J179" s="49"/>
+      <c r="K179" s="35"/>
+    </row>
+    <row r="180" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A180" s="42"/>
+      <c r="B180" s="43"/>
+      <c r="C180" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="43"/>
+      <c r="E180" s="45"/>
+      <c r="F180" s="45"/>
+      <c r="G180" s="46"/>
+      <c r="H180" s="46"/>
+      <c r="I180" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J180" s="49"/>
+      <c r="K180" s="35"/>
+    </row>
+    <row r="181" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A181" s="42"/>
+      <c r="B181" s="43"/>
+      <c r="C181" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="43"/>
+      <c r="E181" s="45"/>
+      <c r="F181" s="45"/>
+      <c r="G181" s="46"/>
+      <c r="H181" s="46"/>
+      <c r="I181" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J181" s="49"/>
+      <c r="K181" s="35"/>
+    </row>
+    <row r="182" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A182" s="42"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" s="43"/>
+      <c r="E182" s="45"/>
+      <c r="F182" s="45"/>
+      <c r="G182" s="46"/>
+      <c r="H182" s="46"/>
+      <c r="I182" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J182" s="49"/>
+      <c r="K182" s="35"/>
+    </row>
+    <row r="183" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A183" s="42"/>
+      <c r="B183" s="43"/>
+      <c r="C183" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="43"/>
+      <c r="E183" s="45"/>
+      <c r="F183" s="45"/>
+      <c r="G183" s="46"/>
+      <c r="H183" s="46"/>
+      <c r="I183" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J183" s="49"/>
+      <c r="K183" s="35"/>
+    </row>
+    <row r="184" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B184" s="43"/>
+      <c r="C184" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="43"/>
+      <c r="E184" s="45"/>
+      <c r="F184" s="45"/>
+      <c r="G184" s="46"/>
+      <c r="H184" s="46"/>
+      <c r="I184" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J184" s="49"/>
+      <c r="K184" s="35"/>
+    </row>
+    <row r="185" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B185" s="43"/>
+      <c r="C185" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="43"/>
+      <c r="E185" s="45"/>
+      <c r="F185" s="45"/>
+      <c r="G185" s="46"/>
+      <c r="H185" s="46"/>
+      <c r="I185" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J185" s="49"/>
+      <c r="K185" s="35"/>
+    </row>
+    <row r="186" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A186" s="42"/>
+      <c r="B186" s="43"/>
+      <c r="C186" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="43"/>
+      <c r="E186" s="45"/>
+      <c r="F186" s="45"/>
+      <c r="G186" s="46"/>
+      <c r="H186" s="46"/>
+      <c r="I186" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J186" s="49"/>
+      <c r="K186" s="35"/>
+    </row>
+    <row r="187" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A187" s="42"/>
+      <c r="B187" s="43"/>
+      <c r="C187" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="43"/>
+      <c r="E187" s="45"/>
+      <c r="F187" s="45"/>
+      <c r="G187" s="46"/>
+      <c r="H187" s="46"/>
+      <c r="I187" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J187" s="49"/>
+      <c r="K187" s="35"/>
+    </row>
+    <row r="188" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A188" s="42"/>
+      <c r="B188" s="43"/>
+      <c r="C188" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" s="43"/>
+      <c r="E188" s="45"/>
+      <c r="F188" s="45"/>
+      <c r="G188" s="46"/>
+      <c r="H188" s="46"/>
+      <c r="I188" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J188" s="49"/>
+      <c r="K188" s="35"/>
+    </row>
+    <row r="189" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B189" s="43"/>
+      <c r="C189" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="43"/>
+      <c r="E189" s="45"/>
+      <c r="F189" s="45"/>
+      <c r="G189" s="46"/>
+      <c r="H189" s="46"/>
+      <c r="I189" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J189" s="49"/>
+      <c r="K189" s="35"/>
+    </row>
+    <row r="190" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B190" s="43"/>
+      <c r="C190" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" s="43"/>
+      <c r="E190" s="45"/>
+      <c r="F190" s="45"/>
+      <c r="G190" s="46"/>
+      <c r="H190" s="46"/>
+      <c r="I190" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J190" s="49"/>
+      <c r="K190" s="35"/>
+    </row>
+    <row r="191" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B191" s="43"/>
+      <c r="C191" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" s="43"/>
+      <c r="E191" s="45"/>
+      <c r="F191" s="45"/>
+      <c r="G191" s="46"/>
+      <c r="H191" s="46"/>
+      <c r="I191" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J191" s="49"/>
+      <c r="K191" s="35"/>
+    </row>
+    <row r="192" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B192" s="43"/>
+      <c r="C192" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" s="43"/>
+      <c r="E192" s="45"/>
+      <c r="F192" s="45"/>
+      <c r="G192" s="46"/>
+      <c r="H192" s="46"/>
+      <c r="I192" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J192" s="49"/>
+      <c r="K192" s="35"/>
+    </row>
+    <row r="193" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B193" s="43"/>
+      <c r="C193" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="43"/>
+      <c r="E193" s="45"/>
+      <c r="F193" s="45"/>
+      <c r="G193" s="46"/>
+      <c r="H193" s="46"/>
+      <c r="I193" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J193" s="49"/>
+      <c r="K193" s="35"/>
+    </row>
+    <row r="194" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A194" s="42"/>
+      <c r="B194" s="43"/>
+      <c r="C194" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" s="43"/>
+      <c r="E194" s="45"/>
+      <c r="F194" s="45"/>
+      <c r="G194" s="46"/>
+      <c r="H194" s="46"/>
+      <c r="I194" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J194" s="49"/>
+      <c r="K194" s="35"/>
+    </row>
+    <row r="195" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A195" s="42"/>
+      <c r="B195" s="43"/>
+      <c r="C195" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" s="43"/>
+      <c r="E195" s="45"/>
+      <c r="F195" s="45"/>
+      <c r="G195" s="46"/>
+      <c r="H195" s="46"/>
+      <c r="I195" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J195" s="49"/>
+      <c r="K195" s="35"/>
+    </row>
+    <row r="196" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B196" s="43"/>
+      <c r="C196" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" s="43"/>
+      <c r="E196" s="45"/>
+      <c r="F196" s="45"/>
+      <c r="G196" s="46"/>
+      <c r="H196" s="46"/>
+      <c r="I196" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J196" s="49"/>
+      <c r="K196" s="35"/>
+    </row>
+    <row r="197" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B197" s="43"/>
+      <c r="C197" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="43"/>
+      <c r="E197" s="45"/>
+      <c r="F197" s="45"/>
+      <c r="G197" s="46"/>
+      <c r="H197" s="46"/>
+      <c r="I197" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J197" s="49"/>
+      <c r="K197" s="35"/>
+    </row>
+    <row r="198" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B198" s="43"/>
+      <c r="C198" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" s="43"/>
+      <c r="E198" s="45"/>
+      <c r="F198" s="45"/>
+      <c r="G198" s="46"/>
+      <c r="H198" s="46"/>
+      <c r="I198" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J198" s="49"/>
+      <c r="K198" s="35"/>
+    </row>
+    <row r="199" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A199" s="42"/>
+      <c r="B199" s="43"/>
+      <c r="C199" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" s="43"/>
+      <c r="E199" s="45"/>
+      <c r="F199" s="45"/>
+      <c r="G199" s="46"/>
+      <c r="H199" s="46"/>
+      <c r="I199" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J199" s="49"/>
+      <c r="K199" s="35"/>
+    </row>
+    <row r="200" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A200" s="42"/>
+      <c r="B200" s="43"/>
+      <c r="C200" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" s="43"/>
+      <c r="E200" s="45"/>
+      <c r="F200" s="45"/>
+      <c r="G200" s="46"/>
+      <c r="H200" s="46"/>
+      <c r="I200" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J200" s="49"/>
+      <c r="K200" s="35"/>
+    </row>
+    <row r="201" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A201" s="42"/>
+      <c r="B201" s="43"/>
+      <c r="C201" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="43"/>
+      <c r="E201" s="45"/>
+      <c r="F201" s="45"/>
+      <c r="G201" s="46"/>
+      <c r="H201" s="46"/>
+      <c r="I201" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J201" s="49"/>
+      <c r="K201" s="35"/>
+    </row>
+    <row r="202" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A202" s="42"/>
+      <c r="B202" s="43"/>
+      <c r="C202" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" s="43"/>
+      <c r="E202" s="45"/>
+      <c r="F202" s="45"/>
+      <c r="G202" s="46"/>
+      <c r="H202" s="46"/>
+      <c r="I202" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J202" s="49"/>
+      <c r="K202" s="35"/>
+    </row>
+    <row r="203" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A203" s="42"/>
+      <c r="B203" s="43"/>
+      <c r="C203" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" s="43"/>
+      <c r="E203" s="45"/>
+      <c r="F203" s="45"/>
+      <c r="G203" s="46"/>
+      <c r="H203" s="46"/>
+      <c r="I203" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J203" s="49"/>
+      <c r="K203" s="35"/>
+    </row>
+    <row r="204" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A204" s="42"/>
+      <c r="B204" s="43"/>
+      <c r="C204" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" s="43"/>
+      <c r="E204" s="45"/>
+      <c r="F204" s="45"/>
+      <c r="G204" s="46"/>
+      <c r="H204" s="46"/>
+      <c r="I204" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J204" s="49"/>
+      <c r="K204" s="35"/>
+    </row>
+    <row r="205" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A205" s="42"/>
+      <c r="B205" s="43"/>
+      <c r="C205" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" s="43"/>
+      <c r="E205" s="45"/>
+      <c r="F205" s="45"/>
+      <c r="G205" s="46"/>
+      <c r="H205" s="46"/>
+      <c r="I205" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J205" s="49"/>
+      <c r="K205" s="35"/>
+    </row>
+    <row r="206" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A206" s="42"/>
+      <c r="B206" s="43"/>
+      <c r="C206" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" s="43"/>
+      <c r="E206" s="45"/>
+      <c r="F206" s="45"/>
+      <c r="G206" s="46"/>
+      <c r="H206" s="46"/>
+      <c r="I206" s="46">
+        <f t="shared" ref="I206:I213" si="25">H206-G206</f>
+        <v>0</v>
+      </c>
+      <c r="J206" s="49"/>
+      <c r="K206" s="35"/>
+    </row>
+    <row r="207" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A207" s="42"/>
+      <c r="B207" s="43"/>
+      <c r="C207" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" s="43"/>
+      <c r="E207" s="45"/>
+      <c r="F207" s="45"/>
+      <c r="G207" s="46"/>
+      <c r="H207" s="46"/>
+      <c r="I207" s="46">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J207" s="49"/>
+      <c r="K207" s="35"/>
+    </row>
+    <row r="208" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A208" s="42"/>
+      <c r="B208" s="43"/>
+      <c r="C208" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" s="43"/>
+      <c r="E208" s="45"/>
+      <c r="F208" s="45"/>
+      <c r="G208" s="46"/>
+      <c r="H208" s="46"/>
+      <c r="I208" s="46">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J208" s="49"/>
+      <c r="K208" s="35"/>
+    </row>
+    <row r="209" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A209" s="42"/>
+      <c r="B209" s="43"/>
+      <c r="C209" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" s="43"/>
+      <c r="E209" s="45"/>
+      <c r="F209" s="45"/>
+      <c r="G209" s="46"/>
+      <c r="H209" s="46"/>
+      <c r="I209" s="46">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J209" s="49"/>
+      <c r="K209" s="35"/>
+    </row>
+    <row r="210" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A210" s="42"/>
+      <c r="B210" s="43"/>
+      <c r="C210" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" s="43"/>
+      <c r="E210" s="45"/>
+      <c r="F210" s="45"/>
+      <c r="G210" s="46"/>
+      <c r="H210" s="46"/>
+      <c r="I210" s="46">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J210" s="49"/>
+      <c r="K210" s="35"/>
+    </row>
+    <row r="211" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A211" s="42"/>
+      <c r="B211" s="43"/>
+      <c r="C211" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" s="43"/>
+      <c r="E211" s="45"/>
+      <c r="F211" s="45"/>
+      <c r="G211" s="46"/>
+      <c r="H211" s="46"/>
+      <c r="I211" s="46">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J211" s="49"/>
+      <c r="K211" s="35"/>
+    </row>
+    <row r="212" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A212" s="42"/>
+      <c r="B212" s="43"/>
+      <c r="C212" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" s="43"/>
+      <c r="E212" s="45"/>
+      <c r="F212" s="45"/>
+      <c r="G212" s="46"/>
+      <c r="H212" s="46"/>
+      <c r="I212" s="46">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J212" s="49"/>
+      <c r="K212" s="35"/>
+    </row>
+    <row r="213" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A213" s="42"/>
+      <c r="B213" s="43"/>
+      <c r="C213" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" s="43"/>
+      <c r="E213" s="45"/>
+      <c r="F213" s="45"/>
+      <c r="G213" s="46"/>
+      <c r="H213" s="46"/>
+      <c r="I213" s="46">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J213" s="49"/>
+      <c r="K213" s="35"/>
+    </row>
+    <row r="214" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A214" s="42"/>
+      <c r="B214" s="43"/>
+      <c r="C214" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D214" s="43"/>
+      <c r="E214" s="45"/>
+      <c r="F214" s="45"/>
+      <c r="G214" s="46"/>
+      <c r="H214" s="46"/>
+      <c r="I214" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J214" s="49"/>
+      <c r="K214" s="35"/>
+    </row>
+    <row r="215" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A215" s="42"/>
+      <c r="B215" s="43"/>
+      <c r="C215" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215" s="43"/>
+      <c r="E215" s="45"/>
+      <c r="F215" s="45"/>
+      <c r="G215" s="46"/>
+      <c r="H215" s="46"/>
+      <c r="I215" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J215" s="49"/>
+      <c r="K215" s="35"/>
+    </row>
+    <row r="216" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A216" s="37"/>
+      <c r="B216" s="38"/>
+      <c r="C216" s="38"/>
+      <c r="D216" s="38"/>
+      <c r="E216" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F216" s="38"/>
+      <c r="G216" s="39">
+        <f>SUM(G175:G215)</f>
+        <v>0</v>
+      </c>
+      <c r="H216" s="39">
+        <f>SUM(H175:H215)</f>
+        <v>0</v>
+      </c>
+      <c r="I216" s="39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J216" s="40"/>
+      <c r="K216" s="41"/>
+    </row>
+    <row r="217" spans="1:11" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B217" s="79"/>
+      <c r="C217" s="79"/>
+      <c r="D217" s="79"/>
+      <c r="E217" s="79"/>
+      <c r="F217" s="79"/>
+      <c r="G217" s="79"/>
+      <c r="H217" s="79"/>
+      <c r="I217" s="79"/>
+      <c r="J217" s="79"/>
+      <c r="K217" s="80"/>
+    </row>
+    <row r="218" spans="1:11" s="81" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A218" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" s="79"/>
+      <c r="D218" s="79"/>
+      <c r="E218" s="79"/>
+      <c r="F218" s="79"/>
+      <c r="G218" s="79"/>
+      <c r="H218" s="79"/>
+      <c r="I218" s="79"/>
+      <c r="J218" s="79"/>
+      <c r="K218" s="80"/>
+    </row>
+    <row r="219" spans="1:11" s="81" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219" s="79"/>
+      <c r="D219" s="79"/>
+      <c r="E219" s="79"/>
+      <c r="F219" s="79"/>
+      <c r="G219" s="79"/>
+      <c r="H219" s="79"/>
+      <c r="I219" s="79"/>
+      <c r="J219" s="79"/>
+      <c r="K219" s="80"/>
+    </row>
+    <row r="220" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A220" s="42"/>
+      <c r="B220" s="43"/>
+      <c r="C220" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D220" s="43"/>
+      <c r="E220" s="45"/>
+      <c r="F220" s="45"/>
+      <c r="G220" s="46"/>
+      <c r="H220" s="46"/>
+      <c r="I220" s="46">
+        <f t="shared" ref="I220:I261" si="26">H220-G220</f>
+        <v>0</v>
+      </c>
+      <c r="J220" s="49"/>
+      <c r="K220" s="35"/>
+    </row>
+    <row r="221" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A221" s="42"/>
+      <c r="B221" s="43"/>
+      <c r="C221" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D221" s="43"/>
+      <c r="E221" s="45"/>
+      <c r="F221" s="45"/>
+      <c r="G221" s="46"/>
+      <c r="H221" s="46"/>
+      <c r="I221" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J221" s="49"/>
+      <c r="K221" s="35"/>
+    </row>
+    <row r="222" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A222" s="42"/>
+      <c r="B222" s="43"/>
+      <c r="C222" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D222" s="43"/>
+      <c r="E222" s="45"/>
+      <c r="F222" s="45"/>
+      <c r="G222" s="46"/>
+      <c r="H222" s="46"/>
+      <c r="I222" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J222" s="49"/>
+      <c r="K222" s="35"/>
+    </row>
+    <row r="223" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A223" s="42"/>
+      <c r="B223" s="43"/>
+      <c r="C223" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D223" s="43"/>
+      <c r="E223" s="45"/>
+      <c r="F223" s="45"/>
+      <c r="G223" s="46"/>
+      <c r="H223" s="46"/>
+      <c r="I223" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J223" s="49"/>
+      <c r="K223" s="35"/>
+    </row>
+    <row r="224" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A224" s="42"/>
+      <c r="B224" s="43"/>
+      <c r="C224" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D224" s="43"/>
+      <c r="E224" s="45"/>
+      <c r="F224" s="45"/>
+      <c r="G224" s="46"/>
+      <c r="H224" s="46"/>
+      <c r="I224" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J224" s="49"/>
+      <c r="K224" s="35"/>
+    </row>
+    <row r="225" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A225" s="42"/>
+      <c r="B225" s="43"/>
+      <c r="C225" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D225" s="43"/>
+      <c r="E225" s="45"/>
+      <c r="F225" s="45"/>
+      <c r="G225" s="46"/>
+      <c r="H225" s="46"/>
+      <c r="I225" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J225" s="49"/>
+      <c r="K225" s="35"/>
+    </row>
+    <row r="226" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A226" s="42"/>
+      <c r="B226" s="43"/>
+      <c r="C226" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D226" s="43"/>
+      <c r="E226" s="45"/>
+      <c r="F226" s="45"/>
+      <c r="G226" s="46"/>
+      <c r="H226" s="46"/>
+      <c r="I226" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J226" s="49"/>
+      <c r="K226" s="35"/>
+    </row>
+    <row r="227" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B227" s="43"/>
+      <c r="C227" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D227" s="43"/>
+      <c r="E227" s="45"/>
+      <c r="F227" s="45"/>
+      <c r="G227" s="46"/>
+      <c r="H227" s="46"/>
+      <c r="I227" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J227" s="49"/>
+      <c r="K227" s="35"/>
+    </row>
+    <row r="228" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B228" s="43"/>
+      <c r="C228" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D228" s="43"/>
+      <c r="E228" s="45"/>
+      <c r="F228" s="45"/>
+      <c r="G228" s="46"/>
+      <c r="H228" s="46"/>
+      <c r="I228" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J228" s="49"/>
+      <c r="K228" s="35"/>
+    </row>
+    <row r="229" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A229" s="42"/>
+      <c r="B229" s="43"/>
+      <c r="C229" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D229" s="43"/>
+      <c r="E229" s="45"/>
+      <c r="F229" s="45"/>
+      <c r="G229" s="46"/>
+      <c r="H229" s="46"/>
+      <c r="I229" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J229" s="49"/>
+      <c r="K229" s="35"/>
+    </row>
+    <row r="230" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A230" s="42"/>
+      <c r="B230" s="43"/>
+      <c r="C230" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D230" s="43"/>
+      <c r="E230" s="45"/>
+      <c r="F230" s="45"/>
+      <c r="G230" s="46"/>
+      <c r="H230" s="46"/>
+      <c r="I230" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J230" s="49"/>
+      <c r="K230" s="35"/>
+    </row>
+    <row r="231" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A231" s="42"/>
+      <c r="B231" s="43"/>
+      <c r="C231" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" s="43"/>
+      <c r="E231" s="45"/>
+      <c r="F231" s="45"/>
+      <c r="G231" s="46"/>
+      <c r="H231" s="46"/>
+      <c r="I231" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J231" s="49"/>
+      <c r="K231" s="35"/>
+    </row>
+    <row r="232" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B232" s="43"/>
+      <c r="C232" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232" s="43"/>
+      <c r="E232" s="45"/>
+      <c r="F232" s="45"/>
+      <c r="G232" s="46"/>
+      <c r="H232" s="46"/>
+      <c r="I232" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J232" s="49"/>
+      <c r="K232" s="35"/>
+    </row>
+    <row r="233" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B233" s="43"/>
+      <c r="C233" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D233" s="43"/>
+      <c r="E233" s="45"/>
+      <c r="F233" s="45"/>
+      <c r="G233" s="46"/>
+      <c r="H233" s="46"/>
+      <c r="I233" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J233" s="49"/>
+      <c r="K233" s="35"/>
+    </row>
+    <row r="234" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B234" s="43"/>
+      <c r="C234" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D234" s="43"/>
+      <c r="E234" s="45"/>
+      <c r="F234" s="45"/>
+      <c r="G234" s="46"/>
+      <c r="H234" s="46"/>
+      <c r="I234" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J234" s="49"/>
+      <c r="K234" s="35"/>
+    </row>
+    <row r="235" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B235" s="43"/>
+      <c r="C235" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" s="43"/>
+      <c r="E235" s="45"/>
+      <c r="F235" s="45"/>
+      <c r="G235" s="46"/>
+      <c r="H235" s="46"/>
+      <c r="I235" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J235" s="49"/>
+      <c r="K235" s="35"/>
+    </row>
+    <row r="236" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B236" s="43"/>
+      <c r="C236" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D236" s="43"/>
+      <c r="E236" s="45"/>
+      <c r="F236" s="45"/>
+      <c r="G236" s="46"/>
+      <c r="H236" s="46"/>
+      <c r="I236" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J236" s="49"/>
+      <c r="K236" s="35"/>
+    </row>
+    <row r="237" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A237" s="42"/>
+      <c r="B237" s="43"/>
+      <c r="C237" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D237" s="43"/>
+      <c r="E237" s="45"/>
+      <c r="F237" s="45"/>
+      <c r="G237" s="46"/>
+      <c r="H237" s="46"/>
+      <c r="I237" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J237" s="49"/>
+      <c r="K237" s="35"/>
+    </row>
+    <row r="238" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A238" s="42"/>
+      <c r="B238" s="43"/>
+      <c r="C238" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D238" s="43"/>
+      <c r="E238" s="45"/>
+      <c r="F238" s="45"/>
+      <c r="G238" s="46"/>
+      <c r="H238" s="46"/>
+      <c r="I238" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J238" s="49"/>
+      <c r="K238" s="35"/>
+    </row>
+    <row r="239" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B239" s="43"/>
+      <c r="C239" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239" s="43"/>
+      <c r="E239" s="45"/>
+      <c r="F239" s="45"/>
+      <c r="G239" s="46"/>
+      <c r="H239" s="46"/>
+      <c r="I239" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J239" s="49"/>
+      <c r="K239" s="35"/>
+    </row>
+    <row r="240" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B240" s="43"/>
+      <c r="C240" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D240" s="43"/>
+      <c r="E240" s="45"/>
+      <c r="F240" s="45"/>
+      <c r="G240" s="46"/>
+      <c r="H240" s="46"/>
+      <c r="I240" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J240" s="49"/>
+      <c r="K240" s="35"/>
+    </row>
+    <row r="241" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B241" s="43"/>
+      <c r="C241" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241" s="43"/>
+      <c r="E241" s="45"/>
+      <c r="F241" s="45"/>
+      <c r="G241" s="46"/>
+      <c r="H241" s="46"/>
+      <c r="I241" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J241" s="49"/>
+      <c r="K241" s="35"/>
+    </row>
+    <row r="242" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A242" s="42"/>
+      <c r="B242" s="43"/>
+      <c r="C242" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D242" s="43"/>
+      <c r="E242" s="45"/>
+      <c r="F242" s="45"/>
+      <c r="G242" s="46"/>
+      <c r="H242" s="46"/>
+      <c r="I242" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J242" s="49"/>
+      <c r="K242" s="35"/>
+    </row>
+    <row r="243" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A243" s="42"/>
+      <c r="B243" s="43"/>
+      <c r="C243" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D243" s="43"/>
+      <c r="E243" s="45"/>
+      <c r="F243" s="45"/>
+      <c r="G243" s="46"/>
+      <c r="H243" s="46"/>
+      <c r="I243" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J243" s="49"/>
+      <c r="K243" s="35"/>
+    </row>
+    <row r="244" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A244" s="42"/>
+      <c r="B244" s="43"/>
+      <c r="C244" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D244" s="43"/>
+      <c r="E244" s="45"/>
+      <c r="F244" s="45"/>
+      <c r="G244" s="46"/>
+      <c r="H244" s="46"/>
+      <c r="I244" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J244" s="49"/>
+      <c r="K244" s="35"/>
+    </row>
+    <row r="245" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A245" s="42"/>
+      <c r="B245" s="43"/>
+      <c r="C245" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D245" s="43"/>
+      <c r="E245" s="45"/>
+      <c r="F245" s="45"/>
+      <c r="G245" s="46"/>
+      <c r="H245" s="46"/>
+      <c r="I245" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J245" s="49"/>
+      <c r="K245" s="35"/>
+    </row>
+    <row r="246" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A246" s="42"/>
+      <c r="B246" s="43"/>
+      <c r="C246" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D246" s="43"/>
+      <c r="E246" s="45"/>
+      <c r="F246" s="45"/>
+      <c r="G246" s="46"/>
+      <c r="H246" s="46"/>
+      <c r="I246" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J246" s="49"/>
+      <c r="K246" s="35"/>
+    </row>
+    <row r="247" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A247" s="42"/>
+      <c r="B247" s="43"/>
+      <c r="C247" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D247" s="43"/>
+      <c r="E247" s="45"/>
+      <c r="F247" s="45"/>
+      <c r="G247" s="46"/>
+      <c r="H247" s="46"/>
+      <c r="I247" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J247" s="49"/>
+      <c r="K247" s="35"/>
+    </row>
+    <row r="248" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A248" s="42"/>
+      <c r="B248" s="43"/>
+      <c r="C248" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D248" s="43"/>
+      <c r="E248" s="45"/>
+      <c r="F248" s="45"/>
+      <c r="G248" s="46"/>
+      <c r="H248" s="46"/>
+      <c r="I248" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J248" s="49"/>
+      <c r="K248" s="35"/>
+    </row>
+    <row r="249" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A249" s="42"/>
+      <c r="B249" s="43"/>
+      <c r="C249" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D249" s="43"/>
+      <c r="E249" s="45"/>
+      <c r="F249" s="45"/>
+      <c r="G249" s="46"/>
+      <c r="H249" s="46"/>
+      <c r="I249" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J249" s="49"/>
+      <c r="K249" s="35"/>
+    </row>
+    <row r="250" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A250" s="42"/>
+      <c r="B250" s="43"/>
+      <c r="C250" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D250" s="43"/>
+      <c r="E250" s="45"/>
+      <c r="F250" s="45"/>
+      <c r="G250" s="46"/>
+      <c r="H250" s="46"/>
+      <c r="I250" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J250" s="49"/>
+      <c r="K250" s="35"/>
+    </row>
+    <row r="251" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A251" s="42"/>
+      <c r="B251" s="43"/>
+      <c r="C251" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D251" s="43"/>
+      <c r="E251" s="45"/>
+      <c r="F251" s="45"/>
+      <c r="G251" s="46"/>
+      <c r="H251" s="46"/>
+      <c r="I251" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J251" s="49"/>
+      <c r="K251" s="35"/>
+    </row>
+    <row r="252" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A252" s="42"/>
+      <c r="B252" s="43"/>
+      <c r="C252" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D252" s="43"/>
+      <c r="E252" s="45"/>
+      <c r="F252" s="45"/>
+      <c r="G252" s="46"/>
+      <c r="H252" s="46"/>
+      <c r="I252" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J252" s="49"/>
+      <c r="K252" s="35"/>
+    </row>
+    <row r="253" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A253" s="42"/>
+      <c r="B253" s="43"/>
+      <c r="C253" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D253" s="43"/>
+      <c r="E253" s="45"/>
+      <c r="F253" s="45"/>
+      <c r="G253" s="46"/>
+      <c r="H253" s="46"/>
+      <c r="I253" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J253" s="49"/>
+      <c r="K253" s="35"/>
+    </row>
+    <row r="254" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A254" s="42"/>
+      <c r="B254" s="43"/>
+      <c r="C254" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D254" s="43"/>
+      <c r="E254" s="45"/>
+      <c r="F254" s="45"/>
+      <c r="G254" s="46"/>
+      <c r="H254" s="46"/>
+      <c r="I254" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J254" s="49"/>
+      <c r="K254" s="35"/>
+    </row>
+    <row r="255" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A255" s="42"/>
+      <c r="B255" s="43"/>
+      <c r="C255" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D255" s="43"/>
+      <c r="E255" s="45"/>
+      <c r="F255" s="45"/>
+      <c r="G255" s="46"/>
+      <c r="H255" s="46"/>
+      <c r="I255" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J255" s="49"/>
+      <c r="K255" s="35"/>
+    </row>
+    <row r="256" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A256" s="42"/>
+      <c r="B256" s="43"/>
+      <c r="C256" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D256" s="43"/>
+      <c r="E256" s="45"/>
+      <c r="F256" s="45"/>
+      <c r="G256" s="46"/>
+      <c r="H256" s="46"/>
+      <c r="I256" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J256" s="49"/>
+      <c r="K256" s="35"/>
+    </row>
+    <row r="257" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A257" s="42"/>
+      <c r="B257" s="43"/>
+      <c r="C257" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D257" s="43"/>
+      <c r="E257" s="45"/>
+      <c r="F257" s="45"/>
+      <c r="G257" s="46"/>
+      <c r="H257" s="46"/>
+      <c r="I257" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J257" s="49"/>
+      <c r="K257" s="35"/>
+    </row>
+    <row r="258" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A258" s="42"/>
+      <c r="B258" s="43"/>
+      <c r="C258" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D258" s="43"/>
+      <c r="E258" s="45"/>
+      <c r="F258" s="45"/>
+      <c r="G258" s="46"/>
+      <c r="H258" s="46"/>
+      <c r="I258" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J258" s="49"/>
+      <c r="K258" s="35"/>
+    </row>
+    <row r="259" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A259" s="42"/>
+      <c r="B259" s="43"/>
+      <c r="C259" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D259" s="43"/>
+      <c r="E259" s="45"/>
+      <c r="F259" s="45"/>
+      <c r="G259" s="46"/>
+      <c r="H259" s="46"/>
+      <c r="I259" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J259" s="49"/>
+      <c r="K259" s="35"/>
+    </row>
+    <row r="260" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A260" s="42"/>
+      <c r="B260" s="43"/>
+      <c r="C260" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D260" s="43"/>
+      <c r="E260" s="45"/>
+      <c r="F260" s="45"/>
+      <c r="G260" s="46"/>
+      <c r="H260" s="46"/>
+      <c r="I260" s="46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J260" s="49"/>
+      <c r="K260" s="35"/>
+    </row>
+    <row r="261" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A261" s="37"/>
+      <c r="B261" s="38"/>
+      <c r="C261" s="38"/>
+      <c r="D261" s="38"/>
+      <c r="E261" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F261" s="38"/>
+      <c r="G261" s="39">
+        <f t="shared" ref="G261:H261" si="27">SUM(G220:G260)</f>
+        <v>0</v>
+      </c>
+      <c r="H261" s="39">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I261" s="39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J261" s="40"/>
+      <c r="K261" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{8BAC9A6B-5D32-4E8D-967D-E17D357516F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:K15" xr:uid="{A60B6F9E-8659-4CAB-9762-E43C8C597133}">
+      <autoFilter ref="A1:K15" xr:uid="{596D22A6-8DFD-4731-B7A9-8CFC2CC5ECFA}">
         <filterColumn colId="1">
           <filters blank="1">
             <filter val="- Weekplan item 1_x000a_- Weekplan item 2_x000a_- Weekplan item 3_x000a_- etc"/>
@@ -5438,10 +7701,18 @@
       </autoFilter>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="21">
-    <mergeCell ref="A151:K151"/>
-    <mergeCell ref="B152:K152"/>
-    <mergeCell ref="B153:K153"/>
+  <mergeCells count="24">
+    <mergeCell ref="A217:K217"/>
+    <mergeCell ref="B218:K218"/>
+    <mergeCell ref="B219:K219"/>
+    <mergeCell ref="A131:K131"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="B68:K68"/>
+    <mergeCell ref="B69:K69"/>
+    <mergeCell ref="A89:K89"/>
+    <mergeCell ref="A172:K172"/>
+    <mergeCell ref="B173:K173"/>
+    <mergeCell ref="B174:K174"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
@@ -5451,94 +7722,182 @@
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="B43:K43"/>
     <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B131:K131"/>
     <mergeCell ref="B132:K132"/>
-    <mergeCell ref="B109:K109"/>
-    <mergeCell ref="B110:K110"/>
-    <mergeCell ref="A130:K130"/>
-    <mergeCell ref="A86:K86"/>
-    <mergeCell ref="B87:K87"/>
-    <mergeCell ref="B88:K88"/>
-    <mergeCell ref="A108:K108"/>
+    <mergeCell ref="B133:K133"/>
+    <mergeCell ref="B90:K90"/>
+    <mergeCell ref="B91:K91"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
-  <conditionalFormatting sqref="B5:B21 B89:B106 B111:B128 B133:B149 B24:B40 B45:B84">
-    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="Unplanned">
+  <conditionalFormatting sqref="B5:B21 B24:B40 B45:B65 B92:B129 B134:B170 B70:B87">
+    <cfRule type="containsText" dxfId="43" priority="35" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="42" priority="36" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH(("Planned"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="In-Progress">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="In-Progress">
       <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH(("Done"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B22 B87:B107 B109:B129 B131:B150 B152:B172 B24:B41 B43:B85">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Unplanned">
+  <conditionalFormatting sqref="B5:B22 B24:B41 B43:B66 B90:B130 B132:B171 B173:B216 B68:B88">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Cancelled">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Cancelled">
       <formula>NOT(ISERROR(SEARCH(("Cancelled"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B154:B171">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Unplanned">
-      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B154))))</formula>
+  <conditionalFormatting sqref="B175:B178 B202:B215">
+    <cfRule type="containsText" dxfId="36" priority="30" operator="containsText" text="Unplanned">
+      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B175))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Planned">
-      <formula>NOT(ISERROR(SEARCH(("Planned"),(B154))))</formula>
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Planned">
+      <formula>NOT(ISERROR(SEARCH(("Planned"),(B175))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="In-Progress">
-      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B154))))</formula>
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="In-Progress">
+      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B175))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B154))))</formula>
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B175))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH(("Done"),(B154))))</formula>
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH(("Done"),(B175))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 G3:G22 G89:G107 G111:G129 G133:G150 G154:G172 G26:G41 G45:G85">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="greaterThan">
+  <conditionalFormatting sqref="G1 G3:G22 G26:G41 G45:G66 G92:G130 G134:G171 G175:G216 G70:G88">
+    <cfRule type="cellIs" dxfId="31" priority="44" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H4 H7:H32 H36:H44 H46:H172">
-    <cfRule type="containsBlanks" dxfId="9" priority="20">
+  <conditionalFormatting sqref="H1:H4 H7:H32 H36:H44 H46:H261">
+    <cfRule type="containsBlanks" dxfId="30" priority="45">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H35">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I22 I89:I107 I111:I129 I133:I150 I154:I172 I26:I41 I45:I85">
-    <cfRule type="expression" dxfId="1" priority="17">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="greaterThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I22 I26:I41 I45:I66 I92:I130 I134:I171 I175:I216 I70:I88">
+    <cfRule type="expression" dxfId="26" priority="42">
       <formula>H5/G5&gt;=1.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="18">
+    <cfRule type="expression" dxfId="25" priority="43">
       <formula>H5/G5&lt;=0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B218:B221 B245:B261">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Unplanned">
+      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B218))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Cancelled">
+      <formula>NOT(ISERROR(SEARCH(("Cancelled"),(B218))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B220:B221 B245:B260">
+    <cfRule type="containsText" dxfId="22" priority="16" operator="containsText" text="Unplanned">
+      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B220))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="Planned">
+      <formula>NOT(ISERROR(SEARCH(("Planned"),(B220))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="In-Progress">
+      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B220))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B220))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH(("Done"),(B220))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G220:G221 G245:G261">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="F133:F149 F154:F171 F5:F21 F89:F106 F111:F128 F26:F40 F45:F84" xr:uid="{0FAB3063-668E-4727-8636-10D0A6594410}">
+  <conditionalFormatting sqref="I220:I221 I245:I261">
+    <cfRule type="expression" dxfId="16" priority="23">
+      <formula>H220/G220&gt;=1.5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="24">
+      <formula>H220/G220&lt;=0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179:B201">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Unplanned">
+      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B179))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Planned">
+      <formula>NOT(ISERROR(SEARCH(("Planned"),(B179))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="In-Progress">
+      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B179))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B179))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH(("Done"),(B179))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B222:B244">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Unplanned">
+      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B222))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Cancelled">
+      <formula>NOT(ISERROR(SEARCH(("Cancelled"),(B222))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G222:G244">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I222:I244">
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>H222/G222&gt;=1.5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>H222/G222&lt;=0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B222:B244">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Unplanned">
+      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B222))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Planned">
+      <formula>NOT(ISERROR(SEARCH(("Planned"),(B222))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In-Progress">
+      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B222))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B222))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH(("Done"),(B222))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" sqref="F92:F129 F134:F170 F5:F21 F45:F65 F220:F260 F26:F40 F175:F215 F70:F87" xr:uid="{0FAB3063-668E-4727-8636-10D0A6594410}">
       <formula1>"ILO 1.6, ILO 2.6, ILO 5.1, ILO 6.4, ILO 8.5, ILO 8.6"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5575,18 +7934,18 @@
   <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId28"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Drop-downs'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E133:E149 E154:E171 E5:E21 E89:E106 E111:E128 E26:E40 E45:E84</xm:sqref>
+          <xm:sqref>E92:E129 E134:E170 E5:E21 E45:E65 E220:E260 E26:E40 E175:E215 E70:E87</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Drop-downs'!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B133:B149 B154:B171 B5:B21 B89:B106 B111:B128 B26:B40 B45:B84</xm:sqref>
+          <xm:sqref>B92:B129 B134:B170 B5:B21 B45:B65 B26:B40 B175:B215 B220:B260 B70:B87</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5613,34 +7972,34 @@
   <sheetData>
     <row r="2" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
@@ -5975,7 +8334,7 @@
     </row>
     <row r="12" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" ref="C12:J12" si="4">SUM(C3:C9)</f>
@@ -6024,58 +8383,58 @@
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
+      <c r="B14" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
+      <c r="B19" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6114,137 +8473,137 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7237,14 +9596,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7483,21 +9840,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
-    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7522,9 +9878,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
+    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Logs/adsai_y2b_25_26_worklog.xlsx
+++ b/Logs/adsai_y2b_25_26_worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\2025-26b-fai2-adsai-MaciejCzerniak243552\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7A38B6-F499-4C72-BC0A-11A85FA71258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF0B42D-2EB7-45AA-A0EB-F49CFFC656B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Worklog_Tasks&amp;Times'!$A$1:$K$170</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Worklog_Tasks&amp;Times'!$A$1:$K$149</definedName>
     <definedName name="Z_8BAC9A6B_5D32_4E8D_967D_E17D357516F8_.wvu.FilterData" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$22</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="202">
   <si>
     <t>Date</t>
   </si>
@@ -679,6 +679,90 @@
   </si>
   <si>
     <t>After intense week of work I decided to take a break.</t>
+  </si>
+  <si>
+    <t>Task 8</t>
+  </si>
+  <si>
+    <t>Kaggle Competition</t>
+  </si>
+  <si>
+    <t>I tried to improve my results but it didn't give me anything better than I have.</t>
+  </si>
+  <si>
+    <t>I started to creating final pipline for the project</t>
+  </si>
+  <si>
+    <t>End of the block challenges presentation by Shiv</t>
+  </si>
+  <si>
+    <t>Exchange info session by Zhanna</t>
+  </si>
+  <si>
+    <t>Robotics &amp; PID Review Session by Dean</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>We recived small data set with seedlings on early stage. I decided to give it a shot. For next iteration of the model I implemented data agumentation.</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>I started reading materials for the robotic tasks. I think I understand the concepts but I would like to use more code. Personally, it is more efficient. It is a pity that we didn't get a 'self study' materials for robotics.</t>
+  </si>
+  <si>
+    <t>We have plenty of challenges after this block. It is hard to decided which one to choose.</t>
+  </si>
+  <si>
+    <t>While attempting to improve the results of Task 7, I reached a point of diminishing returns. Despite several attempts, none of the changes led to measurable improvement. This forced me to critically assess whether continued optimisation was the best use of time. I concluded that the current solution is sufficiently strong and that further gains would likely require more fundamental changes rather than incremental tweaks.
+Based on this assessment, I shifted my focus to Task 8 and began constructing the final pipeline for the project. This decision was driven by the understanding that having a complete, end-to-end pipeline is more valuable at this stage than maximising performance on a single task. Building the pipeline also allowed me to see how earlier design choices interact and where potential weaknesses remain.
+Attending the presentation on end-of-block challenges highlighted the number of possible directions my self development and portfolio could take after this block. . I found it difficult to decide which challenge to pursue, which made me reflect on the need to prioritise based on feasibility, relevance, and personal learning goals rather than ambition alone.
+Next Steps:
+- Finalise the project pipeline and identify its weakest components.
+- Avoid over-optimising Task 7 unless clear improvement opportunities emerge.
+- Evaluate end of block challenge options based on impact and required effort.
+- Use stand-up feedback to continuously reassess priorities and direction.</t>
+  </si>
+  <si>
+    <t>I finished task 9 where I explored work envelope of Opentrons OT-2. I noted down my observation in README.md to meet the requirements of the task.</t>
+  </si>
+  <si>
+    <t>PID Controller</t>
+  </si>
+  <si>
+    <t>Task 10</t>
+  </si>
+  <si>
+    <t>I started working on PID Controller but I'm not sure if I'm doing it right. I need to consult it with the mentor.</t>
+  </si>
+  <si>
+    <t>I did next iteration with dice_coef loss combined with categoricalCrossentropy but it didn't give me any improvements.</t>
+  </si>
+  <si>
+    <t>I involved evaluating the limits of optimisation and making decisions about when to change direction rather than persist with incremental adjustments. While working on Task 5, I experimented with a new loss function by combining dice_coef loss with categorical cross-entropy. Although this approach is often recommended for segmentation tasks, it did not lead to any noticeable improvement.
+Receiving a small additional dataset with early-stage seedlings gave me an opportunity to rethink the problem from a different angle. Rather than further tuning the architecture, I decided to focus on data augmentation in the next iteration. This decision was based on the observation that early growth stages introduce visual variability that the model may not have seen before.
+Alongside model development, I attended sessions related to exchange opportunities and robotics, which prompted reflection on my broader learning strategy. In particular, during the robotics and PID review session, I realised that I understand the theoretical concepts reasonably well but struggle to internalise them without hands-on coding examples. This insight also emerged while reading reinforcement learning materials: while the concepts make sense, my learning is noticeably more effective when theory is paired with practical implementation. The lack of self-study coding materials in robotics made this gap more visible.
+I applied this reflection when working on Task 9, where I explored the work envelope of the Opentrons OT-2. Completing the task and documenting observations in the README helped me consolidate understanding through practice. However, when starting Task 10 on the PID controller, I became uncertain whether my implementation approach was correct. Instead of continuing blindly, I recognised the need to consult my mentor, which reflects a more cautious and reflective approach to complex control problems.
+Next Steps:
+- Evaluate whether data augmentation improves Task 5 results before attempting further model-level changes.
+- Focus on learning robotics concepts through implementation wherever possible.
+- Review Task 9 observations to inform future robotics tasks.
+- Discuss the PID controller approach with a mentor before proceeding further.</t>
+  </si>
+  <si>
+    <t>task_6.ipynb</t>
+  </si>
+  <si>
+    <t>task09_robotics_environment</t>
+  </si>
+  <si>
+    <t>task10_pid_controller.ipynb</t>
   </si>
 </sst>
 </file>
@@ -1187,12 +1271,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1203,24 +1303,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,6 +1326,14 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1242,72 +1341,25 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="31">
     <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD0E0E3"/>
-          <bgColor rgb="FFD0E0E3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1338,72 +1390,40 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF6B26B"/>
-          <bgColor rgb="FFF6B26B"/>
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD0E0E3"/>
-          <bgColor rgb="FFD0E0E3"/>
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1484,62 +1504,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFD966"/>
           <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1969,11 +1933,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K261"/>
+  <dimension ref="A1:K240"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2026,53 +1990,53 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
@@ -2636,53 +2600,53 @@
       <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="60"/>
     </row>
     <row r="26" spans="1:11" s="48" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="50">
@@ -3199,53 +3163,53 @@
       <c r="K41" s="36"/>
     </row>
     <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="64"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="60"/>
     </row>
     <row r="43" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="64"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="60"/>
     </row>
     <row r="44" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="64"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="60"/>
     </row>
     <row r="45" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
@@ -3570,7 +3534,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="48" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="48" customFormat="1" ht="96" x14ac:dyDescent="0.25">
       <c r="B55" s="43" t="s">
         <v>52</v>
       </c>
@@ -3760,7 +3724,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J60" s="49"/>
+      <c r="J60" s="52" t="s">
+        <v>141</v>
+      </c>
       <c r="K60" s="35" t="s">
         <v>143</v>
       </c>
@@ -3791,7 +3757,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J61" s="49"/>
+      <c r="J61" s="52" t="s">
+        <v>141</v>
+      </c>
       <c r="K61" s="35" t="s">
         <v>144</v>
       </c>
@@ -3825,7 +3793,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J62" s="49"/>
+      <c r="J62" s="52" t="s">
+        <v>141</v>
+      </c>
       <c r="K62" s="35" t="s">
         <v>146</v>
       </c>
@@ -3857,7 +3827,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J63" s="49"/>
+      <c r="J63" s="52" t="s">
+        <v>141</v>
+      </c>
       <c r="K63" s="35" t="s">
         <v>147</v>
       </c>
@@ -3889,7 +3861,9 @@
         <f t="shared" ref="I64:I65" si="11">H64-G64</f>
         <v>0</v>
       </c>
-      <c r="J64" s="49"/>
+      <c r="J64" s="52" t="s">
+        <v>141</v>
+      </c>
       <c r="K64" s="35" t="s">
         <v>148</v>
       </c>
@@ -3921,7 +3895,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J65" s="49"/>
+      <c r="J65" s="52" t="s">
+        <v>141</v>
+      </c>
       <c r="K65" s="35" t="s">
         <v>149</v>
       </c>
@@ -3951,53 +3927,53 @@
       <c r="K66" s="36"/>
     </row>
     <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="64"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="60"/>
     </row>
     <row r="68" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="63"/>
-      <c r="K68" s="64"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="60"/>
     </row>
     <row r="69" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="63"/>
-      <c r="K69" s="64"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="60"/>
     </row>
     <row r="70" spans="1:11" s="48" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
@@ -4090,7 +4066,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J72" s="49"/>
+      <c r="J72" s="52" t="s">
+        <v>141</v>
+      </c>
       <c r="K72" s="35" t="s">
         <v>155</v>
       </c>
@@ -4121,7 +4099,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J73" s="49"/>
+      <c r="J73" s="52" t="s">
+        <v>141</v>
+      </c>
       <c r="K73" s="35" t="s">
         <v>156</v>
       </c>
@@ -4155,7 +4135,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J74" s="49"/>
+      <c r="J74" s="52" t="s">
+        <v>141</v>
+      </c>
       <c r="K74" s="35" t="s">
         <v>157</v>
       </c>
@@ -4187,7 +4169,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J75" s="49"/>
+      <c r="J75" s="52" t="s">
+        <v>199</v>
+      </c>
       <c r="K75" s="35" t="s">
         <v>160</v>
       </c>
@@ -4219,7 +4203,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J76" s="49"/>
+      <c r="J76" s="52" t="s">
+        <v>199</v>
+      </c>
       <c r="K76" s="35" t="s">
         <v>161</v>
       </c>
@@ -4251,7 +4237,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J77" s="49"/>
+      <c r="J77" s="52" t="s">
+        <v>199</v>
+      </c>
       <c r="K77" s="35"/>
     </row>
     <row r="78" spans="1:11" s="48" customFormat="1" ht="372" x14ac:dyDescent="0.25">
@@ -4346,7 +4334,9 @@
         <f t="shared" ref="I80:I86" si="15">H80-G80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="49"/>
+      <c r="J80" s="52" t="s">
+        <v>199</v>
+      </c>
       <c r="K80" s="35" t="s">
         <v>169</v>
       </c>
@@ -4378,7 +4368,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J81" s="49"/>
+      <c r="J81" s="52" t="s">
+        <v>199</v>
+      </c>
       <c r="K81" s="35" t="s">
         <v>170</v>
       </c>
@@ -4410,7 +4402,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J82" s="49"/>
+      <c r="J82" s="52" t="s">
+        <v>199</v>
+      </c>
       <c r="K82" s="35" t="s">
         <v>171</v>
       </c>
@@ -4444,7 +4438,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J83" s="49"/>
+      <c r="J83" s="52" t="s">
+        <v>172</v>
+      </c>
       <c r="K83" s="35" t="s">
         <v>174</v>
       </c>
@@ -4476,7 +4472,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J84" s="49"/>
+      <c r="J84" s="52" t="s">
+        <v>172</v>
+      </c>
       <c r="K84" s="35" t="s">
         <v>175</v>
       </c>
@@ -4604,127 +4602,175 @@
       <c r="K88" s="36"/>
     </row>
     <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="74" t="s">
+      <c r="A89" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="63"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="63"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="63"/>
-      <c r="J89" s="63"/>
-      <c r="K89" s="64"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="60"/>
     </row>
     <row r="90" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="70" t="s">
+      <c r="B90" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="63"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="63"/>
-      <c r="K90" s="64"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="60"/>
     </row>
     <row r="91" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="70" t="s">
+      <c r="B91" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="63"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
-      <c r="G91" s="63"/>
-      <c r="H91" s="63"/>
-      <c r="I91" s="63"/>
-      <c r="J91" s="63"/>
-      <c r="K91" s="64"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="60"/>
     </row>
     <row r="92" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="42">
         <v>45999</v>
       </c>
-      <c r="B92" s="43"/>
+      <c r="B92" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C92" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="43"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
+        <v>44</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E92" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G92" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="H92" s="46">
+        <v>0.25</v>
+      </c>
       <c r="I92" s="46">
-        <f t="shared" ref="I92:I130" si="17">H92-G92</f>
+        <f t="shared" ref="I92:I109" si="17">H92-G92</f>
         <v>0</v>
       </c>
       <c r="J92" s="49"/>
       <c r="K92" s="35"/>
     </row>
     <row r="93" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="42">
-        <v>46000</v>
-      </c>
-      <c r="B93" s="43"/>
+      <c r="B93" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C93" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="43"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
+        <v>172</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E93" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F93" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G93" s="46">
+        <v>4</v>
+      </c>
+      <c r="H93" s="46">
+        <v>4</v>
+      </c>
       <c r="I93" s="46">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J93" s="49"/>
-      <c r="K93" s="35"/>
+      <c r="J93" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="K93" s="35" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="94" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="42">
-        <v>46001</v>
-      </c>
-      <c r="B94" s="43"/>
+      <c r="B94" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C94" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="43"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
+        <v>179</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F94" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G94" s="46">
+        <v>4</v>
+      </c>
+      <c r="H94" s="46">
+        <v>4</v>
+      </c>
       <c r="I94" s="46">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J94" s="49"/>
-      <c r="K94" s="35"/>
+      <c r="J94" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="K94" s="35" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="95" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="42">
-        <v>46002</v>
-      </c>
-      <c r="B95" s="43"/>
+        <v>46000</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C95" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="43"/>
-      <c r="E95" s="45"/>
+        <v>78</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E95" s="45" t="s">
+        <v>39</v>
+      </c>
       <c r="F95" s="45"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
+      <c r="G95" s="46">
+        <v>4</v>
+      </c>
+      <c r="H95" s="46">
+        <v>4</v>
+      </c>
       <c r="I95" s="46">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -4734,17 +4780,29 @@
     </row>
     <row r="96" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="42">
-        <v>46003</v>
-      </c>
-      <c r="B96" s="43"/>
+        <v>46001</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C96" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="43"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
+        <v>44</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G96" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="H96" s="46">
+        <v>0.25</v>
+      </c>
       <c r="I96" s="46">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -4752,87 +4810,155 @@
       <c r="J96" s="49"/>
       <c r="K96" s="35"/>
     </row>
-    <row r="97" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A97" s="42"/>
-      <c r="B97" s="43"/>
+      <c r="B97" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C97" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="43"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
+        <v>44</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="E97" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G97" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="H97" s="46">
+        <v>0.5</v>
+      </c>
       <c r="I97" s="46">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J97" s="49"/>
-      <c r="K97" s="35"/>
-    </row>
-    <row r="98" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K97" s="35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="48" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A98" s="42"/>
-      <c r="B98" s="43"/>
+      <c r="B98" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C98" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="43"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="46"/>
+        <v>61</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E98" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F98" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G98" s="46">
+        <v>2</v>
+      </c>
+      <c r="H98" s="46">
+        <v>2</v>
+      </c>
       <c r="I98" s="46">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J98" s="49"/>
-      <c r="K98" s="35"/>
-    </row>
-    <row r="99" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K98" s="35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A99" s="42"/>
-      <c r="B99" s="43"/>
+      <c r="B99" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C99" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" s="43"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F99" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G99" s="46">
+        <v>4</v>
+      </c>
+      <c r="H99" s="46">
+        <v>4</v>
+      </c>
       <c r="I99" s="46">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J99" s="49"/>
-      <c r="K99" s="35"/>
+      <c r="J99" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="K99" s="35" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="100" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B100" s="43"/>
+      <c r="B100" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C100" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="43"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="46"/>
+        <v>186</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G100" s="46">
+        <v>1</v>
+      </c>
+      <c r="H100" s="46">
+        <v>1</v>
+      </c>
       <c r="I100" s="46">
-        <f t="shared" ref="I100:I110" si="18">H100-G100</f>
+        <f t="shared" ref="I100:I108" si="18">H100-G100</f>
         <v>0</v>
       </c>
       <c r="J100" s="49"/>
       <c r="K100" s="35"/>
     </row>
     <row r="101" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B101" s="43"/>
+      <c r="B101" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C101" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="43"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
+      <c r="D101" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E101" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G101" s="46">
+        <v>1</v>
+      </c>
+      <c r="H101" s="46">
+        <v>1</v>
+      </c>
       <c r="I101" s="46">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -4840,50 +4966,95 @@
       <c r="J101" s="49"/>
       <c r="K101" s="35"/>
     </row>
-    <row r="102" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B102" s="43"/>
+    <row r="102" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A102" s="42">
+        <v>46002</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C102" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" s="43"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="D102" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G102" s="46">
+        <v>2</v>
+      </c>
+      <c r="H102" s="46">
+        <v>2</v>
+      </c>
       <c r="I102" s="46">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J102" s="49"/>
-      <c r="K102" s="35"/>
-    </row>
-    <row r="103" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B103" s="43"/>
+      <c r="J102" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="K102" s="35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="48" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="B103" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C103" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="43"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
+        <v>189</v>
+      </c>
+      <c r="D103" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E103" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F103" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G103" s="46">
+        <v>4</v>
+      </c>
+      <c r="H103" s="46">
+        <v>4</v>
+      </c>
       <c r="I103" s="46">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J103" s="49"/>
-      <c r="K103" s="35"/>
+      <c r="K103" s="35" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="104" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B104" s="43"/>
+      <c r="B104" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C104" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="43"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
+        <v>189</v>
+      </c>
+      <c r="D104" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E104" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F104" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G104" s="46">
+        <v>2</v>
+      </c>
+      <c r="H104" s="46">
+        <v>2</v>
+      </c>
       <c r="I104" s="46">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -4892,16 +5063,28 @@
       <c r="K104" s="35"/>
     </row>
     <row r="105" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="42"/>
-      <c r="B105" s="43"/>
+      <c r="A105" s="42">
+        <v>46003</v>
+      </c>
+      <c r="B105" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C105" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" s="43"/>
-      <c r="E105" s="45"/>
+        <v>78</v>
+      </c>
+      <c r="D105" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E105" s="45" t="s">
+        <v>39</v>
+      </c>
       <c r="F105" s="45"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="46"/>
+      <c r="G105" s="46">
+        <v>4</v>
+      </c>
+      <c r="H105" s="46">
+        <v>4</v>
+      </c>
       <c r="I105" s="46">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -4909,129 +5092,178 @@
       <c r="J105" s="49"/>
       <c r="K105" s="35"/>
     </row>
-    <row r="106" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
-      <c r="B106" s="43"/>
+    <row r="106" spans="1:11" s="48" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B106" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C106" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="43"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46"/>
+        <v>164</v>
+      </c>
+      <c r="D106" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E106" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F106" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G106" s="46">
+        <v>4</v>
+      </c>
+      <c r="H106" s="46">
+        <v>4</v>
+      </c>
       <c r="I106" s="46">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J106" s="49"/>
-      <c r="K106" s="35"/>
-    </row>
-    <row r="107" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="42"/>
-      <c r="B107" s="43"/>
+      <c r="J106" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="K106" s="35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="48" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B107" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="C107" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D107" s="43"/>
-      <c r="E107" s="45"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
+        <v>195</v>
+      </c>
+      <c r="D107" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E107" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F107" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G107" s="46">
+        <v>4</v>
+      </c>
+      <c r="H107" s="46">
+        <v>4</v>
+      </c>
       <c r="I107" s="46">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J107" s="49"/>
-      <c r="K107" s="35"/>
-    </row>
-    <row r="108" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" s="43"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="46"/>
+      <c r="J107" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="K107" s="35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="48" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A108" s="42">
+        <v>46004</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D108" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E108" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F108" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G108" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="H108" s="46">
+        <v>0.5</v>
+      </c>
       <c r="I108" s="46">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J108" s="49"/>
-      <c r="K108" s="35"/>
-    </row>
-    <row r="109" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="43"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="49"/>
-      <c r="K109" s="35"/>
-    </row>
-    <row r="110" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="42"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="43"/>
-      <c r="E110" s="45"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="46">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="49"/>
-      <c r="K110" s="35"/>
-    </row>
-    <row r="111" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B111" s="43"/>
-      <c r="C111" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" s="43"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="46">
-        <f t="shared" ref="I111:I127" si="19">H111-G111</f>
-        <v>0</v>
-      </c>
-      <c r="J111" s="49"/>
-      <c r="K111" s="35"/>
-    </row>
-    <row r="112" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B112" s="43"/>
-      <c r="C112" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" s="43"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="46"/>
-      <c r="H112" s="46"/>
-      <c r="I112" s="46">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="49"/>
-      <c r="K112" s="35"/>
+      <c r="K108" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="15"/>
+      <c r="G109" s="18">
+        <f>SUM(G92:G108)</f>
+        <v>41.5</v>
+      </c>
+      <c r="H109" s="18">
+        <f>SUM(H92:H108)</f>
+        <v>41.5</v>
+      </c>
+      <c r="I109" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="19"/>
+      <c r="K109" s="36"/>
+    </row>
+    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B110" s="59"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="59"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="59"/>
+      <c r="I110" s="59"/>
+      <c r="J110" s="59"/>
+      <c r="K110" s="60"/>
+    </row>
+    <row r="111" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A111" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="59"/>
+      <c r="K111" s="60"/>
+    </row>
+    <row r="112" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="59"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="59"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="59"/>
+      <c r="I112" s="59"/>
+      <c r="J112" s="59"/>
+      <c r="K112" s="60"/>
     </row>
     <row r="113" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="42"/>
@@ -5045,7 +5277,7 @@
       <c r="G113" s="46"/>
       <c r="H113" s="46"/>
       <c r="I113" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="I113:I150" si="19">H113-G113</f>
         <v>0</v>
       </c>
       <c r="J113" s="49"/>
@@ -5088,6 +5320,7 @@
       <c r="K115" s="35"/>
     </row>
     <row r="116" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A116" s="42"/>
       <c r="B116" s="43"/>
       <c r="C116" s="44" t="s">
         <v>16</v>
@@ -5105,6 +5338,7 @@
       <c r="K116" s="35"/>
     </row>
     <row r="117" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A117" s="42"/>
       <c r="B117" s="43"/>
       <c r="C117" s="44" t="s">
         <v>16</v>
@@ -5122,6 +5356,7 @@
       <c r="K117" s="35"/>
     </row>
     <row r="118" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A118" s="42"/>
       <c r="B118" s="43"/>
       <c r="C118" s="44" t="s">
         <v>16</v>
@@ -5139,6 +5374,7 @@
       <c r="K118" s="35"/>
     </row>
     <row r="119" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A119" s="42"/>
       <c r="B119" s="43"/>
       <c r="C119" s="44" t="s">
         <v>16</v>
@@ -5173,7 +5409,6 @@
       <c r="K120" s="35"/>
     </row>
     <row r="121" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="42"/>
       <c r="B121" s="43"/>
       <c r="C121" s="44" t="s">
         <v>16</v>
@@ -5209,6 +5444,7 @@
       <c r="K122" s="35"/>
     </row>
     <row r="123" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A123" s="42"/>
       <c r="B123" s="43"/>
       <c r="C123" s="44" t="s">
         <v>16</v>
@@ -5226,6 +5462,7 @@
       <c r="K123" s="35"/>
     </row>
     <row r="124" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A124" s="42"/>
       <c r="B124" s="43"/>
       <c r="C124" s="44" t="s">
         <v>16</v>
@@ -5260,7 +5497,6 @@
       <c r="K125" s="35"/>
     </row>
     <row r="126" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A126" s="42"/>
       <c r="B126" s="43"/>
       <c r="C126" s="44" t="s">
         <v>16</v>
@@ -5278,7 +5514,6 @@
       <c r="K126" s="35"/>
     </row>
     <row r="127" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="42"/>
       <c r="B127" s="43"/>
       <c r="C127" s="44" t="s">
         <v>16</v>
@@ -5296,7 +5531,6 @@
       <c r="K127" s="35"/>
     </row>
     <row r="128" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="42"/>
       <c r="B128" s="43"/>
       <c r="C128" s="44" t="s">
         <v>16</v>
@@ -5307,14 +5541,13 @@
       <c r="G128" s="46"/>
       <c r="H128" s="46"/>
       <c r="I128" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J128" s="49"/>
       <c r="K128" s="35"/>
     </row>
     <row r="129" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="42"/>
       <c r="B129" s="43"/>
       <c r="C129" s="44" t="s">
         <v>16</v>
@@ -5325,87 +5558,83 @@
       <c r="G129" s="46"/>
       <c r="H129" s="46"/>
       <c r="I129" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J129" s="49"/>
       <c r="K129" s="35"/>
     </row>
-    <row r="130" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A130" s="13"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F130" s="15"/>
-      <c r="G130" s="18">
-        <f t="shared" ref="G130:H130" si="20">SUM(G92:G129)</f>
-        <v>0</v>
-      </c>
-      <c r="H130" s="18">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I130" s="18">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="19"/>
-      <c r="K130" s="36"/>
-    </row>
-    <row r="131" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="B131" s="63"/>
-      <c r="C131" s="63"/>
-      <c r="D131" s="63"/>
-      <c r="E131" s="63"/>
-      <c r="F131" s="63"/>
-      <c r="G131" s="63"/>
-      <c r="H131" s="63"/>
-      <c r="I131" s="63"/>
-      <c r="J131" s="63"/>
-      <c r="K131" s="64"/>
-    </row>
-    <row r="132" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A132" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B132" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="63"/>
-      <c r="D132" s="63"/>
-      <c r="E132" s="63"/>
-      <c r="F132" s="63"/>
-      <c r="G132" s="63"/>
-      <c r="H132" s="63"/>
-      <c r="I132" s="63"/>
-      <c r="J132" s="63"/>
-      <c r="K132" s="64"/>
-    </row>
-    <row r="133" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" s="63"/>
-      <c r="D133" s="63"/>
-      <c r="E133" s="63"/>
-      <c r="F133" s="63"/>
-      <c r="G133" s="63"/>
-      <c r="H133" s="63"/>
-      <c r="I133" s="63"/>
-      <c r="J133" s="63"/>
-      <c r="K133" s="64"/>
+    <row r="130" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A130" s="42"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="43"/>
+      <c r="E130" s="45"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="46"/>
+      <c r="H130" s="46"/>
+      <c r="I130" s="46">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="49"/>
+      <c r="K130" s="35"/>
+    </row>
+    <row r="131" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A131" s="42"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="43"/>
+      <c r="E131" s="45"/>
+      <c r="F131" s="45"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="46"/>
+      <c r="I131" s="46">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="49"/>
+      <c r="K131" s="35"/>
+    </row>
+    <row r="132" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B132" s="43"/>
+      <c r="C132" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="43"/>
+      <c r="E132" s="45"/>
+      <c r="F132" s="45"/>
+      <c r="G132" s="46"/>
+      <c r="H132" s="46"/>
+      <c r="I132" s="46">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="49"/>
+      <c r="K132" s="35"/>
+    </row>
+    <row r="133" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B133" s="43"/>
+      <c r="C133" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="43"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="46"/>
+      <c r="I133" s="46">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="49"/>
+      <c r="K133" s="35"/>
     </row>
     <row r="134" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="42"/>
       <c r="B134" s="43"/>
       <c r="C134" s="44" t="s">
         <v>16</v>
@@ -5416,7 +5645,7 @@
       <c r="G134" s="46"/>
       <c r="H134" s="46"/>
       <c r="I134" s="46">
-        <f t="shared" ref="I134:I171" si="21">H134-G134</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J134" s="49"/>
@@ -5434,7 +5663,7 @@
       <c r="G135" s="46"/>
       <c r="H135" s="46"/>
       <c r="I135" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J135" s="49"/>
@@ -5452,7 +5681,7 @@
       <c r="G136" s="46"/>
       <c r="H136" s="46"/>
       <c r="I136" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J136" s="49"/>
@@ -5470,7 +5699,7 @@
       <c r="G137" s="46"/>
       <c r="H137" s="46"/>
       <c r="I137" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J137" s="49"/>
@@ -5488,7 +5717,7 @@
       <c r="G138" s="46"/>
       <c r="H138" s="46"/>
       <c r="I138" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J138" s="49"/>
@@ -5506,7 +5735,7 @@
       <c r="G139" s="46"/>
       <c r="H139" s="46"/>
       <c r="I139" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J139" s="49"/>
@@ -5524,13 +5753,14 @@
       <c r="G140" s="46"/>
       <c r="H140" s="46"/>
       <c r="I140" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J140" s="49"/>
       <c r="K140" s="35"/>
     </row>
     <row r="141" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A141" s="42"/>
       <c r="B141" s="43"/>
       <c r="C141" s="44" t="s">
         <v>16</v>
@@ -5541,13 +5771,14 @@
       <c r="G141" s="46"/>
       <c r="H141" s="46"/>
       <c r="I141" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I141:I147" si="20">H141-G141</f>
         <v>0</v>
       </c>
       <c r="J141" s="49"/>
       <c r="K141" s="35"/>
     </row>
     <row r="142" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A142" s="42"/>
       <c r="B142" s="43"/>
       <c r="C142" s="44" t="s">
         <v>16</v>
@@ -5558,7 +5789,7 @@
       <c r="G142" s="46"/>
       <c r="H142" s="46"/>
       <c r="I142" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J142" s="49"/>
@@ -5576,7 +5807,7 @@
       <c r="G143" s="46"/>
       <c r="H143" s="46"/>
       <c r="I143" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J143" s="49"/>
@@ -5594,7 +5825,7 @@
       <c r="G144" s="46"/>
       <c r="H144" s="46"/>
       <c r="I144" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J144" s="49"/>
@@ -5612,13 +5843,14 @@
       <c r="G145" s="46"/>
       <c r="H145" s="46"/>
       <c r="I145" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J145" s="49"/>
       <c r="K145" s="35"/>
     </row>
     <row r="146" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A146" s="42"/>
       <c r="B146" s="43"/>
       <c r="C146" s="44" t="s">
         <v>16</v>
@@ -5629,13 +5861,14 @@
       <c r="G146" s="46"/>
       <c r="H146" s="46"/>
       <c r="I146" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J146" s="49"/>
       <c r="K146" s="35"/>
     </row>
     <row r="147" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A147" s="42"/>
       <c r="B147" s="43"/>
       <c r="C147" s="44" t="s">
         <v>16</v>
@@ -5646,13 +5879,14 @@
       <c r="G147" s="46"/>
       <c r="H147" s="46"/>
       <c r="I147" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J147" s="49"/>
       <c r="K147" s="35"/>
     </row>
     <row r="148" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A148" s="42"/>
       <c r="B148" s="43"/>
       <c r="C148" s="44" t="s">
         <v>16</v>
@@ -5663,13 +5897,14 @@
       <c r="G148" s="46"/>
       <c r="H148" s="46"/>
       <c r="I148" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J148" s="49"/>
       <c r="K148" s="35"/>
     </row>
     <row r="149" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A149" s="42"/>
       <c r="B149" s="43"/>
       <c r="C149" s="44" t="s">
         <v>16</v>
@@ -5680,83 +5915,87 @@
       <c r="G149" s="46"/>
       <c r="H149" s="46"/>
       <c r="I149" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J149" s="49"/>
       <c r="K149" s="35"/>
     </row>
-    <row r="150" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B150" s="43"/>
-      <c r="C150" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D150" s="43"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="46"/>
-      <c r="H150" s="46"/>
-      <c r="I150" s="46">
+    <row r="150" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A150" s="13"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F150" s="15"/>
+      <c r="G150" s="18">
+        <f t="shared" ref="G150:H150" si="21">SUM(G113:G149)</f>
+        <v>0</v>
+      </c>
+      <c r="H150" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="J150" s="49"/>
-      <c r="K150" s="35"/>
-    </row>
-    <row r="151" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A151" s="42"/>
-      <c r="B151" s="43"/>
-      <c r="C151" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D151" s="43"/>
-      <c r="E151" s="45"/>
-      <c r="F151" s="45"/>
-      <c r="G151" s="46"/>
-      <c r="H151" s="46"/>
-      <c r="I151" s="46">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J151" s="49"/>
-      <c r="K151" s="35"/>
-    </row>
-    <row r="152" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="42"/>
-      <c r="B152" s="43"/>
-      <c r="C152" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D152" s="43"/>
-      <c r="E152" s="45"/>
-      <c r="F152" s="45"/>
-      <c r="G152" s="46"/>
-      <c r="H152" s="46"/>
-      <c r="I152" s="46">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J152" s="49"/>
-      <c r="K152" s="35"/>
-    </row>
-    <row r="153" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B153" s="43"/>
-      <c r="C153" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" s="43"/>
-      <c r="E153" s="45"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="46"/>
-      <c r="H153" s="46"/>
-      <c r="I153" s="46">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J153" s="49"/>
-      <c r="K153" s="35"/>
+      <c r="I150" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J150" s="19"/>
+      <c r="K150" s="36"/>
+    </row>
+    <row r="151" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" s="79"/>
+      <c r="C151" s="79"/>
+      <c r="D151" s="79"/>
+      <c r="E151" s="79"/>
+      <c r="F151" s="79"/>
+      <c r="G151" s="79"/>
+      <c r="H151" s="79"/>
+      <c r="I151" s="79"/>
+      <c r="J151" s="79"/>
+      <c r="K151" s="80"/>
+    </row>
+    <row r="152" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="79"/>
+      <c r="D152" s="79"/>
+      <c r="E152" s="79"/>
+      <c r="F152" s="79"/>
+      <c r="G152" s="79"/>
+      <c r="H152" s="79"/>
+      <c r="I152" s="79"/>
+      <c r="J152" s="79"/>
+      <c r="K152" s="80"/>
+    </row>
+    <row r="153" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" s="79"/>
+      <c r="D153" s="79"/>
+      <c r="E153" s="79"/>
+      <c r="F153" s="79"/>
+      <c r="G153" s="79"/>
+      <c r="H153" s="79"/>
+      <c r="I153" s="79"/>
+      <c r="J153" s="79"/>
+      <c r="K153" s="80"/>
     </row>
     <row r="154" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A154" s="42"/>
       <c r="B154" s="43"/>
       <c r="C154" s="44" t="s">
         <v>16</v>
@@ -5767,13 +6006,14 @@
       <c r="G154" s="46"/>
       <c r="H154" s="46"/>
       <c r="I154" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I154:I195" si="22">H154-G154</f>
         <v>0</v>
       </c>
       <c r="J154" s="49"/>
       <c r="K154" s="35"/>
     </row>
     <row r="155" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A155" s="42"/>
       <c r="B155" s="43"/>
       <c r="C155" s="44" t="s">
         <v>16</v>
@@ -5784,7 +6024,7 @@
       <c r="G155" s="46"/>
       <c r="H155" s="46"/>
       <c r="I155" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J155" s="49"/>
@@ -5802,7 +6042,7 @@
       <c r="G156" s="46"/>
       <c r="H156" s="46"/>
       <c r="I156" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J156" s="49"/>
@@ -5820,7 +6060,7 @@
       <c r="G157" s="46"/>
       <c r="H157" s="46"/>
       <c r="I157" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J157" s="49"/>
@@ -5838,7 +6078,7 @@
       <c r="G158" s="46"/>
       <c r="H158" s="46"/>
       <c r="I158" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J158" s="49"/>
@@ -5856,7 +6096,7 @@
       <c r="G159" s="46"/>
       <c r="H159" s="46"/>
       <c r="I159" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J159" s="49"/>
@@ -5874,7 +6114,7 @@
       <c r="G160" s="46"/>
       <c r="H160" s="46"/>
       <c r="I160" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J160" s="49"/>
@@ -5892,7 +6132,7 @@
       <c r="G161" s="46"/>
       <c r="H161" s="46"/>
       <c r="I161" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J161" s="49"/>
@@ -5910,14 +6150,13 @@
       <c r="G162" s="46"/>
       <c r="H162" s="46"/>
       <c r="I162" s="46">
-        <f t="shared" ref="I162:I168" si="22">H162-G162</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J162" s="49"/>
       <c r="K162" s="35"/>
     </row>
     <row r="163" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A163" s="42"/>
       <c r="B163" s="43"/>
       <c r="C163" s="44" t="s">
         <v>16</v>
@@ -5935,7 +6174,6 @@
       <c r="K163" s="35"/>
     </row>
     <row r="164" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="42"/>
       <c r="B164" s="43"/>
       <c r="C164" s="44" t="s">
         <v>16</v>
@@ -6007,7 +6245,6 @@
       <c r="K167" s="35"/>
     </row>
     <row r="168" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="42"/>
       <c r="B168" s="43"/>
       <c r="C168" s="44" t="s">
         <v>16</v>
@@ -6025,7 +6262,6 @@
       <c r="K168" s="35"/>
     </row>
     <row r="169" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="42"/>
       <c r="B169" s="43"/>
       <c r="C169" s="44" t="s">
         <v>16</v>
@@ -6036,14 +6272,13 @@
       <c r="G169" s="46"/>
       <c r="H169" s="46"/>
       <c r="I169" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J169" s="49"/>
       <c r="K169" s="35"/>
     </row>
     <row r="170" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="42"/>
       <c r="B170" s="43"/>
       <c r="C170" s="44" t="s">
         <v>16</v>
@@ -6054,87 +6289,83 @@
       <c r="G170" s="46"/>
       <c r="H170" s="46"/>
       <c r="I170" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J170" s="49"/>
       <c r="K170" s="35"/>
     </row>
-    <row r="171" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F171" s="15"/>
-      <c r="G171" s="18">
-        <f t="shared" ref="G171:H171" si="23">SUM(G134:G170)</f>
-        <v>0</v>
-      </c>
-      <c r="H171" s="18">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I171" s="18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J171" s="19"/>
-      <c r="K171" s="36"/>
-    </row>
-    <row r="172" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B172" s="56"/>
-      <c r="C172" s="56"/>
-      <c r="D172" s="56"/>
-      <c r="E172" s="56"/>
-      <c r="F172" s="56"/>
-      <c r="G172" s="56"/>
-      <c r="H172" s="56"/>
-      <c r="I172" s="56"/>
-      <c r="J172" s="56"/>
-      <c r="K172" s="57"/>
-    </row>
-    <row r="173" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A173" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B173" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C173" s="56"/>
-      <c r="D173" s="56"/>
-      <c r="E173" s="56"/>
-      <c r="F173" s="56"/>
-      <c r="G173" s="56"/>
-      <c r="H173" s="56"/>
-      <c r="I173" s="56"/>
-      <c r="J173" s="56"/>
-      <c r="K173" s="57"/>
-    </row>
-    <row r="174" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B174" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C174" s="56"/>
-      <c r="D174" s="56"/>
-      <c r="E174" s="56"/>
-      <c r="F174" s="56"/>
-      <c r="G174" s="56"/>
-      <c r="H174" s="56"/>
-      <c r="I174" s="56"/>
-      <c r="J174" s="56"/>
-      <c r="K174" s="57"/>
+    <row r="171" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B171" s="43"/>
+      <c r="C171" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" s="43"/>
+      <c r="E171" s="45"/>
+      <c r="F171" s="45"/>
+      <c r="G171" s="46"/>
+      <c r="H171" s="46"/>
+      <c r="I171" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J171" s="49"/>
+      <c r="K171" s="35"/>
+    </row>
+    <row r="172" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B172" s="43"/>
+      <c r="C172" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="43"/>
+      <c r="E172" s="45"/>
+      <c r="F172" s="45"/>
+      <c r="G172" s="46"/>
+      <c r="H172" s="46"/>
+      <c r="I172" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J172" s="49"/>
+      <c r="K172" s="35"/>
+    </row>
+    <row r="173" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A173" s="42"/>
+      <c r="B173" s="43"/>
+      <c r="C173" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="43"/>
+      <c r="E173" s="45"/>
+      <c r="F173" s="45"/>
+      <c r="G173" s="46"/>
+      <c r="H173" s="46"/>
+      <c r="I173" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J173" s="49"/>
+      <c r="K173" s="35"/>
+    </row>
+    <row r="174" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A174" s="42"/>
+      <c r="B174" s="43"/>
+      <c r="C174" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="43"/>
+      <c r="E174" s="45"/>
+      <c r="F174" s="45"/>
+      <c r="G174" s="46"/>
+      <c r="H174" s="46"/>
+      <c r="I174" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J174" s="49"/>
+      <c r="K174" s="35"/>
     </row>
     <row r="175" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="42"/>
       <c r="B175" s="43"/>
       <c r="C175" s="44" t="s">
         <v>16</v>
@@ -6145,14 +6376,13 @@
       <c r="G175" s="46"/>
       <c r="H175" s="46"/>
       <c r="I175" s="46">
-        <f t="shared" ref="I175:I216" si="24">H175-G175</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J175" s="49"/>
       <c r="K175" s="35"/>
     </row>
     <row r="176" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A176" s="42"/>
       <c r="B176" s="43"/>
       <c r="C176" s="44" t="s">
         <v>16</v>
@@ -6163,14 +6393,13 @@
       <c r="G176" s="46"/>
       <c r="H176" s="46"/>
       <c r="I176" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J176" s="49"/>
       <c r="K176" s="35"/>
     </row>
     <row r="177" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A177" s="42"/>
       <c r="B177" s="43"/>
       <c r="C177" s="44" t="s">
         <v>16</v>
@@ -6181,7 +6410,7 @@
       <c r="G177" s="46"/>
       <c r="H177" s="46"/>
       <c r="I177" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J177" s="49"/>
@@ -6199,7 +6428,7 @@
       <c r="G178" s="46"/>
       <c r="H178" s="46"/>
       <c r="I178" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J178" s="49"/>
@@ -6217,7 +6446,7 @@
       <c r="G179" s="46"/>
       <c r="H179" s="46"/>
       <c r="I179" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J179" s="49"/>
@@ -6235,7 +6464,7 @@
       <c r="G180" s="46"/>
       <c r="H180" s="46"/>
       <c r="I180" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J180" s="49"/>
@@ -6253,7 +6482,7 @@
       <c r="G181" s="46"/>
       <c r="H181" s="46"/>
       <c r="I181" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J181" s="49"/>
@@ -6271,7 +6500,7 @@
       <c r="G182" s="46"/>
       <c r="H182" s="46"/>
       <c r="I182" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J182" s="49"/>
@@ -6289,13 +6518,14 @@
       <c r="G183" s="46"/>
       <c r="H183" s="46"/>
       <c r="I183" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J183" s="49"/>
       <c r="K183" s="35"/>
     </row>
     <row r="184" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A184" s="42"/>
       <c r="B184" s="43"/>
       <c r="C184" s="44" t="s">
         <v>16</v>
@@ -6306,13 +6536,14 @@
       <c r="G184" s="46"/>
       <c r="H184" s="46"/>
       <c r="I184" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J184" s="49"/>
       <c r="K184" s="35"/>
     </row>
     <row r="185" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A185" s="42"/>
       <c r="B185" s="43"/>
       <c r="C185" s="44" t="s">
         <v>16</v>
@@ -6323,7 +6554,7 @@
       <c r="G185" s="46"/>
       <c r="H185" s="46"/>
       <c r="I185" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="I185:I192" si="23">H185-G185</f>
         <v>0</v>
       </c>
       <c r="J185" s="49"/>
@@ -6341,7 +6572,7 @@
       <c r="G186" s="46"/>
       <c r="H186" s="46"/>
       <c r="I186" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J186" s="49"/>
@@ -6359,7 +6590,7 @@
       <c r="G187" s="46"/>
       <c r="H187" s="46"/>
       <c r="I187" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J187" s="49"/>
@@ -6377,13 +6608,14 @@
       <c r="G188" s="46"/>
       <c r="H188" s="46"/>
       <c r="I188" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J188" s="49"/>
       <c r="K188" s="35"/>
     </row>
     <row r="189" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A189" s="42"/>
       <c r="B189" s="43"/>
       <c r="C189" s="44" t="s">
         <v>16</v>
@@ -6394,13 +6626,14 @@
       <c r="G189" s="46"/>
       <c r="H189" s="46"/>
       <c r="I189" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J189" s="49"/>
       <c r="K189" s="35"/>
     </row>
     <row r="190" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A190" s="42"/>
       <c r="B190" s="43"/>
       <c r="C190" s="44" t="s">
         <v>16</v>
@@ -6411,13 +6644,14 @@
       <c r="G190" s="46"/>
       <c r="H190" s="46"/>
       <c r="I190" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J190" s="49"/>
       <c r="K190" s="35"/>
     </row>
     <row r="191" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A191" s="42"/>
       <c r="B191" s="43"/>
       <c r="C191" s="44" t="s">
         <v>16</v>
@@ -6428,13 +6662,14 @@
       <c r="G191" s="46"/>
       <c r="H191" s="46"/>
       <c r="I191" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J191" s="49"/>
       <c r="K191" s="35"/>
     </row>
     <row r="192" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A192" s="42"/>
       <c r="B192" s="43"/>
       <c r="C192" s="44" t="s">
         <v>16</v>
@@ -6445,13 +6680,14 @@
       <c r="G192" s="46"/>
       <c r="H192" s="46"/>
       <c r="I192" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J192" s="49"/>
       <c r="K192" s="35"/>
     </row>
     <row r="193" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A193" s="42"/>
       <c r="B193" s="43"/>
       <c r="C193" s="44" t="s">
         <v>16</v>
@@ -6462,7 +6698,7 @@
       <c r="G193" s="46"/>
       <c r="H193" s="46"/>
       <c r="I193" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J193" s="49"/>
@@ -6480,80 +6716,84 @@
       <c r="G194" s="46"/>
       <c r="H194" s="46"/>
       <c r="I194" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J194" s="49"/>
       <c r="K194" s="35"/>
     </row>
-    <row r="195" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A195" s="42"/>
-      <c r="B195" s="43"/>
-      <c r="C195" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D195" s="43"/>
-      <c r="E195" s="45"/>
-      <c r="F195" s="45"/>
-      <c r="G195" s="46"/>
-      <c r="H195" s="46"/>
-      <c r="I195" s="46">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J195" s="49"/>
-      <c r="K195" s="35"/>
-    </row>
-    <row r="196" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B196" s="43"/>
-      <c r="C196" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D196" s="43"/>
-      <c r="E196" s="45"/>
-      <c r="F196" s="45"/>
-      <c r="G196" s="46"/>
-      <c r="H196" s="46"/>
-      <c r="I196" s="46">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J196" s="49"/>
-      <c r="K196" s="35"/>
-    </row>
-    <row r="197" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B197" s="43"/>
-      <c r="C197" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D197" s="43"/>
-      <c r="E197" s="45"/>
-      <c r="F197" s="45"/>
-      <c r="G197" s="46"/>
-      <c r="H197" s="46"/>
-      <c r="I197" s="46">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J197" s="49"/>
-      <c r="K197" s="35"/>
-    </row>
-    <row r="198" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B198" s="43"/>
-      <c r="C198" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D198" s="43"/>
-      <c r="E198" s="45"/>
-      <c r="F198" s="45"/>
-      <c r="G198" s="46"/>
-      <c r="H198" s="46"/>
-      <c r="I198" s="46">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J198" s="49"/>
-      <c r="K198" s="35"/>
+    <row r="195" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A195" s="37"/>
+      <c r="B195" s="38"/>
+      <c r="C195" s="38"/>
+      <c r="D195" s="38"/>
+      <c r="E195" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F195" s="38"/>
+      <c r="G195" s="39">
+        <f>SUM(G154:G194)</f>
+        <v>0</v>
+      </c>
+      <c r="H195" s="39">
+        <f>SUM(H154:H194)</f>
+        <v>0</v>
+      </c>
+      <c r="I195" s="39">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J195" s="40"/>
+      <c r="K195" s="41"/>
+    </row>
+    <row r="196" spans="1:11" s="55" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="71"/>
+      <c r="C196" s="71"/>
+      <c r="D196" s="71"/>
+      <c r="E196" s="71"/>
+      <c r="F196" s="71"/>
+      <c r="G196" s="71"/>
+      <c r="H196" s="71"/>
+      <c r="I196" s="71"/>
+      <c r="J196" s="71"/>
+      <c r="K196" s="72"/>
+    </row>
+    <row r="197" spans="1:11" s="55" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A197" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" s="71"/>
+      <c r="D197" s="71"/>
+      <c r="E197" s="71"/>
+      <c r="F197" s="71"/>
+      <c r="G197" s="71"/>
+      <c r="H197" s="71"/>
+      <c r="I197" s="71"/>
+      <c r="J197" s="71"/>
+      <c r="K197" s="72"/>
+    </row>
+    <row r="198" spans="1:11" s="55" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" s="71"/>
+      <c r="D198" s="71"/>
+      <c r="E198" s="71"/>
+      <c r="F198" s="71"/>
+      <c r="G198" s="71"/>
+      <c r="H198" s="71"/>
+      <c r="I198" s="71"/>
+      <c r="J198" s="71"/>
+      <c r="K198" s="72"/>
     </row>
     <row r="199" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="42"/>
@@ -6567,7 +6807,7 @@
       <c r="G199" s="46"/>
       <c r="H199" s="46"/>
       <c r="I199" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="I199:I240" si="24">H199-G199</f>
         <v>0</v>
       </c>
       <c r="J199" s="49"/>
@@ -6682,7 +6922,6 @@
       <c r="K205" s="35"/>
     </row>
     <row r="206" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A206" s="42"/>
       <c r="B206" s="43"/>
       <c r="C206" s="44" t="s">
         <v>16</v>
@@ -6693,14 +6932,13 @@
       <c r="G206" s="46"/>
       <c r="H206" s="46"/>
       <c r="I206" s="46">
-        <f t="shared" ref="I206:I213" si="25">H206-G206</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J206" s="49"/>
       <c r="K206" s="35"/>
     </row>
     <row r="207" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A207" s="42"/>
       <c r="B207" s="43"/>
       <c r="C207" s="44" t="s">
         <v>16</v>
@@ -6711,7 +6949,7 @@
       <c r="G207" s="46"/>
       <c r="H207" s="46"/>
       <c r="I207" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J207" s="49"/>
@@ -6729,7 +6967,7 @@
       <c r="G208" s="46"/>
       <c r="H208" s="46"/>
       <c r="I208" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J208" s="49"/>
@@ -6747,7 +6985,7 @@
       <c r="G209" s="46"/>
       <c r="H209" s="46"/>
       <c r="I209" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J209" s="49"/>
@@ -6765,14 +7003,13 @@
       <c r="G210" s="46"/>
       <c r="H210" s="46"/>
       <c r="I210" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J210" s="49"/>
       <c r="K210" s="35"/>
     </row>
     <row r="211" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A211" s="42"/>
       <c r="B211" s="43"/>
       <c r="C211" s="44" t="s">
         <v>16</v>
@@ -6783,14 +7020,13 @@
       <c r="G211" s="46"/>
       <c r="H211" s="46"/>
       <c r="I211" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J211" s="49"/>
       <c r="K211" s="35"/>
     </row>
     <row r="212" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A212" s="42"/>
       <c r="B212" s="43"/>
       <c r="C212" s="44" t="s">
         <v>16</v>
@@ -6801,14 +7037,13 @@
       <c r="G212" s="46"/>
       <c r="H212" s="46"/>
       <c r="I212" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J212" s="49"/>
       <c r="K212" s="35"/>
     </row>
     <row r="213" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A213" s="42"/>
       <c r="B213" s="43"/>
       <c r="C213" s="44" t="s">
         <v>16</v>
@@ -6819,14 +7054,13 @@
       <c r="G213" s="46"/>
       <c r="H213" s="46"/>
       <c r="I213" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J213" s="49"/>
       <c r="K213" s="35"/>
     </row>
     <row r="214" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A214" s="42"/>
       <c r="B214" s="43"/>
       <c r="C214" s="44" t="s">
         <v>16</v>
@@ -6844,7 +7078,6 @@
       <c r="K214" s="35"/>
     </row>
     <row r="215" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A215" s="42"/>
       <c r="B215" s="43"/>
       <c r="C215" s="44" t="s">
         <v>16</v>
@@ -6861,81 +7094,77 @@
       <c r="J215" s="49"/>
       <c r="K215" s="35"/>
     </row>
-    <row r="216" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A216" s="37"/>
-      <c r="B216" s="38"/>
-      <c r="C216" s="38"/>
-      <c r="D216" s="38"/>
-      <c r="E216" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F216" s="38"/>
-      <c r="G216" s="39">
-        <f>SUM(G175:G215)</f>
-        <v>0</v>
-      </c>
-      <c r="H216" s="39">
-        <f>SUM(H175:H215)</f>
-        <v>0</v>
-      </c>
-      <c r="I216" s="39">
+    <row r="216" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A216" s="42"/>
+      <c r="B216" s="43"/>
+      <c r="C216" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" s="43"/>
+      <c r="E216" s="45"/>
+      <c r="F216" s="45"/>
+      <c r="G216" s="46"/>
+      <c r="H216" s="46"/>
+      <c r="I216" s="46">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J216" s="40"/>
-      <c r="K216" s="41"/>
-    </row>
-    <row r="217" spans="1:11" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B217" s="79"/>
-      <c r="C217" s="79"/>
-      <c r="D217" s="79"/>
-      <c r="E217" s="79"/>
-      <c r="F217" s="79"/>
-      <c r="G217" s="79"/>
-      <c r="H217" s="79"/>
-      <c r="I217" s="79"/>
-      <c r="J217" s="79"/>
-      <c r="K217" s="80"/>
-    </row>
-    <row r="218" spans="1:11" s="81" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B218" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C218" s="79"/>
-      <c r="D218" s="79"/>
-      <c r="E218" s="79"/>
-      <c r="F218" s="79"/>
-      <c r="G218" s="79"/>
-      <c r="H218" s="79"/>
-      <c r="I218" s="79"/>
-      <c r="J218" s="79"/>
-      <c r="K218" s="80"/>
-    </row>
-    <row r="219" spans="1:11" s="81" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="B219" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C219" s="79"/>
-      <c r="D219" s="79"/>
-      <c r="E219" s="79"/>
-      <c r="F219" s="79"/>
-      <c r="G219" s="79"/>
-      <c r="H219" s="79"/>
-      <c r="I219" s="79"/>
-      <c r="J219" s="79"/>
-      <c r="K219" s="80"/>
+      <c r="J216" s="49"/>
+      <c r="K216" s="35"/>
+    </row>
+    <row r="217" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A217" s="42"/>
+      <c r="B217" s="43"/>
+      <c r="C217" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" s="43"/>
+      <c r="E217" s="45"/>
+      <c r="F217" s="45"/>
+      <c r="G217" s="46"/>
+      <c r="H217" s="46"/>
+      <c r="I217" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J217" s="49"/>
+      <c r="K217" s="35"/>
+    </row>
+    <row r="218" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B218" s="43"/>
+      <c r="C218" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D218" s="43"/>
+      <c r="E218" s="45"/>
+      <c r="F218" s="45"/>
+      <c r="G218" s="46"/>
+      <c r="H218" s="46"/>
+      <c r="I218" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J218" s="49"/>
+      <c r="K218" s="35"/>
+    </row>
+    <row r="219" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B219" s="43"/>
+      <c r="C219" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D219" s="43"/>
+      <c r="E219" s="45"/>
+      <c r="F219" s="45"/>
+      <c r="G219" s="46"/>
+      <c r="H219" s="46"/>
+      <c r="I219" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J219" s="49"/>
+      <c r="K219" s="35"/>
     </row>
     <row r="220" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A220" s="42"/>
       <c r="B220" s="43"/>
       <c r="C220" s="44" t="s">
         <v>16</v>
@@ -6946,7 +7175,7 @@
       <c r="G220" s="46"/>
       <c r="H220" s="46"/>
       <c r="I220" s="46">
-        <f t="shared" ref="I220:I261" si="26">H220-G220</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J220" s="49"/>
@@ -6964,7 +7193,7 @@
       <c r="G221" s="46"/>
       <c r="H221" s="46"/>
       <c r="I221" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J221" s="49"/>
@@ -6982,7 +7211,7 @@
       <c r="G222" s="46"/>
       <c r="H222" s="46"/>
       <c r="I222" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J222" s="49"/>
@@ -7000,7 +7229,7 @@
       <c r="G223" s="46"/>
       <c r="H223" s="46"/>
       <c r="I223" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J223" s="49"/>
@@ -7018,7 +7247,7 @@
       <c r="G224" s="46"/>
       <c r="H224" s="46"/>
       <c r="I224" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J224" s="49"/>
@@ -7036,7 +7265,7 @@
       <c r="G225" s="46"/>
       <c r="H225" s="46"/>
       <c r="I225" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J225" s="49"/>
@@ -7054,13 +7283,14 @@
       <c r="G226" s="46"/>
       <c r="H226" s="46"/>
       <c r="I226" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J226" s="49"/>
       <c r="K226" s="35"/>
     </row>
     <row r="227" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A227" s="42"/>
       <c r="B227" s="43"/>
       <c r="C227" s="44" t="s">
         <v>16</v>
@@ -7071,13 +7301,14 @@
       <c r="G227" s="46"/>
       <c r="H227" s="46"/>
       <c r="I227" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J227" s="49"/>
       <c r="K227" s="35"/>
     </row>
     <row r="228" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A228" s="42"/>
       <c r="B228" s="43"/>
       <c r="C228" s="44" t="s">
         <v>16</v>
@@ -7088,7 +7319,7 @@
       <c r="G228" s="46"/>
       <c r="H228" s="46"/>
       <c r="I228" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J228" s="49"/>
@@ -7106,7 +7337,7 @@
       <c r="G229" s="46"/>
       <c r="H229" s="46"/>
       <c r="I229" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J229" s="49"/>
@@ -7124,7 +7355,7 @@
       <c r="G230" s="46"/>
       <c r="H230" s="46"/>
       <c r="I230" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J230" s="49"/>
@@ -7142,13 +7373,14 @@
       <c r="G231" s="46"/>
       <c r="H231" s="46"/>
       <c r="I231" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J231" s="49"/>
       <c r="K231" s="35"/>
     </row>
     <row r="232" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A232" s="42"/>
       <c r="B232" s="43"/>
       <c r="C232" s="44" t="s">
         <v>16</v>
@@ -7159,13 +7391,14 @@
       <c r="G232" s="46"/>
       <c r="H232" s="46"/>
       <c r="I232" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J232" s="49"/>
       <c r="K232" s="35"/>
     </row>
     <row r="233" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A233" s="42"/>
       <c r="B233" s="43"/>
       <c r="C233" s="44" t="s">
         <v>16</v>
@@ -7176,13 +7409,14 @@
       <c r="G233" s="46"/>
       <c r="H233" s="46"/>
       <c r="I233" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J233" s="49"/>
       <c r="K233" s="35"/>
     </row>
     <row r="234" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A234" s="42"/>
       <c r="B234" s="43"/>
       <c r="C234" s="44" t="s">
         <v>16</v>
@@ -7193,13 +7427,14 @@
       <c r="G234" s="46"/>
       <c r="H234" s="46"/>
       <c r="I234" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J234" s="49"/>
       <c r="K234" s="35"/>
     </row>
     <row r="235" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A235" s="42"/>
       <c r="B235" s="43"/>
       <c r="C235" s="44" t="s">
         <v>16</v>
@@ -7210,13 +7445,14 @@
       <c r="G235" s="46"/>
       <c r="H235" s="46"/>
       <c r="I235" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J235" s="49"/>
       <c r="K235" s="35"/>
     </row>
     <row r="236" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A236" s="42"/>
       <c r="B236" s="43"/>
       <c r="C236" s="44" t="s">
         <v>16</v>
@@ -7227,7 +7463,7 @@
       <c r="G236" s="46"/>
       <c r="H236" s="46"/>
       <c r="I236" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J236" s="49"/>
@@ -7245,7 +7481,7 @@
       <c r="G237" s="46"/>
       <c r="H237" s="46"/>
       <c r="I237" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J237" s="49"/>
@@ -7263,13 +7499,14 @@
       <c r="G238" s="46"/>
       <c r="H238" s="46"/>
       <c r="I238" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J238" s="49"/>
       <c r="K238" s="35"/>
     </row>
     <row r="239" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A239" s="42"/>
       <c r="B239" s="43"/>
       <c r="C239" s="44" t="s">
         <v>16</v>
@@ -7280,418 +7517,42 @@
       <c r="G239" s="46"/>
       <c r="H239" s="46"/>
       <c r="I239" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J239" s="49"/>
       <c r="K239" s="35"/>
     </row>
-    <row r="240" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B240" s="43"/>
-      <c r="C240" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D240" s="43"/>
-      <c r="E240" s="45"/>
-      <c r="F240" s="45"/>
-      <c r="G240" s="46"/>
-      <c r="H240" s="46"/>
-      <c r="I240" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J240" s="49"/>
-      <c r="K240" s="35"/>
-    </row>
-    <row r="241" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B241" s="43"/>
-      <c r="C241" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D241" s="43"/>
-      <c r="E241" s="45"/>
-      <c r="F241" s="45"/>
-      <c r="G241" s="46"/>
-      <c r="H241" s="46"/>
-      <c r="I241" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J241" s="49"/>
-      <c r="K241" s="35"/>
-    </row>
-    <row r="242" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A242" s="42"/>
-      <c r="B242" s="43"/>
-      <c r="C242" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D242" s="43"/>
-      <c r="E242" s="45"/>
-      <c r="F242" s="45"/>
-      <c r="G242" s="46"/>
-      <c r="H242" s="46"/>
-      <c r="I242" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J242" s="49"/>
-      <c r="K242" s="35"/>
-    </row>
-    <row r="243" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A243" s="42"/>
-      <c r="B243" s="43"/>
-      <c r="C243" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D243" s="43"/>
-      <c r="E243" s="45"/>
-      <c r="F243" s="45"/>
-      <c r="G243" s="46"/>
-      <c r="H243" s="46"/>
-      <c r="I243" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J243" s="49"/>
-      <c r="K243" s="35"/>
-    </row>
-    <row r="244" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A244" s="42"/>
-      <c r="B244" s="43"/>
-      <c r="C244" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D244" s="43"/>
-      <c r="E244" s="45"/>
-      <c r="F244" s="45"/>
-      <c r="G244" s="46"/>
-      <c r="H244" s="46"/>
-      <c r="I244" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J244" s="49"/>
-      <c r="K244" s="35"/>
-    </row>
-    <row r="245" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A245" s="42"/>
-      <c r="B245" s="43"/>
-      <c r="C245" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D245" s="43"/>
-      <c r="E245" s="45"/>
-      <c r="F245" s="45"/>
-      <c r="G245" s="46"/>
-      <c r="H245" s="46"/>
-      <c r="I245" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J245" s="49"/>
-      <c r="K245" s="35"/>
-    </row>
-    <row r="246" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A246" s="42"/>
-      <c r="B246" s="43"/>
-      <c r="C246" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D246" s="43"/>
-      <c r="E246" s="45"/>
-      <c r="F246" s="45"/>
-      <c r="G246" s="46"/>
-      <c r="H246" s="46"/>
-      <c r="I246" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J246" s="49"/>
-      <c r="K246" s="35"/>
-    </row>
-    <row r="247" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A247" s="42"/>
-      <c r="B247" s="43"/>
-      <c r="C247" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D247" s="43"/>
-      <c r="E247" s="45"/>
-      <c r="F247" s="45"/>
-      <c r="G247" s="46"/>
-      <c r="H247" s="46"/>
-      <c r="I247" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J247" s="49"/>
-      <c r="K247" s="35"/>
-    </row>
-    <row r="248" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A248" s="42"/>
-      <c r="B248" s="43"/>
-      <c r="C248" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D248" s="43"/>
-      <c r="E248" s="45"/>
-      <c r="F248" s="45"/>
-      <c r="G248" s="46"/>
-      <c r="H248" s="46"/>
-      <c r="I248" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J248" s="49"/>
-      <c r="K248" s="35"/>
-    </row>
-    <row r="249" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A249" s="42"/>
-      <c r="B249" s="43"/>
-      <c r="C249" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D249" s="43"/>
-      <c r="E249" s="45"/>
-      <c r="F249" s="45"/>
-      <c r="G249" s="46"/>
-      <c r="H249" s="46"/>
-      <c r="I249" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J249" s="49"/>
-      <c r="K249" s="35"/>
-    </row>
-    <row r="250" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A250" s="42"/>
-      <c r="B250" s="43"/>
-      <c r="C250" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D250" s="43"/>
-      <c r="E250" s="45"/>
-      <c r="F250" s="45"/>
-      <c r="G250" s="46"/>
-      <c r="H250" s="46"/>
-      <c r="I250" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J250" s="49"/>
-      <c r="K250" s="35"/>
-    </row>
-    <row r="251" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A251" s="42"/>
-      <c r="B251" s="43"/>
-      <c r="C251" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D251" s="43"/>
-      <c r="E251" s="45"/>
-      <c r="F251" s="45"/>
-      <c r="G251" s="46"/>
-      <c r="H251" s="46"/>
-      <c r="I251" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J251" s="49"/>
-      <c r="K251" s="35"/>
-    </row>
-    <row r="252" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A252" s="42"/>
-      <c r="B252" s="43"/>
-      <c r="C252" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D252" s="43"/>
-      <c r="E252" s="45"/>
-      <c r="F252" s="45"/>
-      <c r="G252" s="46"/>
-      <c r="H252" s="46"/>
-      <c r="I252" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J252" s="49"/>
-      <c r="K252" s="35"/>
-    </row>
-    <row r="253" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A253" s="42"/>
-      <c r="B253" s="43"/>
-      <c r="C253" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D253" s="43"/>
-      <c r="E253" s="45"/>
-      <c r="F253" s="45"/>
-      <c r="G253" s="46"/>
-      <c r="H253" s="46"/>
-      <c r="I253" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J253" s="49"/>
-      <c r="K253" s="35"/>
-    </row>
-    <row r="254" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A254" s="42"/>
-      <c r="B254" s="43"/>
-      <c r="C254" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D254" s="43"/>
-      <c r="E254" s="45"/>
-      <c r="F254" s="45"/>
-      <c r="G254" s="46"/>
-      <c r="H254" s="46"/>
-      <c r="I254" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J254" s="49"/>
-      <c r="K254" s="35"/>
-    </row>
-    <row r="255" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A255" s="42"/>
-      <c r="B255" s="43"/>
-      <c r="C255" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D255" s="43"/>
-      <c r="E255" s="45"/>
-      <c r="F255" s="45"/>
-      <c r="G255" s="46"/>
-      <c r="H255" s="46"/>
-      <c r="I255" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J255" s="49"/>
-      <c r="K255" s="35"/>
-    </row>
-    <row r="256" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A256" s="42"/>
-      <c r="B256" s="43"/>
-      <c r="C256" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D256" s="43"/>
-      <c r="E256" s="45"/>
-      <c r="F256" s="45"/>
-      <c r="G256" s="46"/>
-      <c r="H256" s="46"/>
-      <c r="I256" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J256" s="49"/>
-      <c r="K256" s="35"/>
-    </row>
-    <row r="257" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A257" s="42"/>
-      <c r="B257" s="43"/>
-      <c r="C257" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D257" s="43"/>
-      <c r="E257" s="45"/>
-      <c r="F257" s="45"/>
-      <c r="G257" s="46"/>
-      <c r="H257" s="46"/>
-      <c r="I257" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J257" s="49"/>
-      <c r="K257" s="35"/>
-    </row>
-    <row r="258" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A258" s="42"/>
-      <c r="B258" s="43"/>
-      <c r="C258" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D258" s="43"/>
-      <c r="E258" s="45"/>
-      <c r="F258" s="45"/>
-      <c r="G258" s="46"/>
-      <c r="H258" s="46"/>
-      <c r="I258" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J258" s="49"/>
-      <c r="K258" s="35"/>
-    </row>
-    <row r="259" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A259" s="42"/>
-      <c r="B259" s="43"/>
-      <c r="C259" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D259" s="43"/>
-      <c r="E259" s="45"/>
-      <c r="F259" s="45"/>
-      <c r="G259" s="46"/>
-      <c r="H259" s="46"/>
-      <c r="I259" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J259" s="49"/>
-      <c r="K259" s="35"/>
-    </row>
-    <row r="260" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A260" s="42"/>
-      <c r="B260" s="43"/>
-      <c r="C260" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D260" s="43"/>
-      <c r="E260" s="45"/>
-      <c r="F260" s="45"/>
-      <c r="G260" s="46"/>
-      <c r="H260" s="46"/>
-      <c r="I260" s="46">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J260" s="49"/>
-      <c r="K260" s="35"/>
-    </row>
-    <row r="261" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A261" s="37"/>
-      <c r="B261" s="38"/>
-      <c r="C261" s="38"/>
-      <c r="D261" s="38"/>
-      <c r="E261" s="38" t="s">
+    <row r="240" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A240" s="37"/>
+      <c r="B240" s="38"/>
+      <c r="C240" s="38"/>
+      <c r="D240" s="38"/>
+      <c r="E240" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F261" s="38"/>
-      <c r="G261" s="39">
-        <f t="shared" ref="G261:H261" si="27">SUM(G220:G260)</f>
-        <v>0</v>
-      </c>
-      <c r="H261" s="39">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I261" s="39">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J261" s="40"/>
-      <c r="K261" s="41"/>
+      <c r="F240" s="38"/>
+      <c r="G240" s="39">
+        <f t="shared" ref="G240:H240" si="25">SUM(G199:G239)</f>
+        <v>0</v>
+      </c>
+      <c r="H240" s="39">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I240" s="39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J240" s="40"/>
+      <c r="K240" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{8BAC9A6B-5D32-4E8D-967D-E17D357516F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:K15" xr:uid="{596D22A6-8DFD-4731-B7A9-8CFC2CC5ECFA}">
+      <autoFilter ref="A1:K15" xr:uid="{FF743F8E-35AC-4AFD-B147-021E0266BB34}">
         <filterColumn colId="1">
           <filters blank="1">
             <filter val="- Weekplan item 1_x000a_- Weekplan item 2_x000a_- Weekplan item 3_x000a_- etc"/>
@@ -7702,17 +7563,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
-    <mergeCell ref="A217:K217"/>
-    <mergeCell ref="B218:K218"/>
-    <mergeCell ref="B219:K219"/>
-    <mergeCell ref="A131:K131"/>
+    <mergeCell ref="A196:K196"/>
+    <mergeCell ref="B197:K197"/>
+    <mergeCell ref="B198:K198"/>
+    <mergeCell ref="A110:K110"/>
     <mergeCell ref="A67:K67"/>
     <mergeCell ref="B68:K68"/>
     <mergeCell ref="B69:K69"/>
     <mergeCell ref="A89:K89"/>
-    <mergeCell ref="A172:K172"/>
-    <mergeCell ref="B173:K173"/>
-    <mergeCell ref="B174:K174"/>
+    <mergeCell ref="A151:K151"/>
+    <mergeCell ref="B152:K152"/>
+    <mergeCell ref="B153:K153"/>
+    <mergeCell ref="B112:K112"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
@@ -7722,182 +7584,136 @@
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="B43:K43"/>
     <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B132:K132"/>
-    <mergeCell ref="B133:K133"/>
+    <mergeCell ref="B111:K111"/>
     <mergeCell ref="B90:K90"/>
     <mergeCell ref="B91:K91"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
-  <conditionalFormatting sqref="B5:B21 B24:B40 B45:B65 B92:B129 B134:B170 B70:B87">
-    <cfRule type="containsText" dxfId="43" priority="35" operator="containsText" text="Unplanned">
+  <conditionalFormatting sqref="B5:B21 B24:B40 B45:B65 B70:B87 B113:B149 B92:B108">
+    <cfRule type="containsText" dxfId="30" priority="37" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="36" operator="containsText" text="Planned">
+    <cfRule type="containsText" dxfId="29" priority="38" operator="containsText" text="Planned">
       <formula>NOT(ISERROR(SEARCH(("Planned"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="In-Progress">
+    <cfRule type="containsText" dxfId="28" priority="39" operator="containsText" text="In-Progress">
       <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="27" priority="40" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="26" priority="41" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH(("Done"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B22 B24:B41 B43:B66 B90:B130 B132:B171 B173:B216 B68:B88">
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Unplanned">
+  <conditionalFormatting sqref="B5:B22 B24:B41 B43:B66 B68:B88 B111:B150 B152:B195 B90:B109">
+    <cfRule type="containsText" dxfId="25" priority="42" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Cancelled">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="Cancelled">
       <formula>NOT(ISERROR(SEARCH(("Cancelled"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B175:B178 B202:B215">
-    <cfRule type="containsText" dxfId="36" priority="30" operator="containsText" text="Unplanned">
-      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B175))))</formula>
+  <conditionalFormatting sqref="B154:B194">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Unplanned">
+      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B154))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Planned">
-      <formula>NOT(ISERROR(SEARCH(("Planned"),(B175))))</formula>
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Planned">
+      <formula>NOT(ISERROR(SEARCH(("Planned"),(B154))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="In-Progress">
-      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B175))))</formula>
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="In-Progress">
+      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B154))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B175))))</formula>
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B154))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH(("Done"),(B175))))</formula>
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH(("Done"),(B154))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 G3:G22 G26:G41 G45:G66 G92:G130 G134:G171 G175:G216 G70:G88">
-    <cfRule type="cellIs" dxfId="31" priority="44" operator="greaterThan">
+  <conditionalFormatting sqref="B197:B240">
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="Unplanned">
+      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B197))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Cancelled">
+      <formula>NOT(ISERROR(SEARCH(("Cancelled"),(B197))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:B239">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Unplanned">
+      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B199))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Planned">
+      <formula>NOT(ISERROR(SEARCH(("Planned"),(B199))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="In-Progress">
+      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B199))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B199))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH(("Done"),(B199))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1 G3:G22 G26:G41 G45:G66 G70:G88 G113:G150 G154:G195 G92:G109">
+    <cfRule type="cellIs" dxfId="11" priority="46" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H4 H7:H32 H36:H44 H46:H261">
-    <cfRule type="containsBlanks" dxfId="30" priority="45">
+  <conditionalFormatting sqref="G199:G240">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H4 H7:H32 H36:H44 H46:H91 H93:H95 H97:H240">
+    <cfRule type="containsBlanks" dxfId="9" priority="47">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="30" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H35">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="29" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="28" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I22 I26:I41 I45:I66 I92:I130 I134:I171 I175:I216 I70:I88">
-    <cfRule type="expression" dxfId="26" priority="42">
+  <conditionalFormatting sqref="H92">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I22 I26:I41 I45:I66 I70:I88 I113:I150 I154:I195 I92:I109">
+    <cfRule type="expression" dxfId="3" priority="44">
       <formula>H5/G5&gt;=1.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="43">
+    <cfRule type="expression" dxfId="2" priority="45">
       <formula>H5/G5&lt;=0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B218:B221 B245:B261">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Unplanned">
-      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B218))))</formula>
+  <conditionalFormatting sqref="I199:I240">
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>H199/G199&gt;=1.5</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Cancelled">
-      <formula>NOT(ISERROR(SEARCH(("Cancelled"),(B218))))</formula>
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>H199/G199&lt;=0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B220:B221 B245:B260">
-    <cfRule type="containsText" dxfId="22" priority="16" operator="containsText" text="Unplanned">
-      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B220))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="Planned">
-      <formula>NOT(ISERROR(SEARCH(("Planned"),(B220))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="In-Progress">
-      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B220))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B220))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH(("Done"),(B220))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G220:G221 G245:G261">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="greaterThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I220:I221 I245:I261">
-    <cfRule type="expression" dxfId="16" priority="23">
-      <formula>H220/G220&gt;=1.5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="24">
-      <formula>H220/G220&lt;=0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179:B201">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Unplanned">
-      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B179))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Planned">
-      <formula>NOT(ISERROR(SEARCH(("Planned"),(B179))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="In-Progress">
-      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B179))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B179))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH(("Done"),(B179))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B222:B244">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Unplanned">
-      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B222))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Cancelled">
-      <formula>NOT(ISERROR(SEARCH(("Cancelled"),(B222))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G222:G244">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I222:I244">
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>H222/G222&gt;=1.5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>H222/G222&lt;=0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B222:B244">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Unplanned">
-      <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B222))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Planned">
-      <formula>NOT(ISERROR(SEARCH(("Planned"),(B222))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In-Progress">
-      <formula>NOT(ISERROR(SEARCH(("In-Progress"),(B222))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(B222))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH(("Done"),(B222))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" sqref="F92:F129 F134:F170 F5:F21 F45:F65 F220:F260 F26:F40 F175:F215 F70:F87" xr:uid="{0FAB3063-668E-4727-8636-10D0A6594410}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="F70:F87 F113:F149 F5:F21 F45:F65 F199:F239 F26:F40 F154:F194 F92:F108" xr:uid="{0FAB3063-668E-4727-8636-10D0A6594410}">
       <formula1>"ILO 1.6, ILO 2.6, ILO 5.1, ILO 6.4, ILO 8.5, ILO 8.6"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7929,23 +7745,46 @@
     <hyperlink ref="J49" r:id="rId25" xr:uid="{66680BDA-C870-494B-B2F5-4DA549E4D369}"/>
     <hyperlink ref="J34" r:id="rId26" xr:uid="{9D1A3009-1C02-4C43-9CE5-6D2F48979553}"/>
     <hyperlink ref="J58" r:id="rId27" xr:uid="{18C5F7D9-5ECD-4D97-9662-8B9D7E8AC324}"/>
+    <hyperlink ref="J61" r:id="rId28" xr:uid="{564310FE-E1B7-4B63-A10D-4A23FE6F2901}"/>
+    <hyperlink ref="J62" r:id="rId29" xr:uid="{29E6B5E7-0702-42F9-BC70-53E1AB964403}"/>
+    <hyperlink ref="J63" r:id="rId30" xr:uid="{D150DE60-0953-445D-8372-824388D8E34A}"/>
+    <hyperlink ref="J64" r:id="rId31" xr:uid="{C93AEFCC-B21B-4D54-8866-F2536C5ED6A6}"/>
+    <hyperlink ref="J65" r:id="rId32" xr:uid="{E2BBA728-0E76-44C1-8F0D-F2FF35EF01EF}"/>
+    <hyperlink ref="J60" r:id="rId33" xr:uid="{1C1CF814-BAB2-4221-9427-BEA209794439}"/>
+    <hyperlink ref="J72" r:id="rId34" xr:uid="{64E4A056-19FE-4102-AB9A-11D9E25867A3}"/>
+    <hyperlink ref="J73" r:id="rId35" xr:uid="{CC60A773-6DCC-48F8-ABCB-3ABDEC663E25}"/>
+    <hyperlink ref="J74" r:id="rId36" xr:uid="{1F8608E2-7E97-42EF-94E9-535E00B8F15A}"/>
+    <hyperlink ref="J75" r:id="rId37" xr:uid="{FC2E3C33-1D47-4D88-BCFD-E39FF33A3B5D}"/>
+    <hyperlink ref="J76" r:id="rId38" xr:uid="{7B388090-067C-441B-A991-FCC2A80E2A28}"/>
+    <hyperlink ref="J77" r:id="rId39" xr:uid="{344089A5-D636-4023-9F56-864A769A55EF}"/>
+    <hyperlink ref="J80" r:id="rId40" xr:uid="{EA85D743-944E-4D0B-BF13-B123EFBFD9B4}"/>
+    <hyperlink ref="J81" r:id="rId41" xr:uid="{FE41D804-09A9-4B2C-9473-8CB0ED7CF85F}"/>
+    <hyperlink ref="J82" r:id="rId42" xr:uid="{101D66A6-BF6E-4F53-896B-3B389DD591AD}"/>
+    <hyperlink ref="J83" r:id="rId43" xr:uid="{1EEAF6D0-5854-4E7F-92BF-331DF3ADE6F8}"/>
+    <hyperlink ref="J84" r:id="rId44" xr:uid="{927A39A1-5F14-4B3F-A3BD-7EB08CE97F00}"/>
+    <hyperlink ref="J93" r:id="rId45" xr:uid="{84DF955A-4A1E-4BFB-B141-14952C636841}"/>
+    <hyperlink ref="J102" r:id="rId46" xr:uid="{64888C7D-6B11-4463-9BA4-3BDA83C07270}"/>
+    <hyperlink ref="J99" r:id="rId47" xr:uid="{77635250-B089-4A14-AACF-8AC3B7A3182E}"/>
+    <hyperlink ref="J94" r:id="rId48" xr:uid="{AC1925E0-F9AC-483E-8027-7DB67F540E45}"/>
+    <hyperlink ref="J106" r:id="rId49" xr:uid="{587BD925-A31A-4735-9839-E38E5F26A97C}"/>
+    <hyperlink ref="J107" r:id="rId50" xr:uid="{C6299173-1512-4572-986F-718D4F5F0749}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId28"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId51"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Drop-downs'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E92:E129 E134:E170 E5:E21 E45:E65 E220:E260 E26:E40 E175:E215 E70:E87</xm:sqref>
+          <xm:sqref>E70:E87 E113:E149 E5:E21 E45:E65 E199:E239 E26:E40 E154:E194 E92:E108</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Drop-downs'!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B92:B129 B134:B170 B5:B21 B45:B65 B26:B40 B175:B215 B220:B260 B70:B87</xm:sqref>
+          <xm:sqref>B70:B87 B113:B149 B5:B21 B45:B65 B26:B40 B154:B194 B199:B239 B92:B108</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8383,58 +8222,58 @@
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Logs/adsai_y2b_25_26_worklog.xlsx
+++ b/Logs/adsai_y2b_25_26_worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\2025-26b-fai2-adsai-MaciejCzerniak243552\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF0B42D-2EB7-45AA-A0EB-F49CFFC656B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8429F805-106A-4DC0-86F7-2D73252B5532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1278,34 +1278,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1317,6 +1289,8 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1332,6 +1306,32 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1936,8 +1936,8 @@
   <dimension ref="A1:K240"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1990,53 +1990,53 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
@@ -2600,53 +2600,53 @@
       <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="67"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
     </row>
     <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="60"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="60"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" s="48" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="50">
@@ -3163,53 +3163,53 @@
       <c r="K41" s="36"/>
     </row>
     <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="60"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="64"/>
     </row>
     <row r="43" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="60"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="64"/>
     </row>
     <row r="44" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="60"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="64"/>
     </row>
     <row r="45" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
@@ -3927,53 +3927,53 @@
       <c r="K66" s="36"/>
     </row>
     <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="75" t="s">
+      <c r="A67" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="60"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="64"/>
     </row>
     <row r="68" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="76" t="s">
+      <c r="B68" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="60"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="64"/>
     </row>
     <row r="69" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="76" t="s">
+      <c r="B69" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="60"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="64"/>
     </row>
     <row r="70" spans="1:11" s="48" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
@@ -4602,53 +4602,53 @@
       <c r="K88" s="36"/>
     </row>
     <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="77" t="s">
+      <c r="A89" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="59"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="59"/>
-      <c r="J89" s="59"/>
-      <c r="K89" s="60"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="63"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="64"/>
     </row>
     <row r="90" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="64" t="s">
+      <c r="B90" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="59"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="60"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="64"/>
     </row>
     <row r="91" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="64" t="s">
+      <c r="B91" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="59"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="59"/>
-      <c r="J91" s="59"/>
-      <c r="K91" s="60"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="63"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="63"/>
+      <c r="K91" s="64"/>
     </row>
     <row r="92" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="42">
@@ -5217,53 +5217,53 @@
       <c r="K109" s="36"/>
     </row>
     <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="74" t="s">
+      <c r="A110" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="B110" s="59"/>
-      <c r="C110" s="59"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="59"/>
-      <c r="F110" s="59"/>
-      <c r="G110" s="59"/>
-      <c r="H110" s="59"/>
-      <c r="I110" s="59"/>
-      <c r="J110" s="59"/>
-      <c r="K110" s="60"/>
+      <c r="B110" s="63"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="63"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="63"/>
+      <c r="H110" s="63"/>
+      <c r="I110" s="63"/>
+      <c r="J110" s="63"/>
+      <c r="K110" s="64"/>
     </row>
     <row r="111" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B111" s="63" t="s">
+      <c r="B111" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C111" s="59"/>
-      <c r="D111" s="59"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59"/>
-      <c r="H111" s="59"/>
-      <c r="I111" s="59"/>
-      <c r="J111" s="59"/>
-      <c r="K111" s="60"/>
+      <c r="C111" s="63"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="63"/>
+      <c r="J111" s="63"/>
+      <c r="K111" s="64"/>
     </row>
     <row r="112" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B112" s="63" t="s">
+      <c r="B112" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C112" s="59"/>
-      <c r="D112" s="59"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="59"/>
-      <c r="I112" s="59"/>
-      <c r="J112" s="59"/>
-      <c r="K112" s="60"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="63"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="63"/>
+      <c r="H112" s="63"/>
+      <c r="I112" s="63"/>
+      <c r="J112" s="63"/>
+      <c r="K112" s="64"/>
     </row>
     <row r="113" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="42"/>
@@ -5946,53 +5946,53 @@
       <c r="K150" s="36"/>
     </row>
     <row r="151" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="78" t="s">
+      <c r="A151" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B151" s="79"/>
-      <c r="C151" s="79"/>
-      <c r="D151" s="79"/>
-      <c r="E151" s="79"/>
-      <c r="F151" s="79"/>
-      <c r="G151" s="79"/>
-      <c r="H151" s="79"/>
-      <c r="I151" s="79"/>
-      <c r="J151" s="79"/>
-      <c r="K151" s="80"/>
+      <c r="B151" s="69"/>
+      <c r="C151" s="69"/>
+      <c r="D151" s="69"/>
+      <c r="E151" s="69"/>
+      <c r="F151" s="69"/>
+      <c r="G151" s="69"/>
+      <c r="H151" s="69"/>
+      <c r="I151" s="69"/>
+      <c r="J151" s="69"/>
+      <c r="K151" s="70"/>
     </row>
     <row r="152" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B152" s="81" t="s">
+      <c r="B152" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C152" s="79"/>
-      <c r="D152" s="79"/>
-      <c r="E152" s="79"/>
-      <c r="F152" s="79"/>
-      <c r="G152" s="79"/>
-      <c r="H152" s="79"/>
-      <c r="I152" s="79"/>
-      <c r="J152" s="79"/>
-      <c r="K152" s="80"/>
+      <c r="C152" s="69"/>
+      <c r="D152" s="69"/>
+      <c r="E152" s="69"/>
+      <c r="F152" s="69"/>
+      <c r="G152" s="69"/>
+      <c r="H152" s="69"/>
+      <c r="I152" s="69"/>
+      <c r="J152" s="69"/>
+      <c r="K152" s="70"/>
     </row>
     <row r="153" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B153" s="81" t="s">
+      <c r="B153" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C153" s="79"/>
-      <c r="D153" s="79"/>
-      <c r="E153" s="79"/>
-      <c r="F153" s="79"/>
-      <c r="G153" s="79"/>
-      <c r="H153" s="79"/>
-      <c r="I153" s="79"/>
-      <c r="J153" s="79"/>
-      <c r="K153" s="80"/>
+      <c r="C153" s="69"/>
+      <c r="D153" s="69"/>
+      <c r="E153" s="69"/>
+      <c r="F153" s="69"/>
+      <c r="G153" s="69"/>
+      <c r="H153" s="69"/>
+      <c r="I153" s="69"/>
+      <c r="J153" s="69"/>
+      <c r="K153" s="70"/>
     </row>
     <row r="154" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="42"/>
@@ -6747,53 +6747,53 @@
       <c r="K195" s="41"/>
     </row>
     <row r="196" spans="1:11" s="55" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="70" t="s">
+      <c r="A196" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B196" s="71"/>
-      <c r="C196" s="71"/>
-      <c r="D196" s="71"/>
-      <c r="E196" s="71"/>
-      <c r="F196" s="71"/>
-      <c r="G196" s="71"/>
-      <c r="H196" s="71"/>
-      <c r="I196" s="71"/>
-      <c r="J196" s="71"/>
-      <c r="K196" s="72"/>
+      <c r="B196" s="59"/>
+      <c r="C196" s="59"/>
+      <c r="D196" s="59"/>
+      <c r="E196" s="59"/>
+      <c r="F196" s="59"/>
+      <c r="G196" s="59"/>
+      <c r="H196" s="59"/>
+      <c r="I196" s="59"/>
+      <c r="J196" s="59"/>
+      <c r="K196" s="60"/>
     </row>
     <row r="197" spans="1:11" s="55" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B197" s="73" t="s">
+      <c r="B197" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C197" s="71"/>
-      <c r="D197" s="71"/>
-      <c r="E197" s="71"/>
-      <c r="F197" s="71"/>
-      <c r="G197" s="71"/>
-      <c r="H197" s="71"/>
-      <c r="I197" s="71"/>
-      <c r="J197" s="71"/>
-      <c r="K197" s="72"/>
+      <c r="C197" s="59"/>
+      <c r="D197" s="59"/>
+      <c r="E197" s="59"/>
+      <c r="F197" s="59"/>
+      <c r="G197" s="59"/>
+      <c r="H197" s="59"/>
+      <c r="I197" s="59"/>
+      <c r="J197" s="59"/>
+      <c r="K197" s="60"/>
     </row>
     <row r="198" spans="1:11" s="55" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B198" s="73" t="s">
+      <c r="B198" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C198" s="71"/>
-      <c r="D198" s="71"/>
-      <c r="E198" s="71"/>
-      <c r="F198" s="71"/>
-      <c r="G198" s="71"/>
-      <c r="H198" s="71"/>
-      <c r="I198" s="71"/>
-      <c r="J198" s="71"/>
-      <c r="K198" s="72"/>
+      <c r="C198" s="59"/>
+      <c r="D198" s="59"/>
+      <c r="E198" s="59"/>
+      <c r="F198" s="59"/>
+      <c r="G198" s="59"/>
+      <c r="H198" s="59"/>
+      <c r="I198" s="59"/>
+      <c r="J198" s="59"/>
+      <c r="K198" s="60"/>
     </row>
     <row r="199" spans="1:11" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="42"/>
@@ -7552,7 +7552,7 @@
   <customSheetViews>
     <customSheetView guid="{8BAC9A6B-5D32-4E8D-967D-E17D357516F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:K15" xr:uid="{FF743F8E-35AC-4AFD-B147-021E0266BB34}">
+      <autoFilter ref="A1:K15" xr:uid="{D59587F7-CF62-415A-92AE-77EADB120213}">
         <filterColumn colId="1">
           <filters blank="1">
             <filter val="- Weekplan item 1_x000a_- Weekplan item 2_x000a_- Weekplan item 3_x000a_- etc"/>
@@ -7563,6 +7563,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B111:K111"/>
+    <mergeCell ref="B90:K90"/>
+    <mergeCell ref="B91:K91"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="B24:K24"/>
     <mergeCell ref="A196:K196"/>
     <mergeCell ref="B197:K197"/>
     <mergeCell ref="B198:K198"/>
@@ -7575,21 +7587,9 @@
     <mergeCell ref="B152:K152"/>
     <mergeCell ref="B153:K153"/>
     <mergeCell ref="B112:K112"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B111:K111"/>
-    <mergeCell ref="B90:K90"/>
-    <mergeCell ref="B91:K91"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
-  <conditionalFormatting sqref="B5:B21 B24:B40 B45:B65 B70:B87 B113:B149 B92:B108">
+  <conditionalFormatting sqref="B5:B21 B24:B40 B45:B65 B70:B87 B92:B108 B113:B149">
     <cfRule type="containsText" dxfId="30" priority="37" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
@@ -7606,7 +7606,7 @@
       <formula>NOT(ISERROR(SEARCH(("Done"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B22 B24:B41 B43:B66 B68:B88 B111:B150 B152:B195 B90:B109">
+  <conditionalFormatting sqref="B5:B22 B24:B41 B43:B66 B68:B88 B90:B109 B111:B150 B152:B195">
     <cfRule type="containsText" dxfId="25" priority="42" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
@@ -7656,7 +7656,7 @@
       <formula>NOT(ISERROR(SEARCH(("Done"),(B199))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 G3:G22 G26:G41 G45:G66 G70:G88 G113:G150 G154:G195 G92:G109">
+  <conditionalFormatting sqref="G1 G3:G22 G26:G41 G45:G66 G70:G88 G92:G109 G113:G150 G154:G195">
     <cfRule type="cellIs" dxfId="11" priority="46" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
@@ -7696,7 +7696,7 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I22 I26:I41 I45:I66 I70:I88 I113:I150 I154:I195 I92:I109">
+  <conditionalFormatting sqref="I5:I22 I26:I41 I45:I66 I70:I88 I92:I109 I113:I150 I154:I195">
     <cfRule type="expression" dxfId="3" priority="44">
       <formula>H5/G5&gt;=1.5</formula>
     </cfRule>
@@ -9435,12 +9435,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9679,20 +9681,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
+    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9717,12 +9720,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
-    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>